--- a/examples/data/20220927 ITR Tool Sample Data.xlsx
+++ b/examples/data/20220927 ITR Tool Sample Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/ITR-MichaelTiemannOSC/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830E5AF8-7847-8446-B4E0-88BB00DBA16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97097308-073E-C34D-A2AE-6FF7383B4C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11700" windowWidth="55220" windowHeight="26600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11700" windowWidth="71800" windowHeight="26600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me " sheetId="1" r:id="rId1"/>
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="424">
   <si>
     <t>company_name</t>
   </si>
@@ -1008,9 +1008,6 @@
     <t>Steel</t>
   </si>
   <si>
-    <t>Fe_ton</t>
-  </si>
-  <si>
     <t>Chevron Corp</t>
   </si>
   <si>
@@ -1192,9 +1189,6 @@
   </si>
   <si>
     <t>US3453708600</t>
-  </si>
-  <si>
-    <t>Gpassenger km</t>
   </si>
   <si>
     <t>Fortis, Inc.</t>
@@ -2093,9 +2087,6 @@
     <t>investment_value</t>
   </si>
   <si>
-    <t>Mpassenger km</t>
-  </si>
-  <si>
     <t>mboe</t>
   </si>
   <si>
@@ -2162,9 +2153,6 @@
     <t>boe</t>
   </si>
   <si>
-    <t>Tpassenger km</t>
-  </si>
-  <si>
     <t>Tokyo Electric Power Company</t>
   </si>
   <si>
@@ -2190,6 +2178,36 @@
   </si>
   <si>
     <t>Utilities</t>
+  </si>
+  <si>
+    <t>t Steel</t>
+  </si>
+  <si>
+    <t>Gpkm</t>
+  </si>
+  <si>
+    <t>Mpkm</t>
+  </si>
+  <si>
+    <t>Tpkm</t>
+  </si>
+  <si>
+    <t>Fictional Realty</t>
+  </si>
+  <si>
+    <t>TIE0001</t>
+  </si>
+  <si>
+    <t>US0001</t>
+  </si>
+  <si>
+    <t>Commercial Buildings</t>
+  </si>
+  <si>
+    <t>g CO2/m**2</t>
+  </si>
+  <si>
+    <t>thousand m**2</t>
   </si>
 </sst>
 </file>
@@ -3949,10 +3967,10 @@
   <dimension ref="A1:AZ82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="P77" sqref="P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="15"/>
@@ -3961,17 +3979,16 @@
     <col min="3" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="16.5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="25.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="3" customWidth="1"/>
+    <col min="10" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="15" width="25.6640625" customWidth="1"/>
     <col min="16" max="16" width="22.1640625" customWidth="1"/>
-    <col min="17" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="24" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="22" width="16.5" customWidth="1"/>
+    <col min="23" max="23" width="16.5" style="4" customWidth="1"/>
+    <col min="24" max="29" width="16.5" customWidth="1"/>
+    <col min="30" max="30" width="16.5" style="4" customWidth="1"/>
     <col min="45" max="49" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4800,13 +4817,13 @@
     </row>
     <row r="7" spans="1:52">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -4944,20 +4961,20 @@
     </row>
     <row r="8" spans="1:52">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>56</v>
@@ -5519,7 +5536,7 @@
         <v>58</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="Q12">
         <v>298055</v>
@@ -5601,13 +5618,13 @@
     </row>
     <row r="13" spans="1:52">
       <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
         <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -5739,13 +5756,13 @@
     </row>
     <row r="14" spans="1:52">
       <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="s">
         <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>104</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -5784,7 +5801,7 @@
         <v>58</v>
       </c>
       <c r="P14" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="Q14">
         <v>33209464.625</v>
@@ -5866,13 +5883,13 @@
     </row>
     <row r="15" spans="1:52">
       <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" t="s">
         <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>107</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
@@ -5991,13 +6008,13 @@
     </row>
     <row r="16" spans="1:52">
       <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
         <v>109</v>
-      </c>
-      <c r="C16" t="s">
-        <v>110</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
@@ -6037,7 +6054,7 @@
         <v>58</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="Q16">
         <v>1048006</v>
@@ -6104,13 +6121,13 @@
     </row>
     <row r="17" spans="1:50">
       <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>112</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
       </c>
       <c r="D17" t="s">
         <v>54</v>
@@ -6232,13 +6249,13 @@
     </row>
     <row r="18" spans="1:50">
       <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
         <v>115</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
       </c>
       <c r="D18" t="s">
         <v>54</v>
@@ -6357,13 +6374,13 @@
     </row>
     <row r="19" spans="1:50">
       <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
         <v>118</v>
-      </c>
-      <c r="C19" t="s">
-        <v>119</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
@@ -6501,13 +6518,13 @@
     </row>
     <row r="20" spans="1:50">
       <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>121</v>
-      </c>
-      <c r="C20" t="s">
-        <v>122</v>
       </c>
       <c r="D20" t="s">
         <v>54</v>
@@ -6626,13 +6643,13 @@
     </row>
     <row r="21" spans="1:50">
       <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" t="s">
         <v>124</v>
-      </c>
-      <c r="C21" t="s">
-        <v>125</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -6751,16 +6768,16 @@
     </row>
     <row r="22" spans="1:50">
       <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" t="s">
         <v>127</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>128</v>
-      </c>
-      <c r="D22" t="s">
-        <v>129</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>91</v>
@@ -6880,13 +6897,13 @@
     </row>
     <row r="23" spans="1:50">
       <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" t="s">
         <v>131</v>
-      </c>
-      <c r="C23" t="s">
-        <v>132</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
@@ -7039,19 +7056,19 @@
     </row>
     <row r="24" spans="1:50">
       <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" t="s">
         <v>134</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>135</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="F24" t="s">
         <v>55</v>
@@ -7082,7 +7099,7 @@
         <v>26933558000</v>
       </c>
       <c r="O24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P24" t="s">
         <v>59</v>
@@ -7144,13 +7161,13 @@
     </row>
     <row r="25" spans="1:50">
       <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" t="s">
         <v>140</v>
-      </c>
-      <c r="C25" t="s">
-        <v>141</v>
       </c>
       <c r="D25" t="s">
         <v>54</v>
@@ -7269,13 +7286,13 @@
     </row>
     <row r="26" spans="1:50">
       <c r="A26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" t="s">
         <v>143</v>
-      </c>
-      <c r="C26" t="s">
-        <v>144</v>
       </c>
       <c r="D26" t="s">
         <v>54</v>
@@ -7394,13 +7411,13 @@
     </row>
     <row r="27" spans="1:50">
       <c r="A27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
         <v>146</v>
-      </c>
-      <c r="C27" t="s">
-        <v>147</v>
       </c>
       <c r="D27" t="s">
         <v>54</v>
@@ -7519,13 +7536,13 @@
     </row>
     <row r="28" spans="1:50">
       <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" t="s">
         <v>149</v>
-      </c>
-      <c r="C28" t="s">
-        <v>150</v>
       </c>
       <c r="D28" t="s">
         <v>54</v>
@@ -7643,13 +7660,13 @@
     </row>
     <row r="29" spans="1:50">
       <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" t="s">
         <v>152</v>
-      </c>
-      <c r="C29" t="s">
-        <v>153</v>
       </c>
       <c r="D29" t="s">
         <v>54</v>
@@ -7689,7 +7706,7 @@
         <v>64</v>
       </c>
       <c r="P29" s="94" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q29">
         <v>117</v>
@@ -7806,13 +7823,13 @@
     </row>
     <row r="30" spans="1:50">
       <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" t="s">
         <v>155</v>
-      </c>
-      <c r="C30" t="s">
-        <v>156</v>
       </c>
       <c r="D30" t="s">
         <v>54</v>
@@ -7918,13 +7935,13 @@
     </row>
     <row r="31" spans="1:50">
       <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
         <v>158</v>
-      </c>
-      <c r="C31" t="s">
-        <v>159</v>
       </c>
       <c r="D31" t="s">
         <v>54</v>
@@ -7959,10 +7976,10 @@
         <v>257035000000</v>
       </c>
       <c r="O31" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P31" s="23" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="R31" s="20"/>
       <c r="S31" s="23">
@@ -8047,16 +8064,16 @@
     </row>
     <row r="32" spans="1:50">
       <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" t="s">
         <v>162</v>
-      </c>
-      <c r="C32" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" t="s">
-        <v>164</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" t="s">
@@ -8179,13 +8196,13 @@
     </row>
     <row r="33" spans="1:50">
       <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="s">
         <v>165</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" t="s">
-        <v>167</v>
       </c>
       <c r="D33" t="s">
         <v>54</v>
@@ -8223,7 +8240,7 @@
         <v>58</v>
       </c>
       <c r="P33" s="23" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="R33" s="20"/>
       <c r="S33" s="20"/>
@@ -8300,19 +8317,19 @@
     </row>
     <row r="34" spans="1:50">
       <c r="A34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" t="s">
         <v>169</v>
       </c>
-      <c r="C34" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" t="s">
-        <v>171</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
         <v>97</v>
@@ -8348,7 +8365,7 @@
         <v>58</v>
       </c>
       <c r="P34" s="23" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="Q34">
         <v>12075000</v>
@@ -8428,13 +8445,13 @@
     </row>
     <row r="35" spans="1:50">
       <c r="A35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" t="s">
         <v>172</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" t="s">
-        <v>174</v>
       </c>
       <c r="D35" t="s">
         <v>54</v>
@@ -8553,16 +8570,16 @@
     </row>
     <row r="36" spans="1:50">
       <c r="A36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" t="s">
         <v>176</v>
-      </c>
-      <c r="C36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" t="s">
-        <v>178</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>91</v>
@@ -8597,7 +8614,7 @@
         <v>141752000000</v>
       </c>
       <c r="O36" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P36" s="23" t="s">
         <v>59</v>
@@ -8689,13 +8706,13 @@
     </row>
     <row r="37" spans="1:50">
       <c r="A37" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C37" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D37" t="s">
         <v>54</v>
@@ -8733,7 +8750,7 @@
         <v>64</v>
       </c>
       <c r="P37" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R37">
         <v>37.5</v>
@@ -8822,13 +8839,13 @@
     </row>
     <row r="38" spans="1:50">
       <c r="A38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" t="s">
         <v>180</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" t="s">
-        <v>182</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
@@ -8947,13 +8964,13 @@
     </row>
     <row r="39" spans="1:50">
       <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" t="s">
         <v>186</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" t="s">
-        <v>188</v>
       </c>
       <c r="D39" t="s">
         <v>90</v>
@@ -9074,13 +9091,13 @@
     </row>
     <row r="40" spans="1:50">
       <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" t="s">
         <v>189</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" t="s">
-        <v>191</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
@@ -9199,19 +9216,19 @@
     </row>
     <row r="41" spans="1:50">
       <c r="A41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="D41" t="s">
         <v>193</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" s="30" t="s">
         <v>194</v>
-      </c>
-      <c r="D41" t="s">
-        <v>195</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>196</v>
       </c>
       <c r="F41" t="s">
         <v>97</v>
@@ -9249,7 +9266,7 @@
         <v>58</v>
       </c>
       <c r="P41" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="Q41">
         <v>80501000</v>
@@ -9331,13 +9348,13 @@
     </row>
     <row r="42" spans="1:50">
       <c r="A42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" t="s">
         <v>197</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" t="s">
-        <v>199</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
@@ -9456,13 +9473,13 @@
     </row>
     <row r="43" spans="1:50">
       <c r="A43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" t="s">
         <v>200</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" t="s">
-        <v>202</v>
       </c>
       <c r="D43" t="s">
         <v>54</v>
@@ -9581,13 +9598,13 @@
     </row>
     <row r="44" spans="1:50">
       <c r="A44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="s">
         <v>183</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" t="s">
-        <v>185</v>
       </c>
       <c r="D44" t="s">
         <v>54</v>
@@ -9626,7 +9643,7 @@
         <v>58</v>
       </c>
       <c r="P44" s="23" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="Q44">
         <v>4800000</v>
@@ -9721,13 +9738,13 @@
     </row>
     <row r="45" spans="1:50">
       <c r="A45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" t="s">
         <v>203</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" t="s">
-        <v>205</v>
       </c>
       <c r="D45" t="s">
         <v>54</v>
@@ -9849,16 +9866,16 @@
     </row>
     <row r="46" spans="1:50">
       <c r="A46" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C46" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" t="s">
@@ -9893,7 +9910,7 @@
         <v>64</v>
       </c>
       <c r="P46" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>66</v>
@@ -9998,16 +10015,16 @@
     </row>
     <row r="47" spans="1:50">
       <c r="A47" t="s">
+        <v>391</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C47" t="s">
         <v>394</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C47" t="s">
-        <v>397</v>
-      </c>
       <c r="D47" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" t="s">
@@ -10043,7 +10060,7 @@
         <v>64</v>
       </c>
       <c r="P47" s="23" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
@@ -10092,13 +10109,13 @@
     </row>
     <row r="48" spans="1:50">
       <c r="A48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" t="s">
         <v>206</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C48" t="s">
-        <v>208</v>
       </c>
       <c r="D48" t="s">
         <v>54</v>
@@ -10217,13 +10234,13 @@
     </row>
     <row r="49" spans="1:50">
       <c r="A49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" t="s">
         <v>209</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C49" t="s">
-        <v>211</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
@@ -10342,19 +10359,19 @@
     </row>
     <row r="50" spans="1:50">
       <c r="A50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" t="s">
         <v>212</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" t="s">
         <v>213</v>
       </c>
-      <c r="C50" t="s">
-        <v>214</v>
-      </c>
-      <c r="D50" t="s">
-        <v>215</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F50" t="s">
         <v>97</v>
@@ -10389,7 +10406,7 @@
         <v>58</v>
       </c>
       <c r="P50" s="23" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="Q50">
         <v>81309800</v>
@@ -10471,13 +10488,13 @@
     </row>
     <row r="51" spans="1:50">
       <c r="A51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" t="s">
         <v>216</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C51" t="s">
-        <v>218</v>
       </c>
       <c r="D51" t="s">
         <v>54</v>
@@ -10596,13 +10613,13 @@
     </row>
     <row r="52" spans="1:50">
       <c r="A52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" t="s">
         <v>219</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C52" t="s">
-        <v>221</v>
       </c>
       <c r="D52" t="s">
         <v>54</v>
@@ -10721,13 +10738,13 @@
     </row>
     <row r="53" spans="1:50">
       <c r="A53" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" t="s">
         <v>222</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C53" t="s">
-        <v>224</v>
       </c>
       <c r="D53" t="s">
         <v>54</v>
@@ -10846,13 +10863,13 @@
     </row>
     <row r="54" spans="1:50">
       <c r="A54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" t="s">
         <v>225</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C54" t="s">
-        <v>227</v>
       </c>
       <c r="D54" t="s">
         <v>54</v>
@@ -10971,16 +10988,16 @@
     </row>
     <row r="55" spans="1:50">
       <c r="A55" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55" t="s">
         <v>228</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="D55" t="s">
         <v>229</v>
-      </c>
-      <c r="C55" t="s">
-        <v>230</v>
-      </c>
-      <c r="D55" t="s">
-        <v>231</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" t="s">
@@ -11015,7 +11032,7 @@
         <v>64</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S55" s="85">
         <f>46.6*(52/44.7)</f>
@@ -11108,13 +11125,13 @@
     </row>
     <row r="56" spans="1:50">
       <c r="A56" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" t="s">
         <v>232</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C56" t="s">
-        <v>234</v>
       </c>
       <c r="D56" t="s">
         <v>54</v>
@@ -11233,13 +11250,13 @@
     </row>
     <row r="57" spans="1:50">
       <c r="A57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" t="s">
         <v>235</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" t="s">
-        <v>237</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
@@ -11279,7 +11296,7 @@
         <v>64</v>
       </c>
       <c r="P57" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q57">
         <v>68</v>
@@ -11386,16 +11403,16 @@
     </row>
     <row r="58" spans="1:50">
       <c r="A58" t="s">
+        <v>396</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C58" t="s">
+        <v>398</v>
+      </c>
+      <c r="D58" t="s">
         <v>399</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C58" t="s">
-        <v>401</v>
-      </c>
-      <c r="D58" t="s">
-        <v>402</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" t="s">
@@ -11430,7 +11447,7 @@
         <v>64</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="T58">
         <v>125.68</v>
@@ -11501,16 +11518,16 @@
     </row>
     <row r="59" spans="1:50">
       <c r="A59" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C59" t="s">
         <v>403</v>
       </c>
-      <c r="C59" t="s">
-        <v>406</v>
-      </c>
       <c r="D59" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" t="s">
@@ -11547,7 +11564,7 @@
         <v>58</v>
       </c>
       <c r="P59" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="R59">
         <f>10515907</f>
@@ -11657,13 +11674,13 @@
     </row>
     <row r="60" spans="1:50">
       <c r="A60" t="s">
+        <v>237</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" t="s">
         <v>239</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C60" t="s">
-        <v>241</v>
       </c>
       <c r="D60" t="s">
         <v>54</v>
@@ -11782,13 +11799,13 @@
     </row>
     <row r="61" spans="1:50">
       <c r="A61" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" t="s">
         <v>242</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C61" t="s">
-        <v>244</v>
       </c>
       <c r="D61" t="s">
         <v>54</v>
@@ -11827,7 +11844,7 @@
         <v>58</v>
       </c>
       <c r="P61" s="23" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="Q61">
         <v>3215942</v>
@@ -11894,16 +11911,16 @@
     </row>
     <row r="62" spans="1:50">
       <c r="A62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" t="s">
         <v>245</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C62" t="s">
-        <v>247</v>
-      </c>
       <c r="D62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>63</v>
@@ -12021,16 +12038,16 @@
     </row>
     <row r="63" spans="1:50">
       <c r="A63" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" t="s">
         <v>248</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="D63" t="s">
         <v>249</v>
-      </c>
-      <c r="C63" t="s">
-        <v>250</v>
-      </c>
-      <c r="D63" t="s">
-        <v>251</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>91</v>
@@ -12068,7 +12085,7 @@
         <v>58</v>
       </c>
       <c r="P63" s="23" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="Q63">
         <v>2000000</v>
@@ -12150,16 +12167,16 @@
     </row>
     <row r="64" spans="1:50">
       <c r="A64" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C64" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" t="s">
@@ -12194,7 +12211,7 @@
         <v>111638364676.0576</v>
       </c>
       <c r="O64" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P64" s="23" t="s">
         <v>59</v>
@@ -12280,16 +12297,16 @@
     </row>
     <row r="65" spans="1:50">
       <c r="A65" t="s">
+        <v>250</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" t="s">
         <v>252</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C65" t="s">
-        <v>254</v>
-      </c>
       <c r="D65" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>91</v>
@@ -12327,7 +12344,7 @@
         <v>58</v>
       </c>
       <c r="P65" s="23" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="Q65">
         <v>17744560</v>
@@ -12409,13 +12426,13 @@
     </row>
     <row r="66" spans="1:50">
       <c r="A66" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" t="s">
         <v>255</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C66" t="s">
-        <v>257</v>
       </c>
       <c r="D66" t="s">
         <v>54</v>
@@ -12452,7 +12469,7 @@
         <v>62131000000</v>
       </c>
       <c r="O66" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P66" s="23" t="s">
         <v>86</v>
@@ -12570,13 +12587,13 @@
     </row>
     <row r="67" spans="1:50">
       <c r="A67" t="s">
+        <v>256</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C67" t="s">
         <v>258</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C67" t="s">
-        <v>260</v>
       </c>
       <c r="D67" t="s">
         <v>54</v>
@@ -12615,7 +12632,7 @@
         <v>58</v>
       </c>
       <c r="P67" s="23" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="Q67">
         <v>99660</v>
@@ -12697,16 +12714,16 @@
     </row>
     <row r="68" spans="1:50">
       <c r="A68" t="s">
+        <v>259</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" t="s">
         <v>261</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C68" t="s">
-        <v>263</v>
-      </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" t="s">
@@ -12741,7 +12758,7 @@
         <v>64</v>
       </c>
       <c r="P68" s="23" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="S68">
         <v>1.92</v>
@@ -12830,13 +12847,13 @@
     </row>
     <row r="69" spans="1:50">
       <c r="A69" t="s">
+        <v>262</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" t="s">
         <v>264</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C69" t="s">
-        <v>266</v>
       </c>
       <c r="D69" t="s">
         <v>54</v>
@@ -12875,7 +12892,7 @@
         <v>58</v>
       </c>
       <c r="P69" s="23" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="Q69">
         <v>29000000</v>
@@ -12942,16 +12959,16 @@
     </row>
     <row r="70" spans="1:50">
       <c r="A70" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" t="s">
         <v>267</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="D70" t="s">
         <v>268</v>
-      </c>
-      <c r="C70" t="s">
-        <v>269</v>
-      </c>
-      <c r="D70" t="s">
-        <v>270</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>91</v>
@@ -12986,7 +13003,7 @@
         <v>17111600000</v>
       </c>
       <c r="O70" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P70" s="23" t="s">
         <v>59</v>
@@ -13060,16 +13077,16 @@
     </row>
     <row r="71" spans="1:50">
       <c r="A71" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C71" t="s">
         <v>271</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C71" t="s">
-        <v>273</v>
-      </c>
       <c r="D71" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>63</v>
@@ -13188,13 +13205,13 @@
     </row>
     <row r="72" spans="1:50">
       <c r="A72" t="s">
+        <v>272</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" t="s">
         <v>274</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C72" t="s">
-        <v>276</v>
       </c>
       <c r="D72" t="s">
         <v>54</v>
@@ -13312,13 +13329,13 @@
     </row>
     <row r="73" spans="1:50">
       <c r="A73" t="s">
+        <v>275</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" t="s">
         <v>277</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C73" t="s">
-        <v>279</v>
       </c>
       <c r="D73" t="s">
         <v>54</v>
@@ -13437,13 +13454,13 @@
     </row>
     <row r="74" spans="1:50">
       <c r="A74" t="s">
+        <v>278</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" t="s">
         <v>280</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C74" t="s">
-        <v>282</v>
       </c>
       <c r="D74" t="s">
         <v>54</v>
@@ -13482,7 +13499,7 @@
         <v>58</v>
       </c>
       <c r="P74" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="Q74">
         <v>126399</v>
@@ -13549,13 +13566,13 @@
     </row>
     <row r="75" spans="1:50">
       <c r="A75" t="s">
+        <v>281</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C75" t="s">
         <v>283</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C75" t="s">
-        <v>285</v>
       </c>
       <c r="D75" t="s">
         <v>54</v>
@@ -13629,7 +13646,7 @@
       </c>
       <c r="AD75"/>
       <c r="AE75" s="19">
-        <f t="shared" ref="AE75:AK75" si="60">IF(ISBLANK(Q75),IF(ISBLANK(X75),"",X75),Q75+X75)</f>
+        <f t="shared" ref="AE75:AK76" si="60">IF(ISBLANK(Q75),IF(ISBLANK(X75),"",X75),Q75+X75)</f>
         <v>46.128179096556003</v>
       </c>
       <c r="AF75" s="19">
@@ -13673,7 +13690,154 @@
       </c>
     </row>
     <row r="76" spans="1:50">
-      <c r="E76"/>
+      <c r="A76" t="s">
+        <v>418</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C76" t="s">
+        <v>420</v>
+      </c>
+      <c r="D76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" t="s">
+        <v>421</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" t="s">
+        <v>57</v>
+      </c>
+      <c r="I76" s="3">
+        <v>44561</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>58</v>
+      </c>
+      <c r="P76" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q76">
+        <v>50</v>
+      </c>
+      <c r="R76">
+        <v>49</v>
+      </c>
+      <c r="S76">
+        <v>48</v>
+      </c>
+      <c r="T76">
+        <v>47</v>
+      </c>
+      <c r="U76">
+        <v>46</v>
+      </c>
+      <c r="V76">
+        <v>45</v>
+      </c>
+      <c r="X76">
+        <v>1000</v>
+      </c>
+      <c r="Y76">
+        <v>990</v>
+      </c>
+      <c r="Z76">
+        <v>980</v>
+      </c>
+      <c r="AA76">
+        <v>970</v>
+      </c>
+      <c r="AB76">
+        <v>960</v>
+      </c>
+      <c r="AC76">
+        <v>950</v>
+      </c>
+      <c r="AE76" s="19">
+        <f t="shared" si="60"/>
+        <v>1050</v>
+      </c>
+      <c r="AF76" s="19">
+        <f t="shared" si="60"/>
+        <v>1039</v>
+      </c>
+      <c r="AG76" s="19">
+        <f t="shared" si="60"/>
+        <v>1028</v>
+      </c>
+      <c r="AH76" s="19">
+        <f t="shared" si="60"/>
+        <v>1017</v>
+      </c>
+      <c r="AI76" s="19">
+        <f t="shared" si="60"/>
+        <v>1006</v>
+      </c>
+      <c r="AJ76" s="19">
+        <f t="shared" si="60"/>
+        <v>995</v>
+      </c>
+      <c r="AK76" s="19" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="AL76">
+        <v>100</v>
+      </c>
+      <c r="AM76">
+        <v>99</v>
+      </c>
+      <c r="AN76">
+        <v>98</v>
+      </c>
+      <c r="AO76">
+        <v>97</v>
+      </c>
+      <c r="AP76">
+        <v>96</v>
+      </c>
+      <c r="AQ76">
+        <v>95</v>
+      </c>
+      <c r="AS76">
+        <v>10</v>
+      </c>
+      <c r="AT76">
+        <v>11</v>
+      </c>
+      <c r="AU76">
+        <v>12</v>
+      </c>
+      <c r="AV76">
+        <v>13</v>
+      </c>
+      <c r="AW76">
+        <v>14</v>
+      </c>
+      <c r="AX76">
+        <v>15</v>
+      </c>
     </row>
     <row r="77" spans="1:50">
       <c r="E77"/>
@@ -13713,13 +13877,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:C11"/>
+      <selection pane="bottomRight" activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -13751,31 +13915,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="H1" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="L1" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="M1" s="38" t="s">
         <v>292</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -13795,10 +13959,10 @@
         <v>2050</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H2" s="40">
         <v>2019</v>
@@ -13810,7 +13974,7 @@
         <v>0.67400000000000004</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L2" s="40">
         <v>2040</v>
@@ -13836,10 +14000,10 @@
         <v>2050</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H3" s="40">
         <v>2019</v>
@@ -13877,10 +14041,10 @@
         <v>2050</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H4" s="40">
         <v>2019</v>
@@ -13892,7 +14056,7 @@
         <v>0.67</v>
       </c>
       <c r="K4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L4">
         <v>2030</v>
@@ -13918,10 +14082,10 @@
         <v>2050</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18">
@@ -13945,7 +14109,7 @@
         <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -13957,10 +14121,10 @@
         <v>2050</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I6" s="33">
         <v>2005</v>
@@ -13970,7 +14134,7 @@
         <v>0.436</v>
       </c>
       <c r="K6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L6">
         <v>2030</v>
@@ -13996,10 +14160,10 @@
         <v>2050</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I7" s="33">
         <v>2005</v>
@@ -14034,10 +14198,10 @@
         <v>2050</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I8" s="33">
         <v>2005</v>
@@ -14072,10 +14236,10 @@
         <v>2050</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I9" s="33">
         <v>2000</v>
@@ -14095,13 +14259,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
@@ -14110,10 +14274,10 @@
         <v>2035</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I10" s="33">
         <v>2015</v>
@@ -14133,13 +14297,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
@@ -14148,10 +14312,10 @@
         <v>2035</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I11" s="33">
         <v>2015</v>
@@ -14183,10 +14347,10 @@
         <v>54</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I12" s="33">
         <v>2005</v>
@@ -14195,7 +14359,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L12">
         <v>2030</v>
@@ -14218,10 +14382,10 @@
         <v>54</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I13" s="33">
         <v>2005</v>
@@ -14230,7 +14394,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L13">
         <v>2040</v>
@@ -14256,10 +14420,10 @@
         <v>2050</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H14">
         <v>2021</v>
@@ -14271,7 +14435,7 @@
         <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L14">
         <v>2030</v>
@@ -14297,10 +14461,10 @@
         <v>2050</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H15">
         <v>2021</v>
@@ -14338,10 +14502,10 @@
         <v>2050</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H16">
         <v>2021</v>
@@ -14377,10 +14541,10 @@
         <v>54</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I17" s="33">
         <v>2020</v>
@@ -14390,7 +14554,7 @@
         <v>2.0768237659574469</v>
       </c>
       <c r="K17" s="40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L17">
         <v>2050</v>
@@ -14401,22 +14565,22 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
         <v>100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H18">
         <v>2021</v>
@@ -14428,7 +14592,7 @@
         <v>73.8</v>
       </c>
       <c r="K18" s="40" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L18">
         <v>2028</v>
@@ -14440,22 +14604,22 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
         <v>103</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H19">
         <v>2021</v>
@@ -14468,7 +14632,7 @@
         <v>0.40564327681114409</v>
       </c>
       <c r="K19" s="40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L19">
         <v>2030</v>
@@ -14479,22 +14643,22 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>106</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
       </c>
       <c r="D20" t="s">
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H20">
         <v>2020</v>
@@ -14517,22 +14681,22 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" t="s">
         <v>109</v>
-      </c>
-      <c r="C21" t="s">
-        <v>110</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H21">
         <v>2021</v>
@@ -14544,7 +14708,7 @@
         <v>0.48099999999999998</v>
       </c>
       <c r="K21" s="40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L21">
         <v>2030</v>
@@ -14555,13 +14719,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" t="s">
         <v>112</v>
-      </c>
-      <c r="C22" t="s">
-        <v>113</v>
       </c>
       <c r="D22" t="s">
         <v>54</v>
@@ -14570,10 +14734,10 @@
         <v>2050</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I22" s="33">
         <v>2011</v>
@@ -14593,13 +14757,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" t="s">
         <v>115</v>
-      </c>
-      <c r="C23" t="s">
-        <v>116</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
@@ -14608,10 +14772,10 @@
         <v>2040</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H23">
         <v>2021</v>
@@ -14634,13 +14798,13 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" t="s">
         <v>118</v>
-      </c>
-      <c r="C24" t="s">
-        <v>119</v>
       </c>
       <c r="D24" t="s">
         <v>54</v>
@@ -14649,10 +14813,10 @@
         <v>2050</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H24">
         <v>2017</v>
@@ -14675,13 +14839,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" t="s">
         <v>118</v>
-      </c>
-      <c r="C25" t="s">
-        <v>119</v>
       </c>
       <c r="D25" t="s">
         <v>54</v>
@@ -14690,10 +14854,10 @@
         <v>2050</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H25">
         <v>2017</v>
@@ -14716,13 +14880,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" t="s">
         <v>121</v>
-      </c>
-      <c r="C26" t="s">
-        <v>122</v>
       </c>
       <c r="D26" t="s">
         <v>54</v>
@@ -14731,10 +14895,10 @@
         <v>2050</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I26" s="33">
         <v>2005</v>
@@ -14754,13 +14918,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
         <v>124</v>
-      </c>
-      <c r="C27" t="s">
-        <v>125</v>
       </c>
       <c r="D27" t="s">
         <v>54</v>
@@ -14769,10 +14933,10 @@
         <v>2050</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I27" s="33">
         <v>2005</v>
@@ -14792,25 +14956,25 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" t="s">
         <v>127</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>128</v>
-      </c>
-      <c r="D28" t="s">
-        <v>129</v>
       </c>
       <c r="E28" s="30">
         <v>2050</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H28">
         <v>2020</v>
@@ -14833,25 +14997,25 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" t="s">
         <v>127</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>128</v>
-      </c>
-      <c r="D29" t="s">
-        <v>129</v>
       </c>
       <c r="E29" s="30">
         <v>2050</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G29" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H29">
         <v>2020</v>
@@ -14874,25 +15038,25 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" t="s">
         <v>127</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>128</v>
-      </c>
-      <c r="D30" t="s">
-        <v>129</v>
       </c>
       <c r="E30" s="30">
         <v>2050</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H30">
         <v>2020</v>
@@ -14915,25 +15079,25 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
         <v>127</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>128</v>
-      </c>
-      <c r="D31" t="s">
-        <v>129</v>
       </c>
       <c r="E31" s="30">
         <v>2050</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G31" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H31">
         <v>2020</v>
@@ -14956,13 +15120,13 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" t="s">
         <v>131</v>
-      </c>
-      <c r="C32" t="s">
-        <v>132</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
@@ -14971,10 +15135,10 @@
         <v>2045</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H32">
         <v>2021</v>
@@ -14986,7 +15150,7 @@
         <v>0.23</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L32">
         <v>2030</v>
@@ -14997,25 +15161,25 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" t="s">
         <v>134</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>135</v>
-      </c>
-      <c r="D33" t="s">
-        <v>136</v>
       </c>
       <c r="E33" s="30">
         <v>2030</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H33">
         <v>2020</v>
@@ -15027,7 +15191,7 @@
         <v>125</v>
       </c>
       <c r="K33" s="40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L33">
         <v>2030</v>
@@ -15038,13 +15202,13 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" t="s">
         <v>140</v>
-      </c>
-      <c r="C34" t="s">
-        <v>141</v>
       </c>
       <c r="D34" t="s">
         <v>54</v>
@@ -15053,10 +15217,10 @@
         <v>2050</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H34">
         <v>2020</v>
@@ -15079,13 +15243,13 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" t="s">
         <v>140</v>
-      </c>
-      <c r="C35" t="s">
-        <v>141</v>
       </c>
       <c r="D35" t="s">
         <v>54</v>
@@ -15094,10 +15258,10 @@
         <v>2050</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H35">
         <v>2030</v>
@@ -15109,7 +15273,7 @@
         <v>0.4826223</v>
       </c>
       <c r="K35" s="40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L35">
         <v>2030</v>
@@ -15120,13 +15284,13 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" t="s">
         <v>143</v>
-      </c>
-      <c r="C36" t="s">
-        <v>144</v>
       </c>
       <c r="D36" t="s">
         <v>54</v>
@@ -15135,10 +15299,10 @@
         <v>2045</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I36" s="33">
         <v>2005</v>
@@ -15158,13 +15322,13 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" t="s">
         <v>146</v>
-      </c>
-      <c r="C37" t="s">
-        <v>147</v>
       </c>
       <c r="D37" t="s">
         <v>54</v>
@@ -15173,10 +15337,10 @@
         <v>2030</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H37">
         <v>2019</v>
@@ -15199,13 +15363,13 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" t="s">
         <v>149</v>
-      </c>
-      <c r="C38" t="s">
-        <v>150</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
@@ -15214,10 +15378,10 @@
         <v>2050</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H38">
         <v>2021</v>
@@ -15229,7 +15393,7 @@
         <v>1100</v>
       </c>
       <c r="K38" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L38">
         <v>2030</v>
@@ -15240,13 +15404,13 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" t="s">
         <v>152</v>
-      </c>
-      <c r="C39" t="s">
-        <v>153</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
@@ -15255,10 +15419,10 @@
         <v>2050</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H39">
         <v>2021</v>
@@ -15281,22 +15445,22 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" t="s">
         <v>155</v>
-      </c>
-      <c r="C40" t="s">
-        <v>156</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H40">
         <v>2015</v>
@@ -15319,22 +15483,22 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" t="s">
         <v>158</v>
-      </c>
-      <c r="C41" t="s">
-        <v>159</v>
       </c>
       <c r="D41" t="s">
         <v>54</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H41">
         <v>2021</v>
@@ -15346,7 +15510,7 @@
         <v>309</v>
       </c>
       <c r="K41" s="40" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L41">
         <v>2035</v>
@@ -15357,22 +15521,22 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" t="s">
         <v>158</v>
-      </c>
-      <c r="C42" t="s">
-        <v>159</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G42" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H42">
         <v>2021</v>
@@ -15395,22 +15559,22 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" t="s">
         <v>162</v>
       </c>
-      <c r="C43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" t="s">
-        <v>164</v>
-      </c>
       <c r="F43" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G43" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H43">
         <v>2020</v>
@@ -15433,13 +15597,13 @@
     </row>
     <row r="44" spans="1:13" s="92" customFormat="1">
       <c r="A44" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="85" t="s">
         <v>165</v>
-      </c>
-      <c r="B44" s="86" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44" s="85" t="s">
-        <v>167</v>
       </c>
       <c r="D44" s="85" t="s">
         <v>54</v>
@@ -15448,10 +15612,10 @@
         <v>2040</v>
       </c>
       <c r="F44" s="87" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G44" s="85" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H44" s="85">
         <v>2021</v>
@@ -15463,7 +15627,7 @@
         <v>309</v>
       </c>
       <c r="K44" s="90" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L44" s="85">
         <v>2040</v>
@@ -15474,13 +15638,13 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" t="s">
         <v>165</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" t="s">
-        <v>167</v>
       </c>
       <c r="D45" t="s">
         <v>54</v>
@@ -15489,10 +15653,10 @@
         <v>2040</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G45" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H45">
         <v>2021</v>
@@ -15515,25 +15679,25 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="s">
         <v>168</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="D46" t="s">
         <v>169</v>
-      </c>
-      <c r="C46" t="s">
-        <v>170</v>
-      </c>
-      <c r="D46" t="s">
-        <v>171</v>
       </c>
       <c r="E46" s="30">
         <v>2050</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G46" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H46">
         <v>2022</v>
@@ -15545,7 +15709,7 @@
         <v>0.93</v>
       </c>
       <c r="K46" s="40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L46">
         <v>2031</v>
@@ -15556,22 +15720,22 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" t="s">
         <v>172</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" t="s">
-        <v>174</v>
       </c>
       <c r="D47" t="s">
         <v>54</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H47">
         <v>2020</v>
@@ -15583,7 +15747,7 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="K47" s="40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L47">
         <v>2030</v>
@@ -15594,25 +15758,25 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="D48" t="s">
         <v>176</v>
-      </c>
-      <c r="C48" t="s">
-        <v>177</v>
-      </c>
-      <c r="D48" t="s">
-        <v>178</v>
       </c>
       <c r="E48" s="30">
         <v>2050</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G48" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H48">
         <v>2022</v>
@@ -15624,7 +15788,7 @@
         <v>96</v>
       </c>
       <c r="K48" s="40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L48">
         <v>2030</v>
@@ -15636,22 +15800,22 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C49" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G49" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H49">
         <v>2020</v>
@@ -15663,7 +15827,7 @@
         <v>30</v>
       </c>
       <c r="K49" s="40" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L49">
         <v>2030</v>
@@ -15674,22 +15838,22 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C50" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D50" t="s">
         <v>54</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G50" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H50">
         <v>2020</v>
@@ -15712,22 +15876,22 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" t="s">
         <v>180</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C51" t="s">
-        <v>182</v>
       </c>
       <c r="D51" t="s">
         <v>54</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I51" s="33">
         <v>2000</v>
@@ -15737,7 +15901,7 @@
         <v>1.325</v>
       </c>
       <c r="K51" s="40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L51">
         <v>2030</v>
@@ -15748,13 +15912,13 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" t="s">
         <v>186</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" t="s">
-        <v>188</v>
       </c>
       <c r="D52" t="s">
         <v>90</v>
@@ -15763,10 +15927,10 @@
         <v>2050</v>
       </c>
       <c r="F52" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G52" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H52">
         <v>2020</v>
@@ -15790,13 +15954,13 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" t="s">
         <v>186</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53" t="s">
-        <v>188</v>
       </c>
       <c r="D53" t="s">
         <v>90</v>
@@ -15805,10 +15969,10 @@
         <v>2050</v>
       </c>
       <c r="F53" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G53" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H53">
         <v>2020</v>
@@ -15832,13 +15996,13 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" t="s">
         <v>189</v>
-      </c>
-      <c r="B54" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" t="s">
-        <v>191</v>
       </c>
       <c r="D54" t="s">
         <v>54</v>
@@ -15847,10 +16011,10 @@
         <v>2050</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G54" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H54">
         <v>2020</v>
@@ -15862,7 +16026,7 @@
         <v>843</v>
       </c>
       <c r="K54" s="40" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L54">
         <v>2025</v>
@@ -15873,13 +16037,13 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" t="s">
         <v>197</v>
-      </c>
-      <c r="B55" t="s">
-        <v>198</v>
-      </c>
-      <c r="C55" t="s">
-        <v>199</v>
       </c>
       <c r="D55" t="s">
         <v>54</v>
@@ -15888,10 +16052,10 @@
         <v>2050</v>
       </c>
       <c r="F55" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G55" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H55">
         <v>2020</v>
@@ -15915,13 +16079,13 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" t="s">
         <v>200</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C56" t="s">
-        <v>202</v>
       </c>
       <c r="D56" t="s">
         <v>54</v>
@@ -15930,10 +16094,10 @@
         <v>2050</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G56" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H56">
         <v>2019</v>
@@ -15956,25 +16120,25 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="D57" t="s">
         <v>193</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D57" t="s">
-        <v>195</v>
       </c>
       <c r="E57" s="30">
         <v>2050</v>
       </c>
       <c r="F57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G57" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H57">
         <v>2021</v>
@@ -15997,22 +16161,22 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" t="s">
         <v>183</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C58" t="s">
-        <v>185</v>
       </c>
       <c r="D58" t="s">
         <v>54</v>
       </c>
       <c r="F58" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G58" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H58">
         <v>2020</v>
@@ -16024,7 +16188,7 @@
         <v>0.82</v>
       </c>
       <c r="K58" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L58">
         <v>2030</v>
@@ -16035,22 +16199,22 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59" t="s">
         <v>203</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C59" t="s">
-        <v>205</v>
       </c>
       <c r="D59" t="s">
         <v>54</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G59" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H59">
         <v>2018</v>
@@ -16073,22 +16237,22 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" t="s">
         <v>203</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C60" t="s">
-        <v>205</v>
       </c>
       <c r="D60" t="s">
         <v>54</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H60">
         <v>2018</v>
@@ -16111,25 +16275,25 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C61" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E61" s="30">
         <v>2050</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G61" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H61">
         <v>2021</v>
@@ -16152,25 +16316,25 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="85" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B62" s="86" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C62" s="85" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D62" s="85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E62" s="87">
         <v>2050</v>
       </c>
       <c r="F62" s="87" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G62" s="85" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H62" s="85">
         <v>2021</v>
@@ -16183,7 +16347,7 @@
         <v>0.70281445911698004</v>
       </c>
       <c r="K62" s="85" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L62" s="85">
         <v>2030</v>
@@ -16194,25 +16358,25 @@
     </row>
     <row r="63" spans="1:13" s="92" customFormat="1">
       <c r="A63" t="s">
+        <v>391</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C63" t="s">
         <v>394</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C63" t="s">
-        <v>397</v>
-      </c>
       <c r="D63" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E63" s="100">
         <v>2050</v>
       </c>
       <c r="F63" s="100" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G63" s="92" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H63" s="92">
         <v>2019</v>
@@ -16236,25 +16400,25 @@
     </row>
     <row r="64" spans="1:13" s="92" customFormat="1">
       <c r="A64" s="85" t="s">
+        <v>391</v>
+      </c>
+      <c r="B64" s="86" t="s">
+        <v>392</v>
+      </c>
+      <c r="C64" s="85" t="s">
         <v>394</v>
       </c>
-      <c r="B64" s="86" t="s">
-        <v>395</v>
-      </c>
-      <c r="C64" s="85" t="s">
-        <v>397</v>
-      </c>
       <c r="D64" s="85" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E64" s="87">
         <v>2050</v>
       </c>
       <c r="F64" s="87" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G64" s="85" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H64" s="85">
         <v>2019</v>
@@ -16266,7 +16430,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="85" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L64" s="85">
         <v>2024</v>
@@ -16277,13 +16441,13 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" t="s">
         <v>206</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C65" t="s">
-        <v>208</v>
       </c>
       <c r="D65" t="s">
         <v>54</v>
@@ -16292,10 +16456,10 @@
         <v>2045</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G65" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H65">
         <v>2021</v>
@@ -16318,13 +16482,13 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" t="s">
         <v>209</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C66" t="s">
-        <v>211</v>
       </c>
       <c r="D66" t="s">
         <v>54</v>
@@ -16333,10 +16497,10 @@
         <v>2040</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G66" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H66">
         <v>2019</v>
@@ -16359,25 +16523,25 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" t="s">
         <v>212</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="D67" t="s">
         <v>213</v>
-      </c>
-      <c r="C67" t="s">
-        <v>214</v>
-      </c>
-      <c r="D67" t="s">
-        <v>215</v>
       </c>
       <c r="E67" s="30">
         <v>2050</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G67" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H67">
         <v>2020</v>
@@ -16389,7 +16553,7 @@
         <v>2.06</v>
       </c>
       <c r="K67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L67">
         <v>2030</v>
@@ -16400,25 +16564,25 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" t="s">
         <v>212</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="D68" t="s">
         <v>213</v>
-      </c>
-      <c r="C68" t="s">
-        <v>214</v>
-      </c>
-      <c r="D68" t="s">
-        <v>215</v>
       </c>
       <c r="E68" s="30">
         <v>2050</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G68" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H68">
         <v>2020</v>
@@ -16430,7 +16594,7 @@
         <v>2.06</v>
       </c>
       <c r="K68" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L68">
         <v>2040</v>
@@ -16441,13 +16605,13 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
+        <v>214</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" t="s">
         <v>216</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C69" t="s">
-        <v>218</v>
       </c>
       <c r="D69" t="s">
         <v>54</v>
@@ -16456,10 +16620,10 @@
         <v>2050</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G69" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H69">
         <v>2021</v>
@@ -16483,13 +16647,13 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" t="s">
         <v>216</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C70" t="s">
-        <v>218</v>
       </c>
       <c r="D70" t="s">
         <v>54</v>
@@ -16498,10 +16662,10 @@
         <v>2050</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G70" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H70">
         <v>2021</v>
@@ -16525,13 +16689,13 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
+        <v>217</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" t="s">
         <v>219</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C71" t="s">
-        <v>221</v>
       </c>
       <c r="D71" t="s">
         <v>54</v>
@@ -16540,10 +16704,10 @@
         <v>2050</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G71" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H71">
         <v>2020</v>
@@ -16566,13 +16730,13 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" t="s">
         <v>222</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C72" t="s">
-        <v>224</v>
       </c>
       <c r="D72" t="s">
         <v>54</v>
@@ -16581,10 +16745,10 @@
         <v>2040</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G72" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H72">
         <v>2020</v>
@@ -16596,7 +16760,7 @@
         <v>0.47</v>
       </c>
       <c r="K72" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L72">
         <v>2030</v>
@@ -16607,13 +16771,13 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" t="s">
         <v>225</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C73" t="s">
-        <v>227</v>
       </c>
       <c r="D73" t="s">
         <v>54</v>
@@ -16622,10 +16786,10 @@
         <v>2030</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G73" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H73">
         <v>2021</v>
@@ -16648,22 +16812,22 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C74" t="s">
         <v>228</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="D74" t="s">
         <v>229</v>
       </c>
-      <c r="C74" t="s">
-        <v>230</v>
-      </c>
-      <c r="D74" t="s">
-        <v>231</v>
-      </c>
       <c r="F74" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G74" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H74">
         <v>2021</v>
@@ -16675,7 +16839,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="K74" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L74">
         <v>2035</v>
@@ -16686,13 +16850,13 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" t="s">
         <v>232</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C75" t="s">
-        <v>234</v>
       </c>
       <c r="D75" t="s">
         <v>54</v>
@@ -16701,10 +16865,10 @@
         <v>2050</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G75" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H75">
         <v>2020</v>
@@ -16716,7 +16880,7 @@
         <v>0.80243130614229896</v>
       </c>
       <c r="K75" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L75">
         <v>2030</v>
@@ -16727,13 +16891,13 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" t="s">
         <v>235</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C76" t="s">
-        <v>237</v>
       </c>
       <c r="D76" t="s">
         <v>90</v>
@@ -16742,10 +16906,10 @@
         <v>2050</v>
       </c>
       <c r="F76" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G76" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H76">
         <v>2021</v>
@@ -16768,25 +16932,25 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
+        <v>396</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C77" t="s">
+        <v>398</v>
+      </c>
+      <c r="D77" t="s">
         <v>399</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C77" t="s">
-        <v>401</v>
-      </c>
-      <c r="D77" t="s">
-        <v>402</v>
       </c>
       <c r="E77" s="30">
         <v>2050</v>
       </c>
       <c r="F77" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G77" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H77">
         <v>2018</v>
@@ -16810,25 +16974,25 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="85" t="s">
+        <v>396</v>
+      </c>
+      <c r="B78" s="86" t="s">
+        <v>397</v>
+      </c>
+      <c r="C78" s="85" t="s">
+        <v>398</v>
+      </c>
+      <c r="D78" s="85" t="s">
         <v>399</v>
-      </c>
-      <c r="B78" s="86" t="s">
-        <v>400</v>
-      </c>
-      <c r="C78" s="85" t="s">
-        <v>401</v>
-      </c>
-      <c r="D78" s="85" t="s">
-        <v>402</v>
       </c>
       <c r="E78" s="87">
         <v>2050</v>
       </c>
       <c r="F78" s="87" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G78" s="85" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H78" s="85">
         <v>2018</v>
@@ -16840,7 +17004,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="85" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L78" s="85">
         <v>2023</v>
@@ -16851,25 +17015,25 @@
     </row>
     <row r="79" spans="1:13" s="92" customFormat="1">
       <c r="A79" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C79" t="s">
         <v>403</v>
       </c>
-      <c r="C79" t="s">
-        <v>406</v>
-      </c>
       <c r="D79" s="92" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E79" s="100">
         <v>2050</v>
       </c>
       <c r="F79" s="100" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G79" s="92" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H79" s="92">
         <v>2020</v>
@@ -16881,7 +17045,7 @@
         <v>1243</v>
       </c>
       <c r="K79" s="92" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L79" s="92">
         <v>2025</v>
@@ -16893,25 +17057,25 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C80" t="s">
         <v>403</v>
       </c>
-      <c r="C80" t="s">
-        <v>406</v>
-      </c>
       <c r="D80" s="92" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E80" s="100">
         <v>2050</v>
       </c>
       <c r="F80" s="100" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G80" s="92" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H80" s="92">
         <v>2020</v>
@@ -16923,7 +17087,7 @@
         <v>1243</v>
       </c>
       <c r="K80" s="92" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L80" s="92">
         <v>2030</v>
@@ -16935,25 +17099,25 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C81" t="s">
         <v>403</v>
       </c>
-      <c r="C81" t="s">
-        <v>406</v>
-      </c>
       <c r="D81" s="92" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E81" s="100">
         <v>2050</v>
       </c>
       <c r="F81" s="100" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G81" s="92" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H81" s="92">
         <v>2020</v>
@@ -16965,7 +17129,7 @@
         <v>1243</v>
       </c>
       <c r="K81" s="92" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L81" s="92">
         <v>2040</v>
@@ -16977,25 +17141,25 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C82" t="s">
         <v>403</v>
       </c>
-      <c r="C82" t="s">
-        <v>406</v>
-      </c>
       <c r="D82" s="92" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E82" s="100">
         <v>2050</v>
       </c>
       <c r="F82" s="100" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G82" s="92" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H82" s="92">
         <v>2020</v>
@@ -17007,7 +17171,7 @@
         <v>1243</v>
       </c>
       <c r="K82" s="92" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L82" s="92">
         <v>2050</v>
@@ -17018,25 +17182,25 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C83" t="s">
         <v>403</v>
       </c>
-      <c r="C83" t="s">
-        <v>406</v>
-      </c>
       <c r="D83" s="92" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E83" s="100">
         <v>2050</v>
       </c>
       <c r="F83" s="100" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G83" s="92" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H83" s="92">
         <v>2020</v>
@@ -17048,7 +17212,7 @@
         <v>15063</v>
       </c>
       <c r="K83" s="92" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L83" s="92">
         <v>2025</v>
@@ -17060,25 +17224,25 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C84" t="s">
         <v>403</v>
       </c>
-      <c r="C84" t="s">
-        <v>406</v>
-      </c>
       <c r="D84" s="92" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E84" s="100">
         <v>2050</v>
       </c>
       <c r="F84" s="100" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G84" s="92" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H84" s="92">
         <v>2020</v>
@@ -17090,7 +17254,7 @@
         <v>15063</v>
       </c>
       <c r="K84" s="92" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L84" s="92">
         <v>2030</v>
@@ -17102,25 +17266,25 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C85" t="s">
         <v>403</v>
       </c>
-      <c r="C85" t="s">
-        <v>406</v>
-      </c>
       <c r="D85" s="92" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E85" s="100">
         <v>2050</v>
       </c>
       <c r="F85" s="100" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G85" s="92" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H85" s="92">
         <v>2020</v>
@@ -17132,7 +17296,7 @@
         <v>15063</v>
       </c>
       <c r="K85" s="92" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L85" s="92">
         <v>2040</v>
@@ -17144,25 +17308,25 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C86" t="s">
         <v>403</v>
       </c>
-      <c r="C86" t="s">
-        <v>406</v>
-      </c>
       <c r="D86" s="92" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E86" s="100">
         <v>2050</v>
       </c>
       <c r="F86" s="100" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G86" s="92" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H86" s="92">
         <v>2020</v>
@@ -17174,7 +17338,7 @@
         <v>15063</v>
       </c>
       <c r="K86" s="92" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L86" s="92">
         <v>2050</v>
@@ -17186,13 +17350,13 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
+        <v>237</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C87" t="s">
         <v>239</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C87" t="s">
-        <v>241</v>
       </c>
       <c r="D87" t="s">
         <v>54</v>
@@ -17201,10 +17365,10 @@
         <v>2050</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G87" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H87">
         <v>2020</v>
@@ -17216,7 +17380,7 @@
         <v>0.98420553538837796</v>
       </c>
       <c r="K87" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L87">
         <v>2030</v>
@@ -17227,13 +17391,13 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C88" t="s">
         <v>242</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C88" t="s">
-        <v>244</v>
       </c>
       <c r="D88" t="s">
         <v>54</v>
@@ -17242,10 +17406,10 @@
         <v>2050</v>
       </c>
       <c r="F88" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H88">
         <v>2021</v>
@@ -17257,7 +17421,7 @@
         <v>5.162928</v>
       </c>
       <c r="K88" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L88">
         <v>2025</v>
@@ -17268,13 +17432,13 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C89" t="s">
         <v>242</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C89" t="s">
-        <v>244</v>
       </c>
       <c r="D89" t="s">
         <v>54</v>
@@ -17283,10 +17447,10 @@
         <v>2050</v>
       </c>
       <c r="F89" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H89">
         <v>2021</v>
@@ -17298,7 +17462,7 @@
         <v>5.162928</v>
       </c>
       <c r="K89" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L89">
         <v>2030</v>
@@ -17309,25 +17473,25 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
+        <v>243</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" t="s">
         <v>245</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C90" t="s">
-        <v>247</v>
-      </c>
       <c r="D90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E90" s="30">
         <v>2050</v>
       </c>
       <c r="F90" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G90" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H90">
         <v>2020</v>
@@ -17339,7 +17503,7 @@
         <v>0.46760301224943002</v>
       </c>
       <c r="K90" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L90">
         <v>2030</v>
@@ -17350,22 +17514,22 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
+        <v>246</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" t="s">
         <v>248</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="D91" t="s">
         <v>249</v>
       </c>
-      <c r="C91" t="s">
-        <v>250</v>
-      </c>
-      <c r="D91" t="s">
-        <v>251</v>
-      </c>
       <c r="F91" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G91" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H91">
         <v>2021</v>
@@ -17377,7 +17541,7 @@
         <v>2.9</v>
       </c>
       <c r="K91" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L91">
         <v>2030</v>
@@ -17388,25 +17552,25 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C92" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E92" s="30">
         <v>2050</v>
       </c>
       <c r="F92" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G92" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H92">
         <v>2020</v>
@@ -17418,7 +17582,7 @@
         <v>0.75</v>
       </c>
       <c r="K92" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L92">
         <v>2030</v>
@@ -17429,22 +17593,22 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
+        <v>250</v>
+      </c>
+      <c r="B93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C93" t="s">
         <v>252</v>
       </c>
-      <c r="B93" t="s">
-        <v>253</v>
-      </c>
-      <c r="C93" t="s">
-        <v>254</v>
-      </c>
       <c r="D93" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F93" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G93" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H93">
         <v>2021</v>
@@ -17456,7 +17620,7 @@
         <v>1.69</v>
       </c>
       <c r="K93" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L93">
         <v>2030</v>
@@ -17467,13 +17631,13 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
+        <v>253</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C94" t="s">
         <v>255</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C94" t="s">
-        <v>257</v>
       </c>
       <c r="D94" t="s">
         <v>54</v>
@@ -17482,10 +17646,10 @@
         <v>2050</v>
       </c>
       <c r="F94" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G94" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H94">
         <v>2021</v>
@@ -17498,7 +17662,7 @@
         <v>14.583333333333334</v>
       </c>
       <c r="K94" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L94">
         <v>2030</v>
@@ -17509,13 +17673,13 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
+        <v>253</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C95" t="s">
         <v>255</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C95" t="s">
-        <v>257</v>
       </c>
       <c r="D95" t="s">
         <v>54</v>
@@ -17524,10 +17688,10 @@
         <v>2050</v>
       </c>
       <c r="F95" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G95" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H95">
         <v>2021</v>
@@ -17540,7 +17704,7 @@
         <v>14.583333333333334</v>
       </c>
       <c r="K95" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L95">
         <v>2030</v>
@@ -17551,22 +17715,22 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
+        <v>256</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C96" t="s">
         <v>258</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C96" t="s">
-        <v>260</v>
       </c>
       <c r="D96" t="s">
         <v>54</v>
       </c>
       <c r="F96" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G96" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H96">
         <v>2021</v>
@@ -17578,7 +17742,7 @@
         <v>0.42172199999999999</v>
       </c>
       <c r="K96" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L96">
         <v>2030</v>
@@ -17589,25 +17753,25 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
+        <v>259</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C97" t="s">
         <v>261</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C97" t="s">
-        <v>263</v>
-      </c>
       <c r="D97" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E97" s="30">
         <v>2050</v>
       </c>
       <c r="F97" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G97" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H97">
         <v>2020</v>
@@ -17619,7 +17783,7 @@
         <v>130</v>
       </c>
       <c r="K97" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L97">
         <v>2030</v>
@@ -17630,25 +17794,25 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
+        <v>259</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C98" t="s">
         <v>261</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C98" t="s">
-        <v>263</v>
-      </c>
       <c r="D98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E98" s="30">
         <v>2050</v>
       </c>
       <c r="F98" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G98" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I98" s="33">
         <v>2020</v>
@@ -17668,22 +17832,22 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
+        <v>262</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C99" t="s">
         <v>264</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C99" t="s">
-        <v>266</v>
       </c>
       <c r="D99" t="s">
         <v>54</v>
       </c>
       <c r="F99" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G99" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H99">
         <v>2020</v>
@@ -17695,7 +17859,7 @@
         <v>0.315911</v>
       </c>
       <c r="K99" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L99">
         <v>2030</v>
@@ -17706,25 +17870,25 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
+        <v>265</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C100" t="s">
         <v>267</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="D100" t="s">
         <v>268</v>
-      </c>
-      <c r="C100" t="s">
-        <v>269</v>
-      </c>
-      <c r="D100" t="s">
-        <v>270</v>
       </c>
       <c r="E100" s="30">
         <v>2050</v>
       </c>
       <c r="F100" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G100" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H100">
         <v>2021</v>
@@ -17747,25 +17911,25 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
+        <v>265</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C101" t="s">
         <v>267</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="D101" t="s">
         <v>268</v>
-      </c>
-      <c r="C101" t="s">
-        <v>269</v>
-      </c>
-      <c r="D101" t="s">
-        <v>270</v>
       </c>
       <c r="E101" s="30">
         <v>2050</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G101" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H101">
         <v>2021</v>
@@ -17789,25 +17953,25 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="B102" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="C102" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="B102" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="C102" s="51" t="s">
-        <v>273</v>
-      </c>
       <c r="D102" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E102" s="51">
         <v>2050</v>
       </c>
       <c r="F102" s="51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G102" s="51" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H102" s="51">
         <v>2020</v>
@@ -17830,13 +17994,13 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
+        <v>272</v>
+      </c>
+      <c r="B103" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" t="s">
         <v>274</v>
-      </c>
-      <c r="B103" t="s">
-        <v>275</v>
-      </c>
-      <c r="C103" t="s">
-        <v>276</v>
       </c>
       <c r="D103" t="s">
         <v>54</v>
@@ -17845,10 +18009,10 @@
         <v>2050</v>
       </c>
       <c r="F103" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G103" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H103">
         <v>2020</v>
@@ -17871,13 +18035,13 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
+        <v>275</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C104" t="s">
         <v>277</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C104" t="s">
-        <v>279</v>
       </c>
       <c r="D104" t="s">
         <v>54</v>
@@ -17886,10 +18050,10 @@
         <v>2050</v>
       </c>
       <c r="F104" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G104" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H104">
         <v>2020</v>
@@ -17901,7 +18065,7 @@
         <v>0.78</v>
       </c>
       <c r="K104" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L104">
         <v>2025</v>
@@ -17912,13 +18076,13 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
+        <v>275</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C105" t="s">
         <v>277</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C105" t="s">
-        <v>279</v>
       </c>
       <c r="D105" t="s">
         <v>54</v>
@@ -17927,10 +18091,10 @@
         <v>2050</v>
       </c>
       <c r="F105" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G105" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H105">
         <v>2020</v>
@@ -17942,7 +18106,7 @@
         <v>0.78</v>
       </c>
       <c r="K105" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L105">
         <v>2030</v>
@@ -17953,13 +18117,13 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
+        <v>278</v>
+      </c>
+      <c r="B106" t="s">
+        <v>279</v>
+      </c>
+      <c r="C106" t="s">
         <v>280</v>
-      </c>
-      <c r="B106" t="s">
-        <v>281</v>
-      </c>
-      <c r="C106" t="s">
-        <v>282</v>
       </c>
       <c r="D106" t="s">
         <v>54</v>
@@ -17968,10 +18132,10 @@
         <v>2050</v>
       </c>
       <c r="F106" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G106" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H106">
         <v>2020</v>
@@ -17983,7 +18147,7 @@
         <v>0.315911</v>
       </c>
       <c r="K106" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L106">
         <v>2030</v>
@@ -17994,13 +18158,13 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
+        <v>281</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C107" t="s">
         <v>283</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C107" t="s">
-        <v>285</v>
       </c>
       <c r="D107" t="s">
         <v>54</v>
@@ -18009,10 +18173,10 @@
         <v>2050</v>
       </c>
       <c r="F107" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G107" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H107">
         <v>2020</v>
@@ -18024,13 +18188,55 @@
         <v>0.88086205923584704</v>
       </c>
       <c r="K107" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L107">
         <v>2030</v>
       </c>
       <c r="M107" s="43">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" t="s">
+        <v>418</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C108" t="s">
+        <v>420</v>
+      </c>
+      <c r="D108" t="s">
+        <v>54</v>
+      </c>
+      <c r="E108" s="30">
+        <v>2030</v>
+      </c>
+      <c r="F108" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="G108" t="s">
+        <v>294</v>
+      </c>
+      <c r="H108">
+        <v>2020</v>
+      </c>
+      <c r="I108" s="33">
+        <v>2016</v>
+      </c>
+      <c r="J108">
+        <f>'ITR input data'!AE76</f>
+        <v>1050</v>
+      </c>
+      <c r="K108" t="s">
+        <v>422</v>
+      </c>
+      <c r="L108">
+        <v>2025</v>
+      </c>
+      <c r="M108" s="43">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -18064,1202 +18270,1202 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16">
       <c r="A1" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="E1" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="F1" s="59" t="s">
         <v>314</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
       <c r="A2" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="64" t="s">
         <v>318</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="F2" s="64" t="s">
         <v>319</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
       <c r="A3" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="67" t="s">
         <v>318</v>
       </c>
-      <c r="D3" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>320</v>
-      </c>
       <c r="F3" s="67" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32">
       <c r="A4" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B4" s="61" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" s="64" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>320</v>
-      </c>
       <c r="F4" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32">
       <c r="A5" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B5" s="61" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="64" t="s">
         <v>318</v>
       </c>
-      <c r="D5" s="63" t="s">
-        <v>325</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>320</v>
-      </c>
       <c r="F5" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48">
       <c r="A6" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B6" s="65" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="67" t="s">
         <v>318</v>
       </c>
-      <c r="D6" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>320</v>
-      </c>
       <c r="F6" s="67" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32">
       <c r="A7" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B7" s="61" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16">
       <c r="A8" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B8" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D8" s="68" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32">
       <c r="A9" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B9" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="64" t="s">
         <v>318</v>
       </c>
-      <c r="D9" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>320</v>
-      </c>
       <c r="F9" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16">
       <c r="A10" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B10" s="70" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16">
       <c r="A11" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B11" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16">
       <c r="A12" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B12" s="61" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16">
       <c r="A13" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B13" s="61" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16">
       <c r="A14" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B14" s="61" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32">
       <c r="A15" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B15" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="53" customFormat="1" ht="72.75" customHeight="1">
       <c r="A16" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" s="63" t="s">
         <v>340</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="E16" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="C16" s="62" t="s">
-        <v>318</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>343</v>
-      </c>
       <c r="F16" s="73" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="53" customFormat="1" ht="72.75" customHeight="1">
       <c r="A17" s="71" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B17" s="61" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E17" s="72" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F17" s="73" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="32">
       <c r="A18" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B18" s="75" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E18" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="32">
       <c r="A19" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B19" s="75" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="32">
       <c r="A20" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B20" s="75" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E20" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="32">
       <c r="A21" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B21" s="75" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E21" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="32">
       <c r="A22" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B22" s="75" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="32">
       <c r="A23" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B23" s="75" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="48">
       <c r="A24" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B24" s="75" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E24" s="77" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F24" s="76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="32">
       <c r="A25" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B25" s="78" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F25" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="32">
       <c r="A26" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B26" s="78" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D26" s="68" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F26" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="32">
       <c r="A27" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B27" s="78" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D27" s="68" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F27" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="32">
       <c r="A28" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B28" s="78" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F28" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="32">
       <c r="A29" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B29" s="78" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F29" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="32">
       <c r="A30" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B30" s="78" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D30" s="68" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F30" s="64" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="48">
       <c r="A31" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B31" s="78" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D31" s="76" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E31" s="77" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F31" s="76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="32">
       <c r="A32" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B32" s="75" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E32" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F32" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32">
       <c r="A33" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B33" s="75" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D33" s="68" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32">
       <c r="A34" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B34" s="75" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E34" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F34" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="32">
       <c r="A35" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B35" s="75" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D35" s="68" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E35" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F35" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="32">
       <c r="A36" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B36" s="75" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D36" s="68" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E36" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F36" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="32">
       <c r="A37" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B37" s="75" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D37" s="68" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F37" s="64" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="48">
       <c r="A38" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B38" s="75" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D38" s="76" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E38" s="77" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F38" s="76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="32">
       <c r="A39" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B39" s="79" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D39" s="68" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F39" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="32">
       <c r="A40" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B40" s="79" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D40" s="68" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F40" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="32">
       <c r="A41" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B41" s="79" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D41" s="68" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F41" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="32">
       <c r="A42" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B42" s="79" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D42" s="68" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E42" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F42" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="32">
       <c r="A43" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B43" s="79" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D43" s="68" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E43" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F43" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="32">
       <c r="A44" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B44" s="79" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D44" s="68" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E44" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F44" s="64" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48">
       <c r="A45" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B45" s="79" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D45" s="76" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E45" s="77" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F45" s="76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="32">
       <c r="A46" s="80" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B46" s="61" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D46" s="68" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E46" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F46" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="32">
       <c r="A47" s="80" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B47" s="61" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D47" s="68" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E47" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F47" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="32">
       <c r="A48" s="80" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B48" s="61" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D48" s="68" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E48" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F48" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="32">
       <c r="A49" s="80" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B49" s="61" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D49" s="68" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E49" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F49" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="32">
       <c r="A50" s="80" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B50" s="61" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D50" s="68" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E50" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F50" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="32">
       <c r="A51" s="80" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B51" s="61" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D51" s="68" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E51" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F51" s="64" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="32">
       <c r="A52" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="B52" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="C52" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="D52" s="68" t="s">
         <v>364</v>
       </c>
-      <c r="B52" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="C52" s="62" t="s">
+      <c r="E52" s="64" t="s">
         <v>365</v>
       </c>
-      <c r="D52" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="E52" s="64" t="s">
-        <v>367</v>
-      </c>
       <c r="F52" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48">
       <c r="A53" s="81" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B53" s="61" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C53" s="62" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D53" s="68" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E53" s="64" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F53" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16">
       <c r="A54" s="81" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C54" s="62" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E54" s="67" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F54" s="67" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16">
       <c r="A55" s="81" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C55" s="62" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D55" s="68" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E55" s="64" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F55" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="80">
       <c r="A56" s="81" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B56" s="61" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C56" s="62" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D56" s="68" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E56" s="64" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F56" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="112">
       <c r="A57" s="81" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C57" s="62" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D57" s="63" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E57" s="83" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F57" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16">
       <c r="A58" s="81" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B58" s="61" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C58" s="62" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D58" s="68" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E58" s="64" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F58" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="32">
       <c r="A59" s="81" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C59" s="62" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D59" s="68" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E59" s="64" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F59" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="48">
       <c r="A60" s="84" t="s">
+        <v>378</v>
+      </c>
+      <c r="B60" s="61" t="s">
+        <v>379</v>
+      </c>
+      <c r="C60" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="D60" s="68" t="s">
         <v>380</v>
       </c>
-      <c r="B60" s="61" t="s">
-        <v>381</v>
-      </c>
-      <c r="C60" s="62" t="s">
-        <v>365</v>
-      </c>
-      <c r="D60" s="68" t="s">
-        <v>382</v>
-      </c>
       <c r="E60" s="64" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F60" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -19273,10 +19479,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C8"/>
+    <sheetView topLeftCell="A39" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -19297,10 +19503,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19318,7 +19524,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>42709877</v>
+        <v>179862180</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19336,7 +19542,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E67" ca="1" si="0">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>138935745</v>
+        <v>137285676</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -19354,7 +19560,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>109043884</v>
+        <v>205657907</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -19372,7 +19578,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>224938701</v>
+        <v>110458106</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -19390,43 +19596,43 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>91455130</v>
+        <v>53540055</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D7" t="s">
         <v>76</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>101383356</v>
+        <v>93911338</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>158121971</v>
+        <v>101650080</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -19444,7 +19650,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>88364318</v>
+        <v>184958915</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -19462,7 +19668,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>64648782</v>
+        <v>199157436</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -19480,7 +19686,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>125157394</v>
+        <v>55980320</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -19498,1141 +19704,1159 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>73494558</v>
+        <v>143182254</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>96520282</v>
+        <v>47642409</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>49201705</v>
+        <v>154545400</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" t="s">
         <v>106</v>
       </c>
-      <c r="C15" t="s">
-        <v>107</v>
-      </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>80836672</v>
+        <v>98866152</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
         <v>109</v>
       </c>
-      <c r="C16" t="s">
-        <v>110</v>
-      </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>62988269</v>
+        <v>198114203</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>112</v>
       </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>131743976</v>
+        <v>97111324</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
         <v>115</v>
       </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>114100520</v>
+        <v>195730457</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
         <v>118</v>
       </c>
-      <c r="C19" t="s">
-        <v>119</v>
-      </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>211258140</v>
+        <v>88201050</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>121</v>
       </c>
-      <c r="C20" t="s">
-        <v>122</v>
-      </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>151583355</v>
+        <v>173598040</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" t="s">
         <v>124</v>
       </c>
-      <c r="C21" t="s">
-        <v>125</v>
-      </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>169704203</v>
+        <v>85840056</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" t="s">
         <v>127</v>
       </c>
-      <c r="C22" t="s">
-        <v>128</v>
-      </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>121931257</v>
+        <v>155612699</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" t="s">
         <v>131</v>
       </c>
-      <c r="C23" t="s">
-        <v>132</v>
-      </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>92303955</v>
+        <v>174324990</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" t="s">
         <v>134</v>
       </c>
-      <c r="C24" t="s">
-        <v>135</v>
-      </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>252052125</v>
+        <v>82029584</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" t="s">
         <v>140</v>
       </c>
-      <c r="C25" t="s">
-        <v>141</v>
-      </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>87721404</v>
+        <v>107760475</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" t="s">
         <v>143</v>
       </c>
-      <c r="C26" t="s">
-        <v>144</v>
-      </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>73916295</v>
+        <v>282522640</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
         <v>146</v>
       </c>
-      <c r="C27" t="s">
-        <v>147</v>
-      </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>150709801</v>
+        <v>175845031</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" t="s">
         <v>149</v>
       </c>
-      <c r="C28" t="s">
-        <v>150</v>
-      </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>113484736</v>
+        <v>78528528</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" t="s">
         <v>152</v>
       </c>
-      <c r="C29" t="s">
-        <v>153</v>
-      </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>126444864</v>
+        <v>150413760</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" t="s">
         <v>155</v>
       </c>
-      <c r="C30" t="s">
-        <v>156</v>
-      </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>167485448</v>
+        <v>57296025</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
         <v>158</v>
       </c>
-      <c r="C31" t="s">
-        <v>159</v>
-      </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>131266278</v>
+        <v>75146000</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" t="s">
-        <v>163</v>
-      </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>135201620</v>
+        <v>80172170</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" t="s">
-        <v>167</v>
-      </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>48279184</v>
+        <v>72473967</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" t="s">
-        <v>170</v>
-      </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>256128933</v>
+        <v>61561164</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" t="s">
-        <v>174</v>
-      </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>143002854</v>
+        <v>184101928</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" t="s">
-        <v>177</v>
-      </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>218279999</v>
+        <v>237562272</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C37" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D37" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>225907220</v>
+        <v>100229828</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" t="s">
         <v>180</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" t="s">
-        <v>182</v>
-      </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>208984600</v>
+        <v>91373184</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" t="s">
-        <v>185</v>
-      </c>
       <c r="D39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>157964608</v>
+        <v>72181460</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C40" t="s">
-        <v>188</v>
-      </c>
       <c r="D40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>165156417</v>
+        <v>120870010</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" t="s">
         <v>189</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" t="s">
-        <v>191</v>
-      </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>129354390</v>
+        <v>203989248</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" t="s">
         <v>192</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" t="s">
-        <v>194</v>
-      </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>41830845</v>
+        <v>75070336</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" t="s">
         <v>197</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" t="s">
-        <v>199</v>
-      </c>
       <c r="D43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>99393511</v>
+        <v>164985964</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" t="s">
         <v>200</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44" t="s">
-        <v>202</v>
-      </c>
       <c r="D44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>112076250</v>
+        <v>162121800</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" t="s">
         <v>203</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" t="s">
-        <v>205</v>
-      </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>238870128</v>
+        <v>110321620</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C46" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D46" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>87473370</v>
+        <v>196548141</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
+        <v>391</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C47" t="s">
         <v>394</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C47" t="s">
-        <v>397</v>
-      </c>
       <c r="D47" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>76617380</v>
+        <v>184521242</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" t="s">
         <v>206</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C48" t="s">
-        <v>208</v>
-      </c>
       <c r="D48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>133077819</v>
+        <v>153289800</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" t="s">
         <v>209</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C49" t="s">
-        <v>211</v>
-      </c>
       <c r="D49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>59070376</v>
+        <v>149872852</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" t="s">
         <v>212</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C50" t="s">
-        <v>214</v>
-      </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>188790336</v>
+        <v>42208712</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C51" t="s">
-        <v>218</v>
-      </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>86420274</v>
+        <v>34416975</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" t="s">
         <v>219</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C52" t="s">
-        <v>221</v>
-      </c>
       <c r="D52" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>90610830</v>
+        <v>108336954</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" t="s">
         <v>222</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C53" t="s">
-        <v>224</v>
-      </c>
       <c r="D53" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>117547445</v>
+        <v>107325396</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" t="s">
         <v>225</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C54" t="s">
-        <v>227</v>
-      </c>
       <c r="D54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>211389804</v>
+        <v>238022610</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55" t="s">
         <v>228</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C55" t="s">
-        <v>230</v>
-      </c>
       <c r="D55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>121495990</v>
+        <v>91411040</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" t="s">
         <v>232</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C56" t="s">
-        <v>234</v>
-      </c>
       <c r="D56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>82497438</v>
+        <v>111100878</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" t="s">
         <v>235</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" t="s">
-        <v>237</v>
-      </c>
       <c r="D57" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>85050879</v>
+        <v>250924328</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C58" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D58" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>211000366</v>
+        <v>187000890</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C59" t="s">
         <v>403</v>
       </c>
-      <c r="C59" t="s">
-        <v>406</v>
-      </c>
       <c r="D59" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>58960728</v>
+        <v>140207463</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
+        <v>237</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" t="s">
         <v>239</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C60" t="s">
-        <v>241</v>
-      </c>
       <c r="D60" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>116665562</v>
+        <v>111206909</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" t="s">
         <v>242</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C61" t="s">
-        <v>244</v>
-      </c>
       <c r="D61" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>206972664</v>
+        <v>121145312</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" t="s">
         <v>245</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C62" t="s">
-        <v>247</v>
-      </c>
       <c r="D62" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>95775303</v>
+        <v>110535004</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" t="s">
         <v>248</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C63" t="s">
-        <v>250</v>
-      </c>
       <c r="D63" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>94437504</v>
+        <v>277687201</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C64" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D64" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>95817000</v>
+        <v>89881190</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
+        <v>250</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" t="s">
         <v>252</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C65" t="s">
-        <v>254</v>
-      </c>
       <c r="D65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>46595180</v>
+        <v>101850624</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" t="s">
         <v>255</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C66" t="s">
-        <v>257</v>
-      </c>
       <c r="D66" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>174129363</v>
+        <v>191225133</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
+        <v>256</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C67" t="s">
         <v>258</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C67" t="s">
-        <v>260</v>
-      </c>
       <c r="D67" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="0"/>
-        <v>62011212</v>
+        <v>54360320</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
+        <v>259</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" t="s">
         <v>261</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C68" t="s">
-        <v>263</v>
-      </c>
       <c r="D68" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E75" ca="1" si="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>120269205</v>
+        <f t="shared" ref="E68:E76" ca="1" si="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
+        <v>205502882</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
+        <v>262</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" t="s">
         <v>264</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C69" t="s">
-        <v>266</v>
-      </c>
       <c r="D69" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>132539072</v>
+        <v>262971153</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" t="s">
         <v>267</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C70" t="s">
-        <v>269</v>
-      </c>
       <c r="D70" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>167892032</v>
+        <v>100831536</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C71" t="s">
         <v>271</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C71" t="s">
-        <v>273</v>
-      </c>
       <c r="D71" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>93382240</v>
+        <v>125252400</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
+        <v>272</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" t="s">
         <v>274</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C72" t="s">
-        <v>276</v>
-      </c>
       <c r="D72" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>145262507</v>
+        <v>259095168</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
+        <v>275</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" t="s">
         <v>277</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C73" t="s">
-        <v>279</v>
-      </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>211716750</v>
+        <v>179523893</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
+        <v>278</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" t="s">
         <v>280</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C74" t="s">
-        <v>282</v>
-      </c>
       <c r="D74" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>226939344</v>
+        <v>99777300</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
+        <v>281</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C75" t="s">
         <v>283</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C75" t="s">
-        <v>285</v>
-      </c>
       <c r="D75" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>80944002</v>
+        <v>96659416</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>418</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C76" t="s">
+        <v>420</v>
+      </c>
+      <c r="D76" t="s">
+        <v>420</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="1"/>
+        <v>105795263</v>
       </c>
     </row>
   </sheetData>

--- a/examples/data/20220927 ITR Tool Sample Data.xlsx
+++ b/examples/data/20220927 ITR Tool Sample Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/ITR-MichaelTiemannOSC/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97097308-073E-C34D-A2AE-6FF7383B4C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B068B0-BD3A-3941-8575-83DF17DED469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11700" windowWidth="71800" windowHeight="26600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11700" windowWidth="48440" windowHeight="26600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me " sheetId="1" r:id="rId1"/>
@@ -383,6 +383,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="AT76" authorId="1" shapeId="0" xr:uid="{16EB716C-AB4A-BE4F-AD78-A8E7300F26BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael Tiemann:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>These are all in GBP!</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -712,7 +745,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="428">
   <si>
     <t>company_name</t>
   </si>
@@ -2192,22 +2225,34 @@
     <t>Tpkm</t>
   </si>
   <si>
-    <t>Fictional Realty</t>
-  </si>
-  <si>
-    <t>TIE0001</t>
-  </si>
-  <si>
-    <t>US0001</t>
-  </si>
-  <si>
     <t>Commercial Buildings</t>
   </si>
   <si>
-    <t>g CO2/m**2</t>
-  </si>
-  <si>
-    <t>thousand m**2</t>
+    <t>Balfour Beatty</t>
+  </si>
+  <si>
+    <t>CT4UIJ3TUKGYYHMENQ17</t>
+  </si>
+  <si>
+    <t>GB0000961622</t>
+  </si>
+  <si>
+    <t>Construction Buildings</t>
+  </si>
+  <si>
+    <t>CBRE</t>
+  </si>
+  <si>
+    <t>52990016II9MJ2OSWA10</t>
+  </si>
+  <si>
+    <t>US12504L1098</t>
+  </si>
+  <si>
+    <t>ft**2</t>
+  </si>
+  <si>
+    <t>kg CO2/ft**2</t>
   </si>
 </sst>
 </file>
@@ -3967,10 +4012,10 @@
   <dimension ref="A1:AZ82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P77" sqref="P77"/>
+      <selection pane="bottomRight" activeCell="AQ77" sqref="AQ77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="15"/>
@@ -13691,22 +13736,20 @@
     </row>
     <row r="76" spans="1:50">
       <c r="A76" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C76" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D76" t="s">
-        <v>54</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E76" s="1"/>
       <c r="F76" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>56</v>
@@ -13717,130 +13760,250 @@
       <c r="I76" s="3">
         <v>44561</v>
       </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
+      <c r="J76" s="22">
+        <v>2260000000</v>
+      </c>
+      <c r="K76" s="22">
+        <v>9690000000</v>
+      </c>
+      <c r="L76" s="22">
+        <v>1810000000</v>
+      </c>
+      <c r="M76" s="22">
+        <f>L76+1110000000</f>
+        <v>2920000000</v>
+      </c>
+      <c r="N76" s="22">
+        <v>4846000000</v>
       </c>
       <c r="O76" t="s">
         <v>58</v>
       </c>
       <c r="P76" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q76">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="R76">
-        <v>49</v>
+        <v>170937</v>
       </c>
       <c r="S76">
-        <v>48</v>
+        <v>175065</v>
       </c>
       <c r="T76">
-        <v>47</v>
+        <v>167071</v>
       </c>
       <c r="U76">
-        <v>46</v>
+        <v>162816</v>
       </c>
       <c r="V76">
-        <v>45</v>
-      </c>
-      <c r="X76">
-        <v>1000</v>
+        <v>199002</v>
       </c>
       <c r="Y76">
-        <v>990</v>
+        <v>71170</v>
       </c>
       <c r="Z76">
-        <v>980</v>
+        <v>49365</v>
       </c>
       <c r="AA76">
-        <v>970</v>
+        <v>43561</v>
       </c>
       <c r="AB76">
-        <v>960</v>
+        <v>42701</v>
       </c>
       <c r="AC76">
-        <v>950</v>
-      </c>
-      <c r="AE76" s="19">
-        <f t="shared" si="60"/>
-        <v>1050</v>
+        <v>41779</v>
+      </c>
+      <c r="AE76" s="19" t="str">
+        <f>IF(ISBLANK(Q76),IF(ISBLANK(X76),"",X76),Q76+X76)</f>
+        <v/>
       </c>
       <c r="AF76" s="19">
-        <f t="shared" si="60"/>
-        <v>1039</v>
+        <f>IF(ISBLANK(R76),IF(ISBLANK(Y76),"",Y76),R76+Y76)</f>
+        <v>242107</v>
       </c>
       <c r="AG76" s="19">
-        <f t="shared" si="60"/>
-        <v>1028</v>
+        <f>IF(ISBLANK(S76),IF(ISBLANK(Z76),"",Z76),S76+Z76)</f>
+        <v>224430</v>
       </c>
       <c r="AH76" s="19">
-        <f t="shared" si="60"/>
-        <v>1017</v>
+        <f>IF(ISBLANK(T76),IF(ISBLANK(AA76),"",AA76),T76+AA76)</f>
+        <v>210632</v>
       </c>
       <c r="AI76" s="19">
-        <f t="shared" si="60"/>
-        <v>1006</v>
+        <f>IF(ISBLANK(U76),IF(ISBLANK(AB76),"",AB76),U76+AB76)</f>
+        <v>205517</v>
       </c>
       <c r="AJ76" s="19">
-        <f t="shared" si="60"/>
-        <v>995</v>
+        <f>IF(ISBLANK(V76),IF(ISBLANK(AC76),"",AC76),V76+AC76)</f>
+        <v>240781</v>
       </c>
       <c r="AK76" s="19" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="AL76">
-        <v>100</v>
-      </c>
-      <c r="AM76">
-        <v>99</v>
-      </c>
-      <c r="AN76">
-        <v>98</v>
-      </c>
-      <c r="AO76">
-        <v>97</v>
-      </c>
-      <c r="AP76">
-        <v>96</v>
-      </c>
-      <c r="AQ76">
-        <v>95</v>
-      </c>
-      <c r="AS76">
-        <v>10</v>
-      </c>
-      <c r="AT76">
-        <v>11</v>
-      </c>
-      <c r="AU76">
-        <v>12</v>
-      </c>
-      <c r="AV76">
-        <v>13</v>
-      </c>
-      <c r="AW76">
-        <v>14</v>
-      </c>
-      <c r="AX76">
-        <v>15</v>
+      <c r="AT76" s="22">
+        <v>8234000000</v>
+      </c>
+      <c r="AU76" s="22">
+        <v>7802000000</v>
+      </c>
+      <c r="AV76" s="22">
+        <v>8405000000</v>
+      </c>
+      <c r="AW76" s="22">
+        <v>8587000000</v>
+      </c>
+      <c r="AX76" s="22">
+        <v>8280000000</v>
       </c>
     </row>
     <row r="77" spans="1:50">
+      <c r="A77" t="s">
+        <v>423</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C77" t="s">
+        <v>425</v>
+      </c>
+      <c r="D77" t="s">
+        <v>54</v>
+      </c>
       <c r="E77"/>
+      <c r="F77" t="s">
+        <v>418</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H77" t="s">
+        <v>57</v>
+      </c>
+      <c r="I77" s="3">
+        <v>44561</v>
+      </c>
+      <c r="J77" s="22">
+        <v>36310000000</v>
+      </c>
+      <c r="K77" s="22">
+        <v>27740000000</v>
+      </c>
+      <c r="L77" s="22">
+        <v>37840000000</v>
+      </c>
+      <c r="M77" s="22">
+        <f>L77+1190000000</f>
+        <v>39030000000</v>
+      </c>
+      <c r="N77" s="22">
+        <v>22073000000</v>
+      </c>
+      <c r="O77" t="s">
+        <v>58</v>
+      </c>
+      <c r="P77" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q77">
+        <v>63414</v>
+      </c>
+      <c r="R77">
+        <v>46057</v>
+      </c>
+      <c r="S77">
+        <v>46069</v>
+      </c>
+      <c r="T77">
+        <v>58770</v>
+      </c>
+      <c r="U77">
+        <v>60379</v>
+      </c>
+      <c r="V77">
+        <v>46251</v>
+      </c>
+      <c r="X77">
+        <v>29678</v>
+      </c>
+      <c r="Y77">
+        <v>25010</v>
+      </c>
+      <c r="Z77">
+        <v>24439</v>
+      </c>
+      <c r="AA77">
+        <v>28020</v>
+      </c>
+      <c r="AB77">
+        <v>22644</v>
+      </c>
+      <c r="AC77">
+        <v>19847</v>
+      </c>
+      <c r="AE77" s="19">
+        <f>IF(ISBLANK(Q77),IF(ISBLANK(X77),"",X77),Q77+X77)</f>
+        <v>93092</v>
+      </c>
+      <c r="AF77" s="19">
+        <f>IF(ISBLANK(R77),IF(ISBLANK(Y77),"",Y77),R77+Y77)</f>
+        <v>71067</v>
+      </c>
+      <c r="AG77" s="19">
+        <f>IF(ISBLANK(S77),IF(ISBLANK(Z77),"",Z77),S77+Z77)</f>
+        <v>70508</v>
+      </c>
+      <c r="AH77" s="19">
+        <f>IF(ISBLANK(T77),IF(ISBLANK(AA77),"",AA77),T77+AA77)</f>
+        <v>86790</v>
+      </c>
+      <c r="AI77" s="19">
+        <f>IF(ISBLANK(U77),IF(ISBLANK(AB77),"",AB77),U77+AB77)</f>
+        <v>83023</v>
+      </c>
+      <c r="AJ77" s="19">
+        <f>IF(ISBLANK(V77),IF(ISBLANK(AC77),"",AC77),V77+AC77)</f>
+        <v>66098</v>
+      </c>
+      <c r="AK77" s="19" t="str">
+        <f>IF(ISBLANK(W77),IF(ISBLANK(AD77),"",AD77),W77+AD77)</f>
+        <v/>
+      </c>
+      <c r="AL77">
+        <v>16954</v>
+      </c>
+      <c r="AM77">
+        <v>18626</v>
+      </c>
+      <c r="AN77">
+        <v>19984</v>
+      </c>
+      <c r="AO77">
+        <v>58307929</v>
+      </c>
+      <c r="AP77">
+        <v>54684733</v>
+      </c>
+      <c r="AQ77">
+        <v>89168768</v>
+      </c>
+      <c r="AS77" s="22">
+        <v>5300000000</v>
+      </c>
+      <c r="AT77" s="22">
+        <v>5500000000</v>
+      </c>
+      <c r="AU77" s="22">
+        <v>6000000000</v>
+      </c>
+      <c r="AV77" s="22">
+        <v>6800000000</v>
+      </c>
+      <c r="AW77" s="22">
+        <v>7000000000</v>
+      </c>
+      <c r="AX77" s="22">
+        <v>7100000000</v>
+      </c>
     </row>
     <row r="78" spans="1:50">
       <c r="E78"/>
@@ -13877,13 +14040,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
-      <selection pane="bottomRight" activeCell="K108" sqref="K108"/>
+      <selection pane="bottomRight" activeCell="A110" sqref="A110:C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -18199,22 +18362,22 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C108" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D108" t="s">
         <v>54</v>
       </c>
       <c r="E108" s="30">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G108" t="s">
         <v>294</v>
@@ -18223,20 +18386,102 @@
         <v>2020</v>
       </c>
       <c r="I108" s="33">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="J108">
-        <f>'ITR input data'!AE76</f>
-        <v>1050</v>
+        <v>357983</v>
       </c>
       <c r="K108" t="s">
-        <v>422</v>
+        <v>58</v>
       </c>
       <c r="L108">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="M108" s="43">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" t="s">
+        <v>423</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C109" t="s">
+        <v>425</v>
+      </c>
+      <c r="D109" t="s">
+        <v>54</v>
+      </c>
+      <c r="E109" s="30">
+        <v>2050</v>
+      </c>
+      <c r="F109" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="G109" t="s">
+        <v>294</v>
+      </c>
+      <c r="H109">
+        <v>2020</v>
+      </c>
+      <c r="I109" s="33">
+        <v>2019</v>
+      </c>
+      <c r="J109">
+        <v>87198</v>
+      </c>
+      <c r="K109" t="s">
+        <v>58</v>
+      </c>
+      <c r="L109">
+        <v>2035</v>
+      </c>
+      <c r="M109" s="43">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" t="s">
+        <v>423</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C110" t="s">
+        <v>425</v>
+      </c>
+      <c r="D110" t="s">
+        <v>54</v>
+      </c>
+      <c r="E110" s="30">
+        <v>2050</v>
+      </c>
+      <c r="F110" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="G110" t="s">
+        <v>300</v>
+      </c>
+      <c r="H110">
+        <v>2020</v>
+      </c>
+      <c r="I110" s="33">
+        <v>2019</v>
+      </c>
+      <c r="J110">
+        <f>0.01865*1000</f>
+        <v>18.649999999999999</v>
+      </c>
+      <c r="K110" t="s">
+        <v>427</v>
+      </c>
+      <c r="L110">
+        <v>2035</v>
+      </c>
+      <c r="M110" s="43">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -19479,10 +19724,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView topLeftCell="A39" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -19524,7 +19769,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>179862180</v>
+        <v>60311111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19542,7 +19787,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E67" ca="1" si="0">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>137285676</v>
+        <v>149142976</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -19560,7 +19805,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>205657907</v>
+        <v>177999462</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -19578,7 +19823,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>110458106</v>
+        <v>146111295</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -19596,7 +19841,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>53540055</v>
+        <v>109540802</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -19614,7 +19859,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>93911338</v>
+        <v>170383032</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -19632,7 +19877,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>101650080</v>
+        <v>108589923</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -19650,7 +19895,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>184958915</v>
+        <v>102312964</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -19668,7 +19913,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>199157436</v>
+        <v>86269376</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -19686,7 +19931,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>55980320</v>
+        <v>82735928</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -19704,7 +19949,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>143182254</v>
+        <v>84248391</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -19722,7 +19967,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>47642409</v>
+        <v>274102374</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -19740,7 +19985,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>154545400</v>
+        <v>76642360</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -19758,7 +20003,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>98866152</v>
+        <v>94716144</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -19776,7 +20021,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>198114203</v>
+        <v>85299705</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -19794,7 +20039,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>97111324</v>
+        <v>243013288</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -19812,7 +20057,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>195730457</v>
+        <v>128911797</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -19830,7 +20075,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>88201050</v>
+        <v>158656944</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -19848,7 +20093,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>173598040</v>
+        <v>108959076</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -19866,7 +20111,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>85840056</v>
+        <v>66377165</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -19884,7 +20129,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>155612699</v>
+        <v>158545194</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -19902,7 +20147,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>174324990</v>
+        <v>56594197</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -19920,7 +20165,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>82029584</v>
+        <v>170949534</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -19938,7 +20183,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>107760475</v>
+        <v>111861590</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -19956,7 +20201,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>282522640</v>
+        <v>62412768</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -19974,7 +20219,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>175845031</v>
+        <v>103646520</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -19992,7 +20237,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>78528528</v>
+        <v>62387512</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -20010,7 +20255,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>150413760</v>
+        <v>125263890</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -20028,7 +20273,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>57296025</v>
+        <v>106969476</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -20046,7 +20291,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>75146000</v>
+        <v>77872662</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -20064,7 +20309,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>80172170</v>
+        <v>157351700</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -20082,7 +20327,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>72473967</v>
+        <v>60670420</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -20100,7 +20345,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>61561164</v>
+        <v>135327830</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -20118,7 +20363,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>184101928</v>
+        <v>199381392</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -20136,7 +20381,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>237562272</v>
+        <v>134305857</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -20154,7 +20399,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>100229828</v>
+        <v>154428480</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -20172,7 +20417,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>91373184</v>
+        <v>141312738</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -20190,7 +20435,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>72181460</v>
+        <v>227460920</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -20208,7 +20453,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>120870010</v>
+        <v>98718116</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -20226,7 +20471,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>203989248</v>
+        <v>212091119</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -20244,7 +20489,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>75070336</v>
+        <v>62502125</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -20262,7 +20507,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>164985964</v>
+        <v>239175417</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -20280,7 +20525,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>162121800</v>
+        <v>117405450</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -20298,7 +20543,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>110321620</v>
+        <v>179066862</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -20316,7 +20561,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>196548141</v>
+        <v>243488040</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -20334,7 +20579,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>184521242</v>
+        <v>235806480</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -20352,7 +20597,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>153289800</v>
+        <v>41687382</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -20370,7 +20615,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>149872852</v>
+        <v>169466016</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -20388,7 +20633,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>42208712</v>
+        <v>105117452</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -20406,7 +20651,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>34416975</v>
+        <v>59770452</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -20424,7 +20669,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>108336954</v>
+        <v>260477340</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -20442,7 +20687,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>107325396</v>
+        <v>217416231</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -20460,7 +20705,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>238022610</v>
+        <v>176255753</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -20478,7 +20723,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>91411040</v>
+        <v>75214200</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -20496,7 +20741,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>111100878</v>
+        <v>176599773</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -20514,7 +20759,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>250924328</v>
+        <v>73529160</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -20532,7 +20777,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>187000890</v>
+        <v>75163012</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -20550,7 +20795,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>140207463</v>
+        <v>73872636</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -20568,7 +20813,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>111206909</v>
+        <v>106615189</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -20586,7 +20831,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>121145312</v>
+        <v>142345500</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -20604,7 +20849,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>110535004</v>
+        <v>93686336</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -20622,7 +20867,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>277687201</v>
+        <v>177322387</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -20640,7 +20885,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>89881190</v>
+        <v>158584236</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -20658,7 +20903,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>101850624</v>
+        <v>133649040</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -20676,7 +20921,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>191225133</v>
+        <v>103636994</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -20694,7 +20939,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="0"/>
-        <v>54360320</v>
+        <v>110347536</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -20711,8 +20956,8 @@
         <v>261</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E76" ca="1" si="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>205502882</v>
+        <f t="shared" ref="E68:E77" ca="1" si="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
+        <v>63074720</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -20730,7 +20975,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>262971153</v>
+        <v>57436140</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -20748,7 +20993,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>100831536</v>
+        <v>260385605</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -20766,7 +21011,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>125252400</v>
+        <v>147708036</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -20784,7 +21029,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>259095168</v>
+        <v>34522810</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -20802,7 +21047,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>179523893</v>
+        <v>124145028</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -20820,7 +21065,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>99777300</v>
+        <v>92207874</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -20838,25 +21083,43 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>96659416</v>
+        <v>163106028</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C76" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D76" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>105795263</v>
+        <v>178385184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>423</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C77" t="s">
+        <v>425</v>
+      </c>
+      <c r="D77" t="s">
+        <v>425</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="1"/>
+        <v>239430800</v>
       </c>
     </row>
   </sheetData>

--- a/examples/data/20220927 ITR Tool Sample Data.xlsx
+++ b/examples/data/20220927 ITR Tool Sample Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/ITR-MichaelTiemannOSC/examples/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/MichaelTiemannOSC/ITR/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B068B0-BD3A-3941-8575-83DF17DED469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B00BD2C-BC86-8F42-B440-EB2D9A420E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11700" windowWidth="48440" windowHeight="26600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11700" windowWidth="48440" windowHeight="26600" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me " sheetId="1" r:id="rId1"/>
@@ -2117,9 +2117,6 @@
     <t>company_isin</t>
   </si>
   <si>
-    <t>investment_value</t>
-  </si>
-  <si>
     <t>mboe</t>
   </si>
   <si>
@@ -2253,6 +2250,9 @@
   </si>
   <si>
     <t>kg CO2/ft**2</t>
+  </si>
+  <si>
+    <t>investment_value [USD]</t>
   </si>
 </sst>
 </file>
@@ -2593,7 +2593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2602,7 +2602,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2625,10 +2625,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2637,14 +2636,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2654,7 +2651,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2682,70 +2679,58 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2758,10 +2743,8 @@
     <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
@@ -2769,15 +2752,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4011,8 +3986,8 @@
   </sheetPr>
   <dimension ref="A1:AZ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK49" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AQ77" sqref="AQ77"/>
@@ -4862,13 +4837,13 @@
     </row>
     <row r="7" spans="1:52">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -5006,20 +4981,20 @@
     </row>
     <row r="8" spans="1:52">
       <c r="A8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>56</v>
@@ -5299,34 +5274,34 @@
       <c r="P10" t="s">
         <v>86</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10">
         <v>625072</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10">
         <v>581703</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10">
         <v>678403</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10">
         <v>678967</v>
       </c>
-      <c r="V10" s="23">
+      <c r="V10">
         <v>699713</v>
       </c>
-      <c r="Y10" s="23">
+      <c r="Y10">
         <v>510911</v>
       </c>
-      <c r="Z10" s="23">
+      <c r="Z10">
         <v>538622</v>
       </c>
-      <c r="AA10" s="23">
+      <c r="AA10">
         <v>354095</v>
       </c>
-      <c r="AB10" s="23">
+      <c r="AB10">
         <v>130090</v>
       </c>
-      <c r="AC10" s="23">
+      <c r="AC10">
         <v>134849</v>
       </c>
       <c r="AE10" s="19" t="str">
@@ -5357,38 +5332,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AM10" s="23">
+      <c r="AM10">
         <v>71714741</v>
       </c>
-      <c r="AN10" s="23">
+      <c r="AN10">
         <v>73093077</v>
       </c>
-      <c r="AO10" s="23">
+      <c r="AO10">
         <v>132520346</v>
       </c>
-      <c r="AP10" s="23">
+      <c r="AP10">
         <v>117682832</v>
       </c>
-      <c r="AQ10" s="23">
+      <c r="AQ10">
         <v>121705368</v>
       </c>
-      <c r="AT10" s="24">
+      <c r="AT10" s="23">
         <f>AM10*0.85/128</f>
         <v>476230.70195312501</v>
       </c>
-      <c r="AU10" s="24">
+      <c r="AU10" s="23">
         <f>AN10*0.85/127.5</f>
         <v>487287.18</v>
       </c>
-      <c r="AV10" s="24">
+      <c r="AV10" s="23">
         <f>AO10*0.85/127</f>
         <v>886947.19763779524</v>
       </c>
-      <c r="AW10" s="24">
+      <c r="AW10" s="23">
         <f>AP10*0.85/99.1</f>
         <v>1009388.569122099</v>
       </c>
-      <c r="AX10" s="24">
+      <c r="AX10" s="23">
         <f>AQ10*0.85/115.9</f>
         <v>892576.03796376183</v>
       </c>
@@ -5498,30 +5473,30 @@
         <v>35.6</v>
       </c>
       <c r="AK11" s="19"/>
-      <c r="AM11" s="93">
+      <c r="AM11" s="83">
         <f>AT11*0.43/5.712</f>
         <v>946.27100840336141</v>
       </c>
-      <c r="AN11" s="93">
+      <c r="AN11" s="83">
         <f t="shared" ref="AN11:AQ11" si="9">AU11*0.43/5.712</f>
         <v>946.27100840336141</v>
       </c>
-      <c r="AO11" s="93">
+      <c r="AO11" s="83">
         <f t="shared" si="9"/>
         <v>946.27100840336141</v>
       </c>
-      <c r="AP11" s="93">
+      <c r="AP11" s="83">
         <f t="shared" si="9"/>
         <v>822.359943977591</v>
       </c>
-      <c r="AQ11" s="93">
+      <c r="AQ11" s="83">
         <f t="shared" si="9"/>
         <v>834.55532212885146</v>
       </c>
-      <c r="AT11" s="25">
+      <c r="AT11" s="24">
         <v>12570</v>
       </c>
-      <c r="AU11" s="25">
+      <c r="AU11" s="24">
         <v>12570</v>
       </c>
       <c r="AV11">
@@ -5577,11 +5552,11 @@
       <c r="N12">
         <v>3187800000</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="23" t="s">
-        <v>414</v>
+      <c r="P12" t="s">
+        <v>413</v>
       </c>
       <c r="Q12">
         <v>298055</v>
@@ -5703,10 +5678,10 @@
       <c r="N13" s="22">
         <v>239535000000</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O13" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="P13" t="s">
         <v>93</v>
       </c>
       <c r="R13">
@@ -5780,15 +5755,15 @@
       <c r="AQ13">
         <v>611</v>
       </c>
-      <c r="AT13" s="96">
+      <c r="AT13" s="85">
         <f>9100*AM13/$AP13</f>
         <v>9568.2675814751292</v>
       </c>
-      <c r="AU13" s="96">
+      <c r="AU13" s="85">
         <f>9100*AN13/$AP13</f>
         <v>9802.4013722126929</v>
       </c>
-      <c r="AV13" s="96">
+      <c r="AV13" s="85">
         <f>9100*AO13/$AP13</f>
         <v>9974.0994854202399</v>
       </c>
@@ -5846,7 +5821,7 @@
         <v>58</v>
       </c>
       <c r="P14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q14">
         <v>33209464.625</v>
@@ -6085,7 +6060,7 @@
       <c r="K16">
         <v>5829002000</v>
       </c>
-      <c r="L16" s="85">
+      <c r="L16" s="76">
         <f>M16</f>
         <v>3154921000</v>
       </c>
@@ -6095,11 +6070,11 @@
       <c r="N16">
         <v>3758771000</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" t="s">
         <v>58</v>
       </c>
-      <c r="P16" s="23" t="s">
-        <v>414</v>
+      <c r="P16" t="s">
+        <v>413</v>
       </c>
       <c r="Q16">
         <v>1048006</v>
@@ -6192,18 +6167,18 @@
       <c r="I17">
         <v>2019</v>
       </c>
-      <c r="J17" s="85">
+      <c r="J17" s="76">
         <f>J9</f>
         <v>3528768075</v>
       </c>
       <c r="K17">
         <v>1639605000</v>
       </c>
-      <c r="L17" s="85">
+      <c r="L17" s="76">
         <f t="shared" ref="L17:M17" si="18">L9</f>
         <v>6659087075</v>
       </c>
-      <c r="M17" s="85">
+      <c r="M17" s="76">
         <f t="shared" si="18"/>
         <v>6668864075</v>
       </c>
@@ -7074,11 +7049,11 @@
       <c r="AQ23">
         <v>11.6</v>
       </c>
-      <c r="AS23" s="85">
+      <c r="AS23" s="76">
         <f>(AE23+AL23)/0.26</f>
         <v>94.615384615384613</v>
       </c>
-      <c r="AT23" s="85">
+      <c r="AT23" s="76">
         <f>(AF23+AM23)/0.23</f>
         <v>86.086956521739125</v>
       </c>
@@ -7620,40 +7595,40 @@
       <c r="N28">
         <v>124977000000</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" t="s">
         <v>58</v>
       </c>
-      <c r="P28" s="23" t="s">
+      <c r="P28" t="s">
         <v>80</v>
       </c>
       <c r="Q28">
         <v>9723000</v>
       </c>
-      <c r="R28" s="26">
+      <c r="R28" s="25">
         <v>9532000</v>
       </c>
-      <c r="S28" s="26">
+      <c r="S28" s="25">
         <v>8841000</v>
       </c>
-      <c r="T28" s="26">
+      <c r="T28" s="25">
         <v>8566000</v>
       </c>
-      <c r="U28" s="26">
+      <c r="U28" s="25">
         <v>8493000</v>
       </c>
       <c r="X28">
         <v>7061000</v>
       </c>
-      <c r="Y28" s="26">
+      <c r="Y28" s="25">
         <v>17693000</v>
       </c>
-      <c r="Z28" s="26">
+      <c r="Z28" s="25">
         <v>21022000</v>
       </c>
-      <c r="AA28" s="26">
+      <c r="AA28" s="25">
         <v>18864000</v>
       </c>
-      <c r="AB28" s="26">
+      <c r="AB28" s="25">
         <v>13720000</v>
       </c>
       <c r="AE28" s="19">
@@ -7687,15 +7662,15 @@
       <c r="AS28" s="20">
         <v>186212000</v>
       </c>
-      <c r="AT28" s="27">
+      <c r="AT28" s="26">
         <f>195307000+51595000</f>
         <v>246902000</v>
       </c>
-      <c r="AU28" s="26">
+      <c r="AU28" s="25">
         <f>194224000+59050000</f>
         <v>253274000</v>
       </c>
-      <c r="AV28" s="28">
+      <c r="AV28" s="27">
         <f>189463000+69708000</f>
         <v>259171000</v>
       </c>
@@ -7747,46 +7722,46 @@
       <c r="N29" s="22">
         <v>332750000000</v>
       </c>
-      <c r="O29" s="23" t="s">
+      <c r="O29" t="s">
         <v>64</v>
       </c>
-      <c r="P29" s="94" t="s">
-        <v>383</v>
+      <c r="P29" t="s">
+        <v>382</v>
       </c>
       <c r="Q29">
         <v>117</v>
       </c>
-      <c r="R29" s="26">
+      <c r="R29" s="25">
         <v>115</v>
       </c>
-      <c r="S29" s="26">
+      <c r="S29" s="25">
         <v>116</v>
       </c>
-      <c r="T29" s="26">
+      <c r="T29" s="25">
         <v>111</v>
       </c>
-      <c r="U29" s="26">
+      <c r="U29" s="25">
         <v>105</v>
       </c>
-      <c r="V29" s="95">
+      <c r="V29" s="84">
         <v>103</v>
       </c>
       <c r="X29">
         <v>8</v>
       </c>
-      <c r="Y29" s="26">
+      <c r="Y29" s="25">
         <v>8</v>
       </c>
-      <c r="Z29" s="26">
+      <c r="Z29" s="25">
         <v>8</v>
       </c>
-      <c r="AA29" s="26">
+      <c r="AA29" s="25">
         <v>8</v>
       </c>
-      <c r="AB29" s="26">
+      <c r="AB29" s="25">
         <v>7</v>
       </c>
-      <c r="AC29" s="95">
+      <c r="AC29" s="84">
         <v>6</v>
       </c>
       <c r="AE29" s="19">
@@ -7817,51 +7792,51 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="AL29" s="93">
+      <c r="AL29" s="83">
         <f t="shared" ref="AL29:AQ29" si="28">0.43*AS29/1000</f>
         <v>636.11834999999996</v>
       </c>
-      <c r="AM29" s="93">
+      <c r="AM29" s="83">
         <f t="shared" si="28"/>
         <v>625.44574999999998</v>
       </c>
-      <c r="AN29" s="93">
+      <c r="AN29" s="83">
         <f t="shared" si="28"/>
         <v>601.58934999999997</v>
       </c>
-      <c r="AO29" s="93">
+      <c r="AO29" s="83">
         <f t="shared" si="28"/>
         <v>620.26639999999998</v>
       </c>
-      <c r="AP29" s="93">
+      <c r="AP29" s="83">
         <f t="shared" si="28"/>
         <v>590.28895</v>
       </c>
-      <c r="AQ29" s="93">
+      <c r="AQ29" s="83">
         <f t="shared" si="28"/>
         <v>582.59839999999997</v>
       </c>
-      <c r="AS29" s="25">
+      <c r="AS29" s="24">
         <f>4053*365</f>
         <v>1479345</v>
       </c>
-      <c r="AT29" s="25">
+      <c r="AT29" s="24">
         <f>3985*365</f>
         <v>1454525</v>
       </c>
-      <c r="AU29" s="25">
+      <c r="AU29" s="24">
         <f>3833*365</f>
         <v>1399045</v>
       </c>
-      <c r="AV29" s="25">
+      <c r="AV29" s="24">
         <f>3952*365</f>
         <v>1442480</v>
       </c>
-      <c r="AW29" s="25">
+      <c r="AW29" s="24">
         <f>3761*365</f>
         <v>1372765</v>
       </c>
-      <c r="AX29" s="25">
+      <c r="AX29" s="24">
         <f>3712*365</f>
         <v>1354880</v>
       </c>
@@ -7907,10 +7882,10 @@
       <c r="N30">
         <v>42301000000</v>
       </c>
-      <c r="O30" s="23" t="s">
+      <c r="O30" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="23" t="s">
+      <c r="P30" t="s">
         <v>80</v>
       </c>
       <c r="R30" s="20">
@@ -8020,14 +7995,14 @@
       <c r="N31" s="22">
         <v>257035000000</v>
       </c>
-      <c r="O31" s="23" t="s">
+      <c r="O31" t="s">
         <v>137</v>
       </c>
-      <c r="P31" s="23" t="s">
-        <v>415</v>
+      <c r="P31" t="s">
+        <v>414</v>
       </c>
       <c r="R31" s="20"/>
-      <c r="S31" s="23">
+      <c r="S31">
         <v>1442.963</v>
       </c>
       <c r="T31" s="20">
@@ -8040,13 +8015,13 @@
         <v>910</v>
       </c>
       <c r="Y31" s="20"/>
-      <c r="Z31" s="23">
+      <c r="Z31">
         <v>3219.7159999999999</v>
       </c>
-      <c r="AA31" s="23">
+      <c r="AA31">
         <v>3040.2930000000001</v>
       </c>
-      <c r="AB31" s="23">
+      <c r="AB31">
         <v>2473.2730000000001</v>
       </c>
       <c r="AC31">
@@ -8080,7 +8055,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="AN31" s="23">
+      <c r="AN31">
         <v>398915.81</v>
       </c>
       <c r="AO31">
@@ -8089,20 +8064,20 @@
       <c r="AP31">
         <v>349281.99200000003</v>
       </c>
-      <c r="AQ31" s="25">
+      <c r="AQ31" s="24">
         <v>349281.99200000003</v>
       </c>
       <c r="AT31" s="20"/>
       <c r="AU31" s="20"/>
-      <c r="AV31" s="24">
+      <c r="AV31" s="23">
         <f>AO31*0.7/(309/1.6)</f>
         <v>1577.2225584466019</v>
       </c>
-      <c r="AW31" s="24">
+      <c r="AW31" s="23">
         <f>AP31*0.7/(301/1.6)</f>
         <v>1299.6539237209302</v>
       </c>
-      <c r="AX31" s="24">
+      <c r="AX31" s="23">
         <f>AQ31*0.7/(289/1.6)</f>
         <v>1353.6187925259514</v>
       </c>
@@ -8140,21 +8115,21 @@
       <c r="K32">
         <v>6736467578.2073498</v>
       </c>
-      <c r="L32" s="85">
+      <c r="L32" s="76">
         <f>J32</f>
         <v>21370500000</v>
       </c>
-      <c r="M32" s="85">
+      <c r="M32" s="76">
         <f>J32</f>
         <v>21370500000</v>
       </c>
       <c r="N32">
         <v>40960299959.761497</v>
       </c>
-      <c r="O32" s="23" t="s">
+      <c r="O32" t="s">
         <v>58</v>
       </c>
-      <c r="P32" s="23" t="s">
+      <c r="P32" t="s">
         <v>80</v>
       </c>
       <c r="Q32">
@@ -8281,33 +8256,33 @@
       <c r="N33">
         <v>235194000000</v>
       </c>
-      <c r="O33" s="23" t="s">
+      <c r="O33" t="s">
         <v>58</v>
       </c>
-      <c r="P33" s="23" t="s">
-        <v>416</v>
+      <c r="P33" t="s">
+        <v>415</v>
       </c>
       <c r="R33" s="20"/>
       <c r="S33" s="20"/>
-      <c r="T33" s="23">
+      <c r="T33">
         <v>1589700</v>
       </c>
-      <c r="U33" s="23">
+      <c r="U33">
         <v>1214124</v>
       </c>
-      <c r="V33" s="23">
+      <c r="V33">
         <v>1252906</v>
       </c>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
-      <c r="AA33" s="23">
+      <c r="AA33">
         <v>3721875</v>
       </c>
-      <c r="AB33" s="23">
+      <c r="AB33">
         <v>2599822</v>
       </c>
-      <c r="AC33" s="23">
+      <c r="AC33">
         <v>2150694</v>
       </c>
       <c r="AE33" s="19" t="str">
@@ -8338,24 +8313,24 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="AO33" s="23">
+      <c r="AO33">
         <v>249384317</v>
       </c>
-      <c r="AP33" s="23">
+      <c r="AP33">
         <v>296411327</v>
       </c>
-      <c r="AQ33" s="29">
+      <c r="AQ33" s="24">
         <v>296411327</v>
       </c>
-      <c r="AV33" s="24">
+      <c r="AV33" s="23">
         <f>AO33*0.85/293</f>
         <v>723469.86160409555</v>
       </c>
-      <c r="AW33" s="24">
+      <c r="AW33" s="23">
         <f>AP33*0.85/280</f>
         <v>899820.09982142854</v>
       </c>
-      <c r="AX33" s="24">
+      <c r="AX33" s="23">
         <f>AQ33*0.85/265</f>
         <v>950753.31301886786</v>
       </c>
@@ -8395,22 +8370,22 @@
       <c r="K34">
         <v>9835514922.9662399</v>
       </c>
-      <c r="L34" s="85">
+      <c r="L34" s="76">
         <f>J34</f>
         <v>1912433600</v>
       </c>
-      <c r="M34" s="85">
+      <c r="M34" s="76">
         <f>J34</f>
         <v>1912433600</v>
       </c>
       <c r="N34">
         <v>13397913513.7817</v>
       </c>
-      <c r="O34" s="23" t="s">
+      <c r="O34" t="s">
         <v>58</v>
       </c>
-      <c r="P34" s="23" t="s">
-        <v>414</v>
+      <c r="P34" t="s">
+        <v>413</v>
       </c>
       <c r="Q34">
         <v>12075000</v>
@@ -8658,10 +8633,10 @@
       <c r="N36">
         <v>141752000000</v>
       </c>
-      <c r="O36" s="23" t="s">
+      <c r="O36" t="s">
         <v>137</v>
       </c>
-      <c r="P36" s="23" t="s">
+      <c r="P36" t="s">
         <v>59</v>
       </c>
       <c r="R36">
@@ -8751,13 +8726,13 @@
     </row>
     <row r="37" spans="1:50">
       <c r="A37" t="s">
+        <v>383</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" t="s">
         <v>385</v>
-      </c>
-      <c r="C37" t="s">
-        <v>386</v>
       </c>
       <c r="D37" t="s">
         <v>54</v>
@@ -8791,10 +8766,10 @@
       <c r="N37" s="22">
         <v>85373000000</v>
       </c>
-      <c r="O37" s="23" t="s">
+      <c r="O37" t="s">
         <v>64</v>
       </c>
-      <c r="P37" s="23" t="s">
+      <c r="P37" t="s">
         <v>177</v>
       </c>
       <c r="R37">
@@ -8851,10 +8826,10 @@
         <v>39.9</v>
       </c>
       <c r="AK37" s="19"/>
-      <c r="AM37" s="85">
+      <c r="AM37" s="76">
         <v>425</v>
       </c>
-      <c r="AN37" s="85">
+      <c r="AN37" s="76">
         <v>425</v>
       </c>
       <c r="AO37">
@@ -9041,11 +9016,11 @@
       <c r="K39">
         <v>19393506493.5065</v>
       </c>
-      <c r="L39" s="85">
+      <c r="L39" s="76">
         <f>J39</f>
         <v>40783780623.597</v>
       </c>
-      <c r="M39" s="85">
+      <c r="M39" s="76">
         <f>J39</f>
         <v>40783780623.597</v>
       </c>
@@ -9272,7 +9247,7 @@
       <c r="D41" t="s">
         <v>193</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="28" t="s">
         <v>194</v>
       </c>
       <c r="F41" t="s">
@@ -9311,7 +9286,7 @@
         <v>58</v>
       </c>
       <c r="P41" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q41">
         <v>80501000</v>
@@ -9684,11 +9659,11 @@
       <c r="N44">
         <v>18344666000</v>
       </c>
-      <c r="O44" s="23" t="s">
+      <c r="O44" t="s">
         <v>58</v>
       </c>
-      <c r="P44" s="23" t="s">
-        <v>414</v>
+      <c r="P44" t="s">
+        <v>413</v>
       </c>
       <c r="Q44">
         <v>4800000</v>
@@ -9813,21 +9788,21 @@
       <c r="K45">
         <v>2231600000</v>
       </c>
-      <c r="L45" s="85">
+      <c r="L45" s="76">
         <f>J45</f>
         <v>6077156282</v>
       </c>
-      <c r="M45" s="85">
+      <c r="M45" s="76">
         <f>J45</f>
         <v>6077156282</v>
       </c>
       <c r="N45">
         <v>11024300000</v>
       </c>
-      <c r="O45" s="23" t="s">
+      <c r="O45" t="s">
         <v>58</v>
       </c>
-      <c r="P45" s="23" t="s">
+      <c r="P45" t="s">
         <v>80</v>
       </c>
       <c r="Q45" s="20">
@@ -9888,36 +9863,36 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AS45" s="31">
+      <c r="AS45" s="29">
         <f>27386150+337284+9430179+1135+58481+1356185+7487+317670+11610944</f>
         <v>50505515</v>
       </c>
-      <c r="AT45" s="31">
+      <c r="AT45" s="29">
         <f>31026112+283323+8304127+777+39306+1494512+5994+322935+11280342</f>
         <v>52757428</v>
       </c>
-      <c r="AU45" s="31">
+      <c r="AU45" s="29">
         <f>30506684+465026+10655278+4344+34495+1129399+5996+277653+11385085</f>
         <v>54463960</v>
       </c>
-      <c r="AV45" s="31">
+      <c r="AV45" s="29">
         <f>25067412+190452+9189864+4488+52483+1978567+7145+276564+11751484</f>
         <v>48518459</v>
       </c>
-      <c r="AW45" s="31">
+      <c r="AW45" s="29">
         <f>26746679+224926+7717598+760+62669+1795659+9332+269579+11586013</f>
         <v>48413215</v>
       </c>
     </row>
     <row r="46" spans="1:50">
       <c r="A46" t="s">
+        <v>387</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" t="s">
         <v>389</v>
-      </c>
-      <c r="C46" t="s">
-        <v>390</v>
       </c>
       <c r="D46" t="s">
         <v>169</v>
@@ -9951,10 +9926,10 @@
       <c r="N46" s="22">
         <v>174000000000</v>
       </c>
-      <c r="O46" s="23" t="s">
+      <c r="O46" t="s">
         <v>64</v>
       </c>
-      <c r="P46" s="23" t="s">
+      <c r="P46" t="s">
         <v>177</v>
       </c>
       <c r="Q46">
@@ -10039,19 +10014,19 @@
       <c r="AQ46">
         <v>420.4</v>
       </c>
-      <c r="AS46" s="97">
+      <c r="AS46" s="86">
         <v>996.6600000000002</v>
       </c>
-      <c r="AT46" s="97">
+      <c r="AT46" s="86">
         <v>996.6600000000002</v>
       </c>
-      <c r="AU46" s="97">
+      <c r="AU46" s="86">
         <v>996.6600000000002</v>
       </c>
-      <c r="AV46" s="31">
+      <c r="AV46" s="29">
         <v>996.6600000000002</v>
       </c>
-      <c r="AW46" s="31">
+      <c r="AW46" s="29">
         <v>1021.05</v>
       </c>
       <c r="AX46">
@@ -10060,16 +10035,16 @@
     </row>
     <row r="47" spans="1:50">
       <c r="A47" t="s">
+        <v>390</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" t="s">
+        <v>393</v>
+      </c>
+      <c r="D47" t="s">
         <v>392</v>
-      </c>
-      <c r="C47" t="s">
-        <v>394</v>
-      </c>
-      <c r="D47" t="s">
-        <v>393</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" t="s">
@@ -10101,11 +10076,11 @@
         <f>635000000000*0.2394</f>
         <v>152019000000</v>
       </c>
-      <c r="O47" s="23" t="s">
+      <c r="O47" t="s">
         <v>64</v>
       </c>
-      <c r="P47" s="23" t="s">
-        <v>395</v>
+      <c r="P47" t="s">
+        <v>394</v>
       </c>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
@@ -10130,24 +10105,24 @@
         <v>45.2</v>
       </c>
       <c r="AK47" s="19"/>
-      <c r="AS47" s="99"/>
-      <c r="AT47" s="99">
+      <c r="AS47" s="29"/>
+      <c r="AT47" s="29">
         <f>1000000*AF47/88.7</f>
         <v>636978.57948139799</v>
       </c>
-      <c r="AU47" s="99">
+      <c r="AU47" s="29">
         <f>1000000*AG47/74.2</f>
         <v>675202.15633423172</v>
       </c>
-      <c r="AV47" s="99">
+      <c r="AV47" s="29">
         <f>1000000*AH47/64.6</f>
         <v>832817.33746130043</v>
       </c>
-      <c r="AW47" s="99">
+      <c r="AW47" s="29">
         <f>1000000*AI47/65.9</f>
         <v>732928.67981790588</v>
       </c>
-      <c r="AX47" s="99">
+      <c r="AX47" s="29">
         <f>1000000*AJ47/47.9</f>
         <v>943632.56784968683</v>
       </c>
@@ -10436,22 +10411,22 @@
       <c r="K50">
         <v>55955872344.100899</v>
       </c>
-      <c r="L50" s="85">
+      <c r="L50" s="76">
         <f>J50</f>
         <v>20260000000</v>
       </c>
-      <c r="M50" s="85">
+      <c r="M50" s="76">
         <f>J50</f>
         <v>20260000000</v>
       </c>
       <c r="N50">
         <v>68553124892.036598</v>
       </c>
-      <c r="O50" s="23" t="s">
+      <c r="O50" t="s">
         <v>58</v>
       </c>
-      <c r="P50" s="23" t="s">
-        <v>414</v>
+      <c r="P50" t="s">
+        <v>413</v>
       </c>
       <c r="Q50">
         <v>81309800</v>
@@ -11079,7 +11054,7 @@
       <c r="P55" t="s">
         <v>177</v>
       </c>
-      <c r="S55" s="85">
+      <c r="S55" s="76">
         <f>46.6*(52/44.7)</f>
         <v>54.210290827740494</v>
       </c>
@@ -11093,7 +11068,7 @@
         <v>52.3</v>
       </c>
       <c r="W55"/>
-      <c r="Z55" s="85">
+      <c r="Z55" s="76">
         <f>14.7*(19/14.7)</f>
         <v>19</v>
       </c>
@@ -11135,19 +11110,19 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AN55" s="93">
+      <c r="AN55" s="83">
         <f>AU55*0.43</f>
         <v>2134.52</v>
       </c>
-      <c r="AO55" s="93">
+      <c r="AO55" s="83">
         <f t="shared" ref="AO55:AQ55" si="34">AV55*0.43</f>
         <v>2071.7399999999998</v>
       </c>
-      <c r="AP55" s="93">
+      <c r="AP55" s="83">
         <f t="shared" si="34"/>
         <v>1946.18</v>
       </c>
-      <c r="AQ55" s="93">
+      <c r="AQ55" s="83">
         <f t="shared" si="34"/>
         <v>1930.4849999999999</v>
       </c>
@@ -11403,7 +11378,7 @@
         <v>68</v>
       </c>
       <c r="AK57" s="19"/>
-      <c r="AL57" s="85">
+      <c r="AL57" s="76">
         <f>186+87+1318+582+736</f>
         <v>2909</v>
       </c>
@@ -11427,7 +11402,7 @@
         <f>147+136+6+1010+380+630</f>
         <v>2309</v>
       </c>
-      <c r="AS57" s="85">
+      <c r="AS57" s="76">
         <v>21.44</v>
       </c>
       <c r="AT57">
@@ -11448,16 +11423,16 @@
     </row>
     <row r="58" spans="1:50">
       <c r="A58" t="s">
+        <v>395</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" t="s">
         <v>397</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>398</v>
-      </c>
-      <c r="D58" t="s">
-        <v>399</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" t="s">
@@ -11563,13 +11538,13 @@
     </row>
     <row r="59" spans="1:50">
       <c r="A59" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C59" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D59" t="s">
         <v>213</v>
@@ -11609,7 +11584,7 @@
         <v>58</v>
       </c>
       <c r="P59" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R59">
         <f>10515907</f>
@@ -11627,7 +11602,7 @@
         <f>9703851</f>
         <v>9703851</v>
       </c>
-      <c r="V59" s="98">
+      <c r="V59" s="87">
         <f>AJ59-AC59</f>
         <v>8521728.0528707132</v>
       </c>
@@ -11648,7 +11623,7 @@
         <f>2389387</f>
         <v>2389387</v>
       </c>
-      <c r="AC59" s="85">
+      <c r="AC59" s="76">
         <f>AB59/AA59*AB59</f>
         <v>2378271.9471292878</v>
       </c>
@@ -11676,11 +11651,11 @@
       <c r="AJ59" s="22">
         <v>10900000</v>
       </c>
-      <c r="AM59" s="85">
+      <c r="AM59" s="76">
         <f>151800000</f>
         <v>151800000</v>
       </c>
-      <c r="AN59" s="85">
+      <c r="AN59" s="76">
         <f>151800000</f>
         <v>151800000</v>
       </c>
@@ -11696,23 +11671,23 @@
         <f>118350000</f>
         <v>118350000</v>
       </c>
-      <c r="AT59" s="85">
+      <c r="AT59" s="76">
         <f>AM59/0.43</f>
         <v>353023255.81395352</v>
       </c>
-      <c r="AU59" s="85">
+      <c r="AU59" s="76">
         <f>AN59/0.43</f>
         <v>353023255.81395352</v>
       </c>
-      <c r="AV59" s="85">
+      <c r="AV59" s="76">
         <f>AO59/0.43</f>
         <v>353023255.81395352</v>
       </c>
-      <c r="AW59" s="85">
+      <c r="AW59" s="76">
         <f>AP59/0.43</f>
         <v>305744186.04651165</v>
       </c>
-      <c r="AX59" s="85">
+      <c r="AX59" s="76">
         <f>SUM(AV59:AW59)/2</f>
         <v>329383720.93023258</v>
       </c>
@@ -11885,11 +11860,11 @@
       <c r="N61">
         <v>8275765000</v>
       </c>
-      <c r="O61" s="23" t="s">
+      <c r="O61" t="s">
         <v>58</v>
       </c>
-      <c r="P61" s="23" t="s">
-        <v>414</v>
+      <c r="P61" t="s">
+        <v>413</v>
       </c>
       <c r="Q61">
         <v>3215942</v>
@@ -11982,17 +11957,17 @@
       <c r="I62">
         <v>2019</v>
       </c>
-      <c r="J62" s="32">
+      <c r="J62" s="30">
         <v>50030000000</v>
       </c>
       <c r="K62">
         <v>10175225448.559799</v>
       </c>
-      <c r="L62" s="85">
+      <c r="L62" s="76">
         <f t="shared" ref="L62:L63" si="47">J62</f>
         <v>50030000000</v>
       </c>
-      <c r="M62" s="85">
+      <c r="M62" s="76">
         <f t="shared" ref="M62:M63" si="48">J62</f>
         <v>50030000000</v>
       </c>
@@ -12109,28 +12084,28 @@
       <c r="I63">
         <v>2019</v>
       </c>
-      <c r="J63" s="33">
+      <c r="J63" s="31">
         <v>590000000</v>
       </c>
       <c r="K63">
         <v>7294055000</v>
       </c>
-      <c r="L63" s="85">
+      <c r="L63" s="76">
         <f t="shared" si="47"/>
         <v>590000000</v>
       </c>
-      <c r="M63" s="85">
+      <c r="M63" s="76">
         <f t="shared" si="48"/>
         <v>590000000</v>
       </c>
       <c r="N63">
         <v>14842991000</v>
       </c>
-      <c r="O63" s="23" t="s">
+      <c r="O63" t="s">
         <v>58</v>
       </c>
-      <c r="P63" s="23" t="s">
-        <v>414</v>
+      <c r="P63" t="s">
+        <v>413</v>
       </c>
       <c r="Q63">
         <v>2000000</v>
@@ -12212,13 +12187,13 @@
     </row>
     <row r="64" spans="1:50">
       <c r="A64" t="s">
+        <v>404</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" t="s">
         <v>406</v>
-      </c>
-      <c r="C64" t="s">
-        <v>407</v>
       </c>
       <c r="D64" t="s">
         <v>193</v>
@@ -12236,7 +12211,7 @@
       <c r="I64" s="3">
         <v>44561</v>
       </c>
-      <c r="J64" s="106">
+      <c r="J64" s="89">
         <v>4140000000</v>
       </c>
       <c r="K64">
@@ -12255,10 +12230,10 @@
         <f>12850000000000/115.1038</f>
         <v>111638364676.0576</v>
       </c>
-      <c r="O64" s="23" t="s">
+      <c r="O64" t="s">
         <v>137</v>
       </c>
-      <c r="P64" s="23" t="s">
+      <c r="P64" t="s">
         <v>59</v>
       </c>
       <c r="S64">
@@ -12368,28 +12343,28 @@
       <c r="I65">
         <v>2019</v>
       </c>
-      <c r="J65" s="33">
+      <c r="J65" s="31">
         <v>352130000</v>
       </c>
       <c r="K65">
         <v>10192818000</v>
       </c>
-      <c r="L65" s="85">
+      <c r="L65" s="76">
         <f>J65</f>
         <v>352130000</v>
       </c>
-      <c r="M65" s="85">
+      <c r="M65" s="76">
         <f>J65</f>
         <v>352130000</v>
       </c>
       <c r="N65">
         <v>12935533000</v>
       </c>
-      <c r="O65" s="23" t="s">
+      <c r="O65" t="s">
         <v>58</v>
       </c>
-      <c r="P65" s="23" t="s">
-        <v>414</v>
+      <c r="P65" t="s">
+        <v>413</v>
       </c>
       <c r="Q65">
         <v>17744560</v>
@@ -12497,7 +12472,7 @@
       <c r="I66" s="3">
         <v>44561</v>
       </c>
-      <c r="J66" s="34">
+      <c r="J66" s="22">
         <v>1061000000000</v>
       </c>
       <c r="K66" s="22">
@@ -12513,10 +12488,10 @@
       <c r="N66" s="22">
         <v>62131000000</v>
       </c>
-      <c r="O66" s="23" t="s">
+      <c r="O66" t="s">
         <v>137</v>
       </c>
-      <c r="P66" s="23" t="s">
+      <c r="P66" t="s">
         <v>86</v>
       </c>
       <c r="R66">
@@ -12673,11 +12648,11 @@
       <c r="N67">
         <v>1085200000</v>
       </c>
-      <c r="O67" s="23" t="s">
+      <c r="O67" t="s">
         <v>58</v>
       </c>
-      <c r="P67" s="23" t="s">
-        <v>414</v>
+      <c r="P67" t="s">
+        <v>413</v>
       </c>
       <c r="Q67">
         <v>99660</v>
@@ -12799,11 +12774,11 @@
       <c r="N68" s="22">
         <v>484660000000</v>
       </c>
-      <c r="O68" s="23" t="s">
+      <c r="O68" t="s">
         <v>64</v>
       </c>
-      <c r="P68" s="23" t="s">
-        <v>417</v>
+      <c r="P68" t="s">
+        <v>416</v>
       </c>
       <c r="S68">
         <v>1.92</v>
@@ -12868,24 +12843,24 @@
       <c r="AP68">
         <v>341.35</v>
       </c>
-      <c r="AQ68" s="85">
+      <c r="AQ68" s="76">
         <f>AP68/AO68*AP68</f>
         <v>292.80751495200286</v>
       </c>
-      <c r="AT68" s="24"/>
-      <c r="AU68" s="24">
+      <c r="AT68" s="23"/>
+      <c r="AU68" s="23">
         <f>AN68*0.8/150</f>
         <v>2.2128533333333338</v>
       </c>
-      <c r="AV68" s="24">
+      <c r="AV68" s="23">
         <f>AO68*0.8/140</f>
         <v>2.2739428571428575</v>
       </c>
-      <c r="AW68" s="24">
+      <c r="AW68" s="23">
         <f>AP68*0.8/130</f>
         <v>2.1006153846153848</v>
       </c>
-      <c r="AX68" s="24">
+      <c r="AX68" s="23">
         <f>AQ68*0.8/120</f>
         <v>1.9520500996800192</v>
       </c>
@@ -12933,11 +12908,11 @@
       <c r="N69">
         <v>11608000000</v>
       </c>
-      <c r="O69" s="23" t="s">
+      <c r="O69" t="s">
         <v>58</v>
       </c>
-      <c r="P69" s="23" t="s">
-        <v>414</v>
+      <c r="P69" t="s">
+        <v>413</v>
       </c>
       <c r="Q69">
         <v>29000000</v>
@@ -13047,10 +13022,10 @@
       <c r="N70">
         <v>17111600000</v>
       </c>
-      <c r="O70" s="23" t="s">
+      <c r="O70" t="s">
         <v>137</v>
       </c>
-      <c r="P70" s="23" t="s">
+      <c r="P70" t="s">
         <v>59</v>
       </c>
       <c r="T70">
@@ -13148,18 +13123,18 @@
       <c r="I71">
         <v>2019</v>
       </c>
-      <c r="J71" s="85">
+      <c r="J71" s="76">
         <f>J70</f>
         <v>34359400000</v>
       </c>
       <c r="K71">
         <v>4691120536.8652601</v>
       </c>
-      <c r="L71" s="85">
+      <c r="L71" s="76">
         <f>L70</f>
         <v>37551600000</v>
       </c>
-      <c r="M71" s="85">
+      <c r="M71" s="76">
         <f>M70</f>
         <v>37870200000</v>
       </c>
@@ -13544,7 +13519,7 @@
         <v>58</v>
       </c>
       <c r="P74" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q74">
         <v>126399</v>
@@ -13736,20 +13711,20 @@
     </row>
     <row r="76" spans="1:50">
       <c r="A76" t="s">
+        <v>418</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" t="s">
         <v>420</v>
-      </c>
-      <c r="C76" t="s">
-        <v>421</v>
       </c>
       <c r="D76" t="s">
         <v>90</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>56</v>
@@ -13813,27 +13788,27 @@
         <v>41779</v>
       </c>
       <c r="AE76" s="19" t="str">
-        <f>IF(ISBLANK(Q76),IF(ISBLANK(X76),"",X76),Q76+X76)</f>
+        <f t="shared" ref="AE76:AJ77" si="61">IF(ISBLANK(Q76),IF(ISBLANK(X76),"",X76),Q76+X76)</f>
         <v/>
       </c>
       <c r="AF76" s="19">
-        <f>IF(ISBLANK(R76),IF(ISBLANK(Y76),"",Y76),R76+Y76)</f>
+        <f t="shared" si="61"/>
         <v>242107</v>
       </c>
       <c r="AG76" s="19">
-        <f>IF(ISBLANK(S76),IF(ISBLANK(Z76),"",Z76),S76+Z76)</f>
+        <f t="shared" si="61"/>
         <v>224430</v>
       </c>
       <c r="AH76" s="19">
-        <f>IF(ISBLANK(T76),IF(ISBLANK(AA76),"",AA76),T76+AA76)</f>
+        <f t="shared" si="61"/>
         <v>210632</v>
       </c>
       <c r="AI76" s="19">
-        <f>IF(ISBLANK(U76),IF(ISBLANK(AB76),"",AB76),U76+AB76)</f>
+        <f t="shared" si="61"/>
         <v>205517</v>
       </c>
       <c r="AJ76" s="19">
-        <f>IF(ISBLANK(V76),IF(ISBLANK(AC76),"",AC76),V76+AC76)</f>
+        <f t="shared" si="61"/>
         <v>240781</v>
       </c>
       <c r="AK76" s="19" t="str">
@@ -13858,20 +13833,20 @@
     </row>
     <row r="77" spans="1:50">
       <c r="A77" t="s">
+        <v>422</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" t="s">
         <v>424</v>
-      </c>
-      <c r="C77" t="s">
-        <v>425</v>
       </c>
       <c r="D77" t="s">
         <v>54</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>56</v>
@@ -13902,7 +13877,7 @@
         <v>58</v>
       </c>
       <c r="P77" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q77">
         <v>63414</v>
@@ -13941,27 +13916,27 @@
         <v>19847</v>
       </c>
       <c r="AE77" s="19">
-        <f>IF(ISBLANK(Q77),IF(ISBLANK(X77),"",X77),Q77+X77)</f>
+        <f t="shared" si="61"/>
         <v>93092</v>
       </c>
       <c r="AF77" s="19">
-        <f>IF(ISBLANK(R77),IF(ISBLANK(Y77),"",Y77),R77+Y77)</f>
+        <f t="shared" si="61"/>
         <v>71067</v>
       </c>
       <c r="AG77" s="19">
-        <f>IF(ISBLANK(S77),IF(ISBLANK(Z77),"",Z77),S77+Z77)</f>
+        <f t="shared" si="61"/>
         <v>70508</v>
       </c>
       <c r="AH77" s="19">
-        <f>IF(ISBLANK(T77),IF(ISBLANK(AA77),"",AA77),T77+AA77)</f>
+        <f t="shared" si="61"/>
         <v>86790</v>
       </c>
       <c r="AI77" s="19">
-        <f>IF(ISBLANK(U77),IF(ISBLANK(AB77),"",AB77),U77+AB77)</f>
+        <f t="shared" si="61"/>
         <v>83023</v>
       </c>
       <c r="AJ77" s="19">
-        <f>IF(ISBLANK(V77),IF(ISBLANK(AC77),"",AC77),V77+AC77)</f>
+        <f t="shared" si="61"/>
         <v>66098</v>
       </c>
       <c r="AK77" s="19" t="str">
@@ -14007,26 +13982,18 @@
     </row>
     <row r="78" spans="1:50">
       <c r="E78"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="23"/>
     </row>
     <row r="79" spans="1:50">
       <c r="E79"/>
-      <c r="O79" s="23"/>
-      <c r="P79" s="23"/>
     </row>
     <row r="80" spans="1:50">
       <c r="E80"/>
-      <c r="O80" s="23"/>
-      <c r="P80" s="23"/>
-    </row>
-    <row r="81" spans="5:16">
+    </row>
+    <row r="81" spans="5:5">
       <c r="E81"/>
     </row>
-    <row r="82" spans="5:16">
+    <row r="82" spans="5:5">
       <c r="E82"/>
-      <c r="O82" s="23"/>
-      <c r="P82" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.511811023622047"/>
@@ -14054,10 +14021,10 @@
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="30" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="28" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="28" customWidth="1"/>
     <col min="7" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="31" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" customWidth="1"/>
@@ -14077,31 +14044,31 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="35" t="s">
         <v>292</v>
       </c>
     </row>
@@ -14109,40 +14076,40 @@
       <c r="A2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="37" t="s">
         <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="37">
         <v>2050</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="37">
         <v>2019</v>
       </c>
       <c r="I2">
         <v>2016</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="38">
         <v>0.67400000000000004</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="37">
         <v>2040</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="39">
         <v>1</v>
       </c>
     </row>
@@ -14159,7 +14126,7 @@
       <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="37">
         <v>2050</v>
       </c>
       <c r="F3" t="s">
@@ -14168,7 +14135,7 @@
       <c r="G3" t="s">
         <v>297</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="37">
         <v>2019</v>
       </c>
       <c r="I3">
@@ -14183,7 +14150,7 @@
       <c r="L3">
         <v>2050</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="40">
         <v>1</v>
       </c>
     </row>
@@ -14200,16 +14167,16 @@
       <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="37">
         <v>2050</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="41" t="s">
         <v>293</v>
       </c>
       <c r="G4" t="s">
         <v>294</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="37">
         <v>2019</v>
       </c>
       <c r="I4">
@@ -14224,7 +14191,7 @@
       <c r="L4">
         <v>2030</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -14244,26 +14211,26 @@
       <c r="E5" s="18">
         <v>2050</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="37" t="s">
         <v>294</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18">
         <v>2005</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="38">
         <v>10178945</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L5" s="18">
         <v>2050</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="42">
         <v>1</v>
       </c>
     </row>
@@ -14280,16 +14247,16 @@
       <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="28">
         <v>2050</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="37" t="s">
         <v>293</v>
       </c>
       <c r="G6" t="s">
         <v>294</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="31">
         <v>2005</v>
       </c>
       <c r="J6">
@@ -14302,7 +14269,7 @@
       <c r="L6">
         <v>2030</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -14319,28 +14286,28 @@
       <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="28">
         <v>2050</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="37" t="s">
         <v>296</v>
       </c>
       <c r="G7" t="s">
         <v>294</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="31">
         <v>2005</v>
       </c>
       <c r="J7" s="20">
         <v>38113792</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L7">
         <v>2030</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -14357,28 +14324,28 @@
       <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="28">
         <v>2050</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>296</v>
       </c>
       <c r="G8" t="s">
         <v>294</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="31">
         <v>2005</v>
       </c>
       <c r="J8" s="20">
         <v>38113792</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L8">
         <v>2040</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="40">
         <v>0.85</v>
       </c>
     </row>
@@ -14395,104 +14362,104 @@
       <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="28">
         <v>2050</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G9" t="s">
         <v>299</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <v>2000</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="28">
         <v>167000000</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L9">
         <v>2030</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="40">
         <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="28">
         <v>2035</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G10" t="s">
         <v>299</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <v>2015</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="38">
         <v>1</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L10">
         <v>2025</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="40">
         <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="28">
         <v>2035</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G11" t="s">
         <v>299</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="31">
         <v>2015</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="38">
         <v>1</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L11">
         <v>2025</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="40">
         <v>0.35</v>
       </c>
     </row>
@@ -14509,25 +14476,25 @@
       <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G12" t="s">
         <v>299</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="31">
         <v>2005</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="37" t="s">
         <v>295</v>
       </c>
       <c r="L12">
         <v>2030</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="40">
         <v>0.4</v>
       </c>
     </row>
@@ -14544,25 +14511,25 @@
       <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G13" t="s">
         <v>299</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="31">
         <v>2005</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" s="40" t="s">
+      <c r="K13" s="37" t="s">
         <v>295</v>
       </c>
       <c r="L13">
         <v>2040</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -14579,10 +14546,10 @@
       <c r="D14" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="28">
         <v>2050</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G14" t="s">
@@ -14591,7 +14558,7 @@
       <c r="H14">
         <v>2021</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="31">
         <v>2019</v>
       </c>
       <c r="J14">
@@ -14603,7 +14570,7 @@
       <c r="L14">
         <v>2030</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -14620,10 +14587,10 @@
       <c r="D15" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="28">
         <v>2050</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G15" t="s">
@@ -14632,19 +14599,19 @@
       <c r="H15">
         <v>2021</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="31">
         <v>2019</v>
       </c>
       <c r="J15">
         <v>834562</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L15">
         <v>2030</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -14661,10 +14628,10 @@
       <c r="D16" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="28">
         <v>2050</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G16" t="s">
@@ -14673,20 +14640,20 @@
       <c r="H16">
         <v>2021</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="31">
         <v>2019</v>
       </c>
       <c r="J16">
         <f>'ITR input data'!AH111+'ITR input data'!AO11</f>
         <v>946.27100840336141</v>
       </c>
-      <c r="K16" s="40" t="s">
+      <c r="K16" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L16">
         <v>2030</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -14703,26 +14670,26 @@
       <c r="D17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G17" t="s">
         <v>294</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="31">
         <v>2020</v>
       </c>
       <c r="J17">
         <f>0.292832151/0.141</f>
         <v>2.0768237659574469</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="K17" s="37" t="s">
         <v>302</v>
       </c>
       <c r="L17">
         <v>2050</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="40">
         <v>0.1</v>
       </c>
     </row>
@@ -14739,7 +14706,7 @@
       <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G18" t="s">
@@ -14748,19 +14715,19 @@
       <c r="H18">
         <v>2021</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="31">
         <v>2017</v>
       </c>
       <c r="J18">
         <v>73.8</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="37" t="s">
         <v>303</v>
       </c>
       <c r="L18">
         <v>2028</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="40">
         <f>73.8/71-1</f>
         <v>3.9436619718309807E-2</v>
       </c>
@@ -14778,7 +14745,7 @@
       <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G19" t="s">
@@ -14787,20 +14754,20 @@
       <c r="H19">
         <v>2021</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="31">
         <v>2017</v>
       </c>
       <c r="J19">
         <f>36830868.09/90796200</f>
         <v>0.40564327681114409</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="37" t="s">
         <v>302</v>
       </c>
       <c r="L19">
         <v>2030</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="40">
         <v>0.25</v>
       </c>
     </row>
@@ -14826,7 +14793,7 @@
       <c r="H20">
         <v>2020</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="31">
         <v>2005</v>
       </c>
       <c r="J20">
@@ -14838,7 +14805,7 @@
       <c r="L20">
         <v>2040</v>
       </c>
-      <c r="M20" s="43">
+      <c r="M20" s="40">
         <v>1</v>
       </c>
     </row>
@@ -14855,7 +14822,7 @@
       <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G21" t="s">
@@ -14864,19 +14831,19 @@
       <c r="H21">
         <v>2021</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="31">
         <v>2019</v>
       </c>
       <c r="J21">
         <v>0.48099999999999998</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="37" t="s">
         <v>302</v>
       </c>
       <c r="L21">
         <v>2030</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -14893,28 +14860,28 @@
       <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="28">
         <v>2050</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G22" t="s">
         <v>294</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="31">
         <v>2011</v>
       </c>
       <c r="J22">
         <v>24000000</v>
       </c>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L22">
         <v>2030</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M22" s="40">
         <v>0.6</v>
       </c>
     </row>
@@ -14931,10 +14898,10 @@
       <c r="D23" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="28">
         <v>2040</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G23" t="s">
@@ -14943,7 +14910,7 @@
       <c r="H23">
         <v>2021</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="31">
         <v>2020</v>
       </c>
       <c r="J23">
@@ -14955,7 +14922,7 @@
       <c r="L23">
         <v>2040</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="40">
         <v>1</v>
       </c>
     </row>
@@ -14972,10 +14939,10 @@
       <c r="D24" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="28">
         <v>2050</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G24" t="s">
@@ -14984,19 +14951,19 @@
       <c r="H24">
         <v>2017</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="31">
         <v>2005</v>
       </c>
       <c r="J24">
         <v>37700000</v>
       </c>
-      <c r="K24" s="40" t="s">
+      <c r="K24" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L24">
         <v>2030</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15013,10 +14980,10 @@
       <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="28">
         <v>2050</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G25" t="s">
@@ -15025,19 +14992,19 @@
       <c r="H25">
         <v>2017</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="31">
         <v>2005</v>
       </c>
       <c r="J25">
         <v>37700000</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L25">
         <v>2040</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -15054,28 +15021,28 @@
       <c r="D26" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="28">
         <v>2050</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G26" t="s">
         <v>299</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="31">
         <v>2005</v>
       </c>
       <c r="J26">
         <v>59.347999999999999</v>
       </c>
-      <c r="K26" s="40" t="s">
+      <c r="K26" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L26">
         <v>2030</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="40">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -15092,28 +15059,28 @@
       <c r="D27" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="28">
         <v>2050</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G27" t="s">
         <v>299</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="31">
         <v>2005</v>
       </c>
       <c r="J27">
         <v>153000000</v>
       </c>
-      <c r="K27" s="40" t="s">
+      <c r="K27" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L27">
         <v>2030</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15130,10 +15097,10 @@
       <c r="D28" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="28">
         <v>2050</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G28" t="s">
@@ -15142,19 +15109,19 @@
       <c r="H28">
         <v>2020</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="31">
         <v>2017</v>
       </c>
       <c r="J28">
         <v>51</v>
       </c>
-      <c r="K28" s="40" t="s">
+      <c r="K28" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L28">
         <v>2023</v>
       </c>
-      <c r="M28" s="43">
+      <c r="M28" s="40">
         <v>0.4</v>
       </c>
     </row>
@@ -15171,10 +15138,10 @@
       <c r="D29" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="28">
         <v>2050</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G29" t="s">
@@ -15183,19 +15150,19 @@
       <c r="H29">
         <v>2020</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="31">
         <v>2019</v>
       </c>
       <c r="J29">
         <v>119</v>
       </c>
-      <c r="K29" s="40" t="s">
+      <c r="K29" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L29">
         <v>2023</v>
       </c>
-      <c r="M29" s="43">
+      <c r="M29" s="40">
         <v>0.08</v>
       </c>
     </row>
@@ -15212,10 +15179,10 @@
       <c r="D30" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="28">
         <v>2050</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G30" t="s">
@@ -15224,19 +15191,19 @@
       <c r="H30">
         <v>2020</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="31">
         <v>2017</v>
       </c>
       <c r="J30">
         <v>51</v>
       </c>
-      <c r="K30" s="40" t="s">
+      <c r="K30" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L30">
         <v>2030</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15253,10 +15220,10 @@
       <c r="D31" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="28">
         <v>2050</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G31" t="s">
@@ -15265,19 +15232,19 @@
       <c r="H31">
         <v>2020</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="31">
         <v>2019</v>
       </c>
       <c r="J31">
         <v>119</v>
       </c>
-      <c r="K31" s="40" t="s">
+      <c r="K31" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L31">
         <v>2030</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="40">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -15294,10 +15261,10 @@
       <c r="D32" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="28">
         <v>2045</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G32" t="s">
@@ -15306,10 +15273,10 @@
       <c r="H32">
         <v>2021</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="31">
         <v>2018</v>
       </c>
-      <c r="J32" s="92">
+      <c r="J32">
         <v>0.23</v>
       </c>
       <c r="K32" t="s">
@@ -15318,7 +15285,7 @@
       <c r="L32">
         <v>2030</v>
       </c>
-      <c r="M32" s="43">
+      <c r="M32" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15335,10 +15302,10 @@
       <c r="D33" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="28">
         <v>2030</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G33" t="s">
@@ -15347,19 +15314,19 @@
       <c r="H33">
         <v>2020</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="31">
         <v>2017</v>
       </c>
       <c r="J33">
         <v>125</v>
       </c>
-      <c r="K33" s="40" t="s">
+      <c r="K33" s="37" t="s">
         <v>304</v>
       </c>
       <c r="L33">
         <v>2030</v>
       </c>
-      <c r="M33" s="43">
+      <c r="M33" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -15376,10 +15343,10 @@
       <c r="D34" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="28">
         <v>2050</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G34" t="s">
@@ -15388,19 +15355,19 @@
       <c r="H34">
         <v>2020</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="31">
         <v>2000</v>
       </c>
       <c r="J34">
         <v>49960899</v>
       </c>
-      <c r="K34" s="40" t="s">
+      <c r="K34" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L34">
         <v>2050</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="40">
         <v>1</v>
       </c>
     </row>
@@ -15417,10 +15384,10 @@
       <c r="D35" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="28">
         <v>2050</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G35" t="s">
@@ -15429,19 +15396,19 @@
       <c r="H35">
         <v>2030</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="31">
         <v>2000</v>
       </c>
       <c r="J35">
         <v>0.4826223</v>
       </c>
-      <c r="K35" s="40" t="s">
+      <c r="K35" s="37" t="s">
         <v>295</v>
       </c>
       <c r="L35">
         <v>2030</v>
       </c>
-      <c r="M35" s="43">
+      <c r="M35" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15458,28 +15425,28 @@
       <c r="D36" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="28">
         <v>2045</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G36" t="s">
         <v>299</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="31">
         <v>2005</v>
       </c>
       <c r="J36" s="20">
         <v>48455198</v>
       </c>
-      <c r="K36" s="40" t="s">
+      <c r="K36" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L36">
         <v>2030</v>
       </c>
-      <c r="M36" s="43">
+      <c r="M36" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -15496,10 +15463,10 @@
       <c r="D37" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="28">
         <v>2030</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G37" t="s">
@@ -15508,19 +15475,19 @@
       <c r="H37">
         <v>2019</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="31">
         <v>2018</v>
       </c>
       <c r="J37">
         <v>828107</v>
       </c>
-      <c r="K37" s="40" t="s">
+      <c r="K37" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L37">
         <v>2030</v>
       </c>
-      <c r="M37" s="43">
+      <c r="M37" s="40">
         <v>1</v>
       </c>
     </row>
@@ -15537,10 +15504,10 @@
       <c r="D38" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="28">
         <v>2050</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G38" t="s">
@@ -15549,19 +15516,19 @@
       <c r="H38">
         <v>2021</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="31">
         <v>2015</v>
       </c>
       <c r="J38">
         <v>1100</v>
       </c>
-      <c r="K38" s="40" t="s">
+      <c r="K38" s="37" t="s">
         <v>137</v>
       </c>
       <c r="L38">
         <v>2030</v>
       </c>
-      <c r="M38" s="43">
+      <c r="M38" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15578,10 +15545,10 @@
       <c r="D39" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="28">
         <v>2050</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G39" t="s">
@@ -15590,19 +15557,19 @@
       <c r="H39">
         <v>2021</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="31">
         <v>2016</v>
       </c>
       <c r="J39">
         <v>125</v>
       </c>
-      <c r="K39" s="40" t="s">
+      <c r="K39" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L39">
         <v>2025</v>
       </c>
-      <c r="M39" s="43">
+      <c r="M39" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -15619,7 +15586,7 @@
       <c r="D40" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G40" t="s">
@@ -15628,19 +15595,19 @@
       <c r="H40">
         <v>2015</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="31">
         <v>2005</v>
       </c>
       <c r="J40">
         <v>86403130</v>
       </c>
-      <c r="K40" s="40" t="s">
+      <c r="K40" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L40">
         <v>2045</v>
       </c>
-      <c r="M40" s="43">
+      <c r="M40" s="40">
         <v>0.62</v>
       </c>
     </row>
@@ -15657,7 +15624,7 @@
       <c r="D41" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G41" t="s">
@@ -15666,19 +15633,19 @@
       <c r="H41">
         <v>2021</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="31">
         <v>2019</v>
       </c>
       <c r="J41">
         <v>309</v>
       </c>
-      <c r="K41" s="40" t="s">
+      <c r="K41" s="37" t="s">
         <v>305</v>
       </c>
       <c r="L41">
         <v>2035</v>
       </c>
-      <c r="M41" s="43">
+      <c r="M41" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15695,7 +15662,7 @@
       <c r="D42" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G42" t="s">
@@ -15704,19 +15671,19 @@
       <c r="H42">
         <v>2021</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="31">
         <v>2019</v>
       </c>
       <c r="J42">
         <v>3480</v>
       </c>
-      <c r="K42" s="40" t="s">
+      <c r="K42" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L42">
         <v>2035</v>
       </c>
-      <c r="M42" s="43">
+      <c r="M42" s="40">
         <v>0.76</v>
       </c>
     </row>
@@ -15733,7 +15700,7 @@
       <c r="D43" t="s">
         <v>162</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G43" t="s">
@@ -15742,60 +15709,60 @@
       <c r="H43">
         <v>2020</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="31">
         <v>2019</v>
       </c>
       <c r="J43" s="20">
         <v>11925000</v>
       </c>
-      <c r="K43" s="40" t="s">
+      <c r="K43" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L43">
         <v>2035</v>
       </c>
-      <c r="M43" s="43">
+      <c r="M43" s="40">
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="92" customFormat="1">
-      <c r="A44" s="85" t="s">
+    <row r="44" spans="1:13">
+      <c r="A44" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="86" t="s">
+      <c r="B44" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="D44" s="85" t="s">
+      <c r="D44" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="87">
+      <c r="E44" s="78">
         <v>2040</v>
       </c>
-      <c r="F44" s="87" t="s">
+      <c r="F44" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="G44" s="85" t="s">
+      <c r="G44" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="H44" s="85">
+      <c r="H44" s="76">
         <v>2021</v>
       </c>
-      <c r="I44" s="88">
+      <c r="I44" s="79">
         <v>2020</v>
       </c>
-      <c r="J44" s="89">
+      <c r="J44" s="80">
         <v>309</v>
       </c>
-      <c r="K44" s="90" t="s">
+      <c r="K44" s="81" t="s">
         <v>305</v>
       </c>
-      <c r="L44" s="85">
+      <c r="L44" s="76">
         <v>2040</v>
       </c>
-      <c r="M44" s="91">
+      <c r="M44" s="82">
         <v>0.2</v>
       </c>
     </row>
@@ -15812,10 +15779,10 @@
       <c r="D45" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="28">
         <v>2040</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G45" t="s">
@@ -15824,19 +15791,19 @@
       <c r="H45">
         <v>2021</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="31">
         <v>2020</v>
       </c>
       <c r="J45" s="20">
         <v>3813946</v>
       </c>
-      <c r="K45" s="40" t="s">
+      <c r="K45" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L45">
         <v>2040</v>
       </c>
-      <c r="M45" s="43">
+      <c r="M45" s="40">
         <v>1</v>
       </c>
     </row>
@@ -15853,10 +15820,10 @@
       <c r="D46" t="s">
         <v>169</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="28">
         <v>2050</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G46" t="s">
@@ -15865,19 +15832,19 @@
       <c r="H46">
         <v>2022</v>
       </c>
-      <c r="I46" s="33">
+      <c r="I46" s="31">
         <v>2020</v>
       </c>
       <c r="J46">
         <v>0.93</v>
       </c>
-      <c r="K46" s="40" t="s">
+      <c r="K46" s="37" t="s">
         <v>302</v>
       </c>
       <c r="L46">
         <v>2031</v>
       </c>
-      <c r="M46" s="43">
+      <c r="M46" s="40">
         <v>0.108</v>
       </c>
     </row>
@@ -15894,7 +15861,7 @@
       <c r="D47" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G47" t="s">
@@ -15903,19 +15870,19 @@
       <c r="H47">
         <v>2020</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="31">
         <v>2010</v>
       </c>
       <c r="J47">
         <v>0.76300000000000001</v>
       </c>
-      <c r="K47" s="40" t="s">
+      <c r="K47" s="37" t="s">
         <v>295</v>
       </c>
       <c r="L47">
         <v>2030</v>
       </c>
-      <c r="M47" s="43">
+      <c r="M47" s="40">
         <v>0.1</v>
       </c>
     </row>
@@ -15932,10 +15899,10 @@
       <c r="D48" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="28">
         <v>2050</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G48" t="s">
@@ -15944,37 +15911,37 @@
       <c r="H48">
         <v>2022</v>
       </c>
-      <c r="I48" s="33">
+      <c r="I48" s="31">
         <v>2021</v>
       </c>
       <c r="J48">
         <v>96</v>
       </c>
-      <c r="K48" s="40" t="s">
+      <c r="K48" s="37" t="s">
         <v>304</v>
       </c>
       <c r="L48">
         <v>2030</v>
       </c>
-      <c r="M48" s="43">
+      <c r="M48" s="40">
         <f>50/96</f>
         <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
+        <v>383</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" t="s">
         <v>385</v>
-      </c>
-      <c r="C49" t="s">
-        <v>386</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G49" t="s">
@@ -15983,36 +15950,36 @@
       <c r="H49">
         <v>2020</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="31">
         <v>2014</v>
       </c>
       <c r="J49">
         <v>30</v>
       </c>
-      <c r="K49" s="40" t="s">
-        <v>387</v>
+      <c r="K49" s="37" t="s">
+        <v>386</v>
       </c>
       <c r="L49">
         <v>2030</v>
       </c>
-      <c r="M49" s="43">
+      <c r="M49" s="40">
         <v>0.3</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
+        <v>383</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" t="s">
         <v>385</v>
-      </c>
-      <c r="C50" t="s">
-        <v>386</v>
       </c>
       <c r="D50" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="F50" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G50" t="s">
@@ -16021,19 +15988,19 @@
       <c r="H50">
         <v>2020</v>
       </c>
-      <c r="I50" s="33">
+      <c r="I50" s="31">
         <v>2019</v>
       </c>
       <c r="J50">
         <v>425</v>
       </c>
-      <c r="K50" s="40" t="s">
+      <c r="K50" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L50">
         <v>2030</v>
       </c>
-      <c r="M50" s="43">
+      <c r="M50" s="40">
         <v>0.15</v>
       </c>
     </row>
@@ -16050,26 +16017,26 @@
       <c r="D51" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F51" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G51" t="s">
         <v>294</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="31">
         <v>2000</v>
       </c>
       <c r="J51">
         <f>2650/2000</f>
         <v>1.325</v>
       </c>
-      <c r="K51" s="40" t="s">
+      <c r="K51" s="37" t="s">
         <v>295</v>
       </c>
       <c r="L51">
         <v>2030</v>
       </c>
-      <c r="M51" s="43">
+      <c r="M51" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -16086,7 +16053,7 @@
       <c r="D52" t="s">
         <v>90</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="28">
         <v>2050</v>
       </c>
       <c r="F52" t="s">
@@ -16111,7 +16078,7 @@
       <c r="L52">
         <v>2030</v>
       </c>
-      <c r="M52" s="43">
+      <c r="M52" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -16128,7 +16095,7 @@
       <c r="D53" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="28">
         <v>2050</v>
       </c>
       <c r="F53" t="s">
@@ -16153,7 +16120,7 @@
       <c r="L53">
         <v>2040</v>
       </c>
-      <c r="M53" s="43">
+      <c r="M53" s="40">
         <v>0.9</v>
       </c>
     </row>
@@ -16170,10 +16137,10 @@
       <c r="D54" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="28">
         <v>2050</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F54" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G54" t="s">
@@ -16188,13 +16155,13 @@
       <c r="J54">
         <v>843</v>
       </c>
-      <c r="K54" s="40" t="s">
+      <c r="K54" s="37" t="s">
         <v>306</v>
       </c>
       <c r="L54">
         <v>2025</v>
       </c>
-      <c r="M54" s="43">
+      <c r="M54" s="40">
         <v>0.67</v>
       </c>
     </row>
@@ -16211,7 +16178,7 @@
       <c r="D55" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="28">
         <v>2050</v>
       </c>
       <c r="F55" t="s">
@@ -16236,7 +16203,7 @@
       <c r="L55">
         <v>2030</v>
       </c>
-      <c r="M55" s="43">
+      <c r="M55" s="40">
         <v>0.9</v>
       </c>
     </row>
@@ -16253,10 +16220,10 @@
       <c r="D56" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="28">
         <v>2050</v>
       </c>
-      <c r="F56" s="30" t="s">
+      <c r="F56" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G56" t="s">
@@ -16265,7 +16232,7 @@
       <c r="H56">
         <v>2019</v>
       </c>
-      <c r="I56" s="33">
+      <c r="I56" s="31">
         <v>2010</v>
       </c>
       <c r="J56" s="20">
@@ -16277,24 +16244,24 @@
       <c r="L56">
         <v>2045</v>
       </c>
-      <c r="M56" s="43">
+      <c r="M56" s="40">
         <v>0.9</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="23" t="s">
+      <c r="A57" t="s">
         <v>190</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" t="s">
         <v>191</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" t="s">
         <v>192</v>
       </c>
       <c r="D57" t="s">
         <v>193</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="28">
         <v>2050</v>
       </c>
       <c r="F57" t="s">
@@ -16318,7 +16285,7 @@
       <c r="L57">
         <v>2030</v>
       </c>
-      <c r="M57" s="43">
+      <c r="M57" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -16356,7 +16323,7 @@
       <c r="L58">
         <v>2030</v>
       </c>
-      <c r="M58" s="43">
+      <c r="M58" s="40">
         <v>0.35</v>
       </c>
     </row>
@@ -16373,7 +16340,7 @@
       <c r="D59" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="30" t="s">
+      <c r="F59" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G59" t="s">
@@ -16382,7 +16349,7 @@
       <c r="H59">
         <v>2018</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="31">
         <v>2005</v>
       </c>
       <c r="J59" s="20">
@@ -16394,7 +16361,7 @@
       <c r="L59">
         <v>2030</v>
       </c>
-      <c r="M59" s="43">
+      <c r="M59" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -16411,7 +16378,7 @@
       <c r="D60" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="30" t="s">
+      <c r="F60" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G60" t="s">
@@ -16420,7 +16387,7 @@
       <c r="H60">
         <v>2018</v>
       </c>
-      <c r="I60" s="33">
+      <c r="I60" s="31">
         <v>2005</v>
       </c>
       <c r="J60" s="20">
@@ -16432,27 +16399,27 @@
       <c r="L60">
         <v>2050</v>
       </c>
-      <c r="M60" s="43">
+      <c r="M60" s="40">
         <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
+        <v>387</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" t="s">
         <v>389</v>
-      </c>
-      <c r="C61" t="s">
-        <v>390</v>
       </c>
       <c r="D61" t="s">
         <v>169</v>
       </c>
-      <c r="E61" s="30">
+      <c r="E61" s="28">
         <v>2050</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F61" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G61" t="s">
@@ -16461,7 +16428,7 @@
       <c r="H61">
         <v>2021</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="31">
         <v>2015</v>
       </c>
       <c r="J61" s="20">
@@ -16473,132 +16440,132 @@
       <c r="L61">
         <v>2030</v>
       </c>
-      <c r="M61" s="43">
+      <c r="M61" s="40">
         <v>0.25</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="85" t="s">
+      <c r="A62" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="B62" s="77" t="s">
         <v>388</v>
       </c>
-      <c r="B62" s="86" t="s">
+      <c r="C62" s="76" t="s">
         <v>389</v>
       </c>
-      <c r="C62" s="85" t="s">
-        <v>390</v>
-      </c>
-      <c r="D62" s="85" t="s">
+      <c r="D62" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="E62" s="87">
+      <c r="E62" s="78">
         <v>2050</v>
       </c>
-      <c r="F62" s="87" t="s">
+      <c r="F62" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="G62" s="85" t="s">
+      <c r="G62" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="H62" s="85">
+      <c r="H62" s="76">
         <v>2021</v>
       </c>
-      <c r="I62" s="88">
+      <c r="I62" s="79">
         <v>2015</v>
       </c>
-      <c r="J62" s="89">
+      <c r="J62" s="80">
         <f>526.9/749.7</f>
         <v>0.70281445911698004</v>
       </c>
-      <c r="K62" s="85" t="s">
-        <v>387</v>
-      </c>
-      <c r="L62" s="85">
+      <c r="K62" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="L62" s="76">
         <v>2030</v>
       </c>
-      <c r="M62" s="91">
+      <c r="M62" s="82">
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="92" customFormat="1">
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
+        <v>390</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" t="s">
+        <v>393</v>
+      </c>
+      <c r="D63" t="s">
         <v>392</v>
       </c>
-      <c r="C63" t="s">
-        <v>394</v>
-      </c>
-      <c r="D63" t="s">
-        <v>393</v>
-      </c>
-      <c r="E63" s="100">
+      <c r="E63" s="28">
         <v>2050</v>
       </c>
-      <c r="F63" s="100" t="s">
+      <c r="F63" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="G63" s="92" t="s">
+      <c r="G63" t="s">
         <v>294</v>
       </c>
-      <c r="H63" s="92">
+      <c r="H63">
         <v>2019</v>
       </c>
-      <c r="I63" s="101">
+      <c r="I63" s="31">
         <v>2019</v>
       </c>
-      <c r="J63" s="102">
+      <c r="J63" s="20">
         <v>53.8</v>
       </c>
-      <c r="K63" s="92" t="s">
+      <c r="K63" t="s">
         <v>64</v>
       </c>
-      <c r="L63" s="92">
+      <c r="L63">
         <v>2024</v>
       </c>
-      <c r="M63" s="103">
+      <c r="M63" s="40">
         <f>1-49.5/J63</f>
         <v>7.9925650557620798E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="92" customFormat="1">
-      <c r="A64" s="85" t="s">
+    <row r="64" spans="1:13">
+      <c r="A64" s="76" t="s">
+        <v>390</v>
+      </c>
+      <c r="B64" s="77" t="s">
         <v>391</v>
       </c>
-      <c r="B64" s="86" t="s">
+      <c r="C64" s="76" t="s">
+        <v>393</v>
+      </c>
+      <c r="D64" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="C64" s="85" t="s">
-        <v>394</v>
-      </c>
-      <c r="D64" s="85" t="s">
-        <v>393</v>
-      </c>
-      <c r="E64" s="87">
+      <c r="E64" s="78">
         <v>2050</v>
       </c>
-      <c r="F64" s="87" t="s">
+      <c r="F64" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="G64" s="85" t="s">
+      <c r="G64" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="H64" s="85">
+      <c r="H64" s="76">
         <v>2019</v>
       </c>
-      <c r="I64" s="88">
+      <c r="I64" s="79">
         <v>2019</v>
       </c>
-      <c r="J64" s="89">
+      <c r="J64" s="80">
         <v>1</v>
       </c>
-      <c r="K64" s="85" t="s">
-        <v>387</v>
-      </c>
-      <c r="L64" s="85">
+      <c r="K64" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="L64" s="76">
         <v>2024</v>
       </c>
-      <c r="M64" s="91">
+      <c r="M64" s="82">
         <v>0.08</v>
       </c>
     </row>
@@ -16615,10 +16582,10 @@
       <c r="D65" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="30">
+      <c r="E65" s="28">
         <v>2045</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F65" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G65" t="s">
@@ -16627,7 +16594,7 @@
       <c r="H65">
         <v>2021</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="31">
         <v>2016</v>
       </c>
       <c r="J65">
@@ -16639,7 +16606,7 @@
       <c r="L65">
         <v>2045</v>
       </c>
-      <c r="M65" s="43">
+      <c r="M65" s="40">
         <v>1</v>
       </c>
     </row>
@@ -16656,10 +16623,10 @@
       <c r="D66" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="30">
+      <c r="E66" s="28">
         <v>2040</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G66" t="s">
@@ -16668,10 +16635,10 @@
       <c r="H66">
         <v>2019</v>
       </c>
-      <c r="I66" s="33">
+      <c r="I66" s="31">
         <v>2005</v>
       </c>
-      <c r="J66" s="46">
+      <c r="J66" s="43">
         <v>6976930.1319702603</v>
       </c>
       <c r="K66" t="s">
@@ -16680,7 +16647,7 @@
       <c r="L66">
         <v>2040</v>
       </c>
-      <c r="M66" s="43">
+      <c r="M66" s="40">
         <v>1</v>
       </c>
     </row>
@@ -16697,10 +16664,10 @@
       <c r="D67" t="s">
         <v>213</v>
       </c>
-      <c r="E67" s="30">
+      <c r="E67" s="28">
         <v>2050</v>
       </c>
-      <c r="F67" s="30" t="s">
+      <c r="F67" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G67" t="s">
@@ -16709,7 +16676,7 @@
       <c r="H67">
         <v>2020</v>
       </c>
-      <c r="I67" s="33">
+      <c r="I67" s="31">
         <v>2017</v>
       </c>
       <c r="J67">
@@ -16721,7 +16688,7 @@
       <c r="L67">
         <v>2030</v>
       </c>
-      <c r="M67" s="43">
+      <c r="M67" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -16738,10 +16705,10 @@
       <c r="D68" t="s">
         <v>213</v>
       </c>
-      <c r="E68" s="30">
+      <c r="E68" s="28">
         <v>2050</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G68" t="s">
@@ -16750,7 +16717,7 @@
       <c r="H68">
         <v>2020</v>
       </c>
-      <c r="I68" s="33">
+      <c r="I68" s="31">
         <v>2017</v>
       </c>
       <c r="J68">
@@ -16762,7 +16729,7 @@
       <c r="L68">
         <v>2040</v>
       </c>
-      <c r="M68" s="43">
+      <c r="M68" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -16779,10 +16746,10 @@
       <c r="D69" t="s">
         <v>54</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="28">
         <v>2050</v>
       </c>
-      <c r="F69" s="30" t="s">
+      <c r="F69" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G69" t="s">
@@ -16791,7 +16758,7 @@
       <c r="H69">
         <v>2021</v>
       </c>
-      <c r="I69" s="33">
+      <c r="I69" s="31">
         <v>2010</v>
       </c>
       <c r="J69" s="20">
@@ -16804,7 +16771,7 @@
       <c r="L69">
         <v>2035</v>
       </c>
-      <c r="M69" s="43">
+      <c r="M69" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -16821,10 +16788,10 @@
       <c r="D70" t="s">
         <v>54</v>
       </c>
-      <c r="E70" s="30">
+      <c r="E70" s="28">
         <v>2050</v>
       </c>
-      <c r="F70" s="30" t="s">
+      <c r="F70" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G70" t="s">
@@ -16833,7 +16800,7 @@
       <c r="H70">
         <v>2021</v>
       </c>
-      <c r="I70" s="33">
+      <c r="I70" s="31">
         <v>2010</v>
       </c>
       <c r="J70" s="20">
@@ -16846,7 +16813,7 @@
       <c r="L70">
         <v>2040</v>
       </c>
-      <c r="M70" s="43">
+      <c r="M70" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -16863,10 +16830,10 @@
       <c r="D71" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="30">
+      <c r="E71" s="28">
         <v>2050</v>
       </c>
-      <c r="F71" s="30" t="s">
+      <c r="F71" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G71" t="s">
@@ -16875,10 +16842,10 @@
       <c r="H71">
         <v>2020</v>
       </c>
-      <c r="I71" s="33">
+      <c r="I71" s="31">
         <v>2005</v>
       </c>
-      <c r="J71" s="47">
+      <c r="J71" s="44">
         <v>16557441</v>
       </c>
       <c r="K71" t="s">
@@ -16887,7 +16854,7 @@
       <c r="L71">
         <v>2030</v>
       </c>
-      <c r="M71" s="43">
+      <c r="M71" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -16904,10 +16871,10 @@
       <c r="D72" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="30">
+      <c r="E72" s="28">
         <v>2040</v>
       </c>
-      <c r="F72" s="30" t="s">
+      <c r="F72" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G72" t="s">
@@ -16916,7 +16883,7 @@
       <c r="H72">
         <v>2020</v>
       </c>
-      <c r="I72" s="33">
+      <c r="I72" s="31">
         <v>2010</v>
       </c>
       <c r="J72">
@@ -16928,7 +16895,7 @@
       <c r="L72">
         <v>2030</v>
       </c>
-      <c r="M72" s="43">
+      <c r="M72" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -16945,10 +16912,10 @@
       <c r="D73" t="s">
         <v>54</v>
       </c>
-      <c r="E73" s="30">
+      <c r="E73" s="28">
         <v>2030</v>
       </c>
-      <c r="F73" s="30" t="s">
+      <c r="F73" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G73" t="s">
@@ -16957,7 +16924,7 @@
       <c r="H73">
         <v>2021</v>
       </c>
-      <c r="I73" s="33">
+      <c r="I73" s="31">
         <v>2005</v>
       </c>
       <c r="J73" s="20">
@@ -16969,7 +16936,7 @@
       <c r="L73">
         <v>2030</v>
       </c>
-      <c r="M73" s="43">
+      <c r="M73" s="40">
         <v>1</v>
       </c>
     </row>
@@ -16986,7 +16953,7 @@
       <c r="D74" t="s">
         <v>229</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G74" t="s">
@@ -16995,7 +16962,7 @@
       <c r="H74">
         <v>2021</v>
       </c>
-      <c r="I74" s="33">
+      <c r="I74" s="31">
         <v>2018</v>
       </c>
       <c r="J74" s="20">
@@ -17007,7 +16974,7 @@
       <c r="L74">
         <v>2035</v>
       </c>
-      <c r="M74" s="43">
+      <c r="M74" s="40">
         <v>0.15</v>
       </c>
     </row>
@@ -17024,10 +16991,10 @@
       <c r="D75" t="s">
         <v>54</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="28">
         <v>2050</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F75" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G75" t="s">
@@ -17036,10 +17003,10 @@
       <c r="H75">
         <v>2020</v>
       </c>
-      <c r="I75" s="33">
+      <c r="I75" s="31">
         <v>2019</v>
       </c>
-      <c r="J75" s="48">
+      <c r="J75" s="45">
         <v>0.80243130614229896</v>
       </c>
       <c r="K75" t="s">
@@ -17048,7 +17015,7 @@
       <c r="L75">
         <v>2030</v>
       </c>
-      <c r="M75" s="43">
+      <c r="M75" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -17065,10 +17032,10 @@
       <c r="D76" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="30">
+      <c r="E76" s="28">
         <v>2050</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F76" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G76" t="s">
@@ -17077,10 +17044,10 @@
       <c r="H76">
         <v>2021</v>
       </c>
-      <c r="I76" s="33">
+      <c r="I76" s="31">
         <v>2016</v>
       </c>
-      <c r="J76" s="48">
+      <c r="J76" s="45">
         <v>68</v>
       </c>
       <c r="K76" t="s">
@@ -17089,27 +17056,27 @@
       <c r="L76">
         <v>2030</v>
       </c>
-      <c r="M76" s="43">
+      <c r="M76" s="40">
         <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
+        <v>395</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" t="s">
         <v>397</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>398</v>
       </c>
-      <c r="D77" t="s">
-        <v>399</v>
-      </c>
-      <c r="E77" s="30">
+      <c r="E77" s="28">
         <v>2050</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G77" t="s">
@@ -17118,10 +17085,10 @@
       <c r="H77">
         <v>2018</v>
       </c>
-      <c r="I77" s="33">
+      <c r="I77" s="31">
         <v>2018</v>
       </c>
-      <c r="J77" s="48">
+      <c r="J77" s="45">
         <v>171.52</v>
       </c>
       <c r="K77" t="s">
@@ -17130,383 +17097,383 @@
       <c r="L77">
         <v>2023</v>
       </c>
-      <c r="M77" s="43">
+      <c r="M77" s="40">
         <f>1-(J77-12.6)/J77</f>
         <v>7.3460820895522305E-2</v>
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="85" t="s">
+      <c r="A78" s="76" t="s">
+        <v>395</v>
+      </c>
+      <c r="B78" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="B78" s="86" t="s">
+      <c r="C78" s="76" t="s">
         <v>397</v>
       </c>
-      <c r="C78" s="85" t="s">
+      <c r="D78" s="76" t="s">
         <v>398</v>
       </c>
-      <c r="D78" s="85" t="s">
+      <c r="E78" s="78">
+        <v>2050</v>
+      </c>
+      <c r="F78" s="78" t="s">
+        <v>293</v>
+      </c>
+      <c r="G78" s="76" t="s">
+        <v>300</v>
+      </c>
+      <c r="H78" s="76">
+        <v>2018</v>
+      </c>
+      <c r="I78" s="79">
+        <v>2018</v>
+      </c>
+      <c r="J78" s="88">
+        <v>1</v>
+      </c>
+      <c r="K78" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="L78" s="76">
+        <v>2023</v>
+      </c>
+      <c r="M78" s="82">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" t="s">
+        <v>400</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E78" s="87">
+      <c r="C79" t="s">
+        <v>402</v>
+      </c>
+      <c r="D79" t="s">
+        <v>213</v>
+      </c>
+      <c r="E79" s="28">
         <v>2050</v>
       </c>
-      <c r="F78" s="87" t="s">
-        <v>293</v>
-      </c>
-      <c r="G78" s="85" t="s">
-        <v>300</v>
-      </c>
-      <c r="H78" s="85">
-        <v>2018</v>
-      </c>
-      <c r="I78" s="88">
-        <v>2018</v>
-      </c>
-      <c r="J78" s="104">
-        <v>1</v>
-      </c>
-      <c r="K78" s="85" t="s">
-        <v>387</v>
-      </c>
-      <c r="L78" s="85">
-        <v>2023</v>
-      </c>
-      <c r="M78" s="91">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" s="92" customFormat="1">
-      <c r="A79" t="s">
+      <c r="F79" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="G79" t="s">
+        <v>294</v>
+      </c>
+      <c r="H79">
+        <v>2020</v>
+      </c>
+      <c r="I79" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J79" s="45">
+        <v>1243</v>
+      </c>
+      <c r="K79" t="s">
         <v>401</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C79" t="s">
-        <v>403</v>
-      </c>
-      <c r="D79" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="E79" s="100">
-        <v>2050</v>
-      </c>
-      <c r="F79" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="G79" s="92" t="s">
-        <v>294</v>
-      </c>
-      <c r="H79" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I79" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J79" s="105">
-        <v>1243</v>
-      </c>
-      <c r="K79" s="92" t="s">
-        <v>402</v>
-      </c>
-      <c r="L79" s="92">
+      <c r="L79">
         <v>2025</v>
       </c>
-      <c r="M79" s="103">
+      <c r="M79" s="40">
         <f>1-(957/1243)</f>
         <v>0.23008849557522126</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
+        <v>400</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C80" t="s">
+        <v>402</v>
+      </c>
+      <c r="D80" t="s">
+        <v>213</v>
+      </c>
+      <c r="E80" s="28">
+        <v>2050</v>
+      </c>
+      <c r="F80" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="G80" t="s">
+        <v>294</v>
+      </c>
+      <c r="H80">
+        <v>2020</v>
+      </c>
+      <c r="I80" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J80" s="45">
+        <v>1243</v>
+      </c>
+      <c r="K80" t="s">
         <v>401</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C80" t="s">
-        <v>403</v>
-      </c>
-      <c r="D80" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="E80" s="100">
-        <v>2050</v>
-      </c>
-      <c r="F80" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="G80" s="92" t="s">
-        <v>294</v>
-      </c>
-      <c r="H80" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I80" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J80" s="105">
-        <v>1243</v>
-      </c>
-      <c r="K80" s="92" t="s">
-        <v>402</v>
-      </c>
-      <c r="L80" s="92">
+      <c r="L80">
         <v>2030</v>
       </c>
-      <c r="M80" s="103">
+      <c r="M80" s="40">
         <f>1-(612/1243)</f>
         <v>0.50764279967819792</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
+        <v>400</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C81" t="s">
+        <v>402</v>
+      </c>
+      <c r="D81" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81" s="28">
+        <v>2050</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="G81" t="s">
+        <v>294</v>
+      </c>
+      <c r="H81">
+        <v>2020</v>
+      </c>
+      <c r="I81" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J81" s="45">
+        <v>1243</v>
+      </c>
+      <c r="K81" t="s">
         <v>401</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C81" t="s">
-        <v>403</v>
-      </c>
-      <c r="D81" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="E81" s="100">
-        <v>2050</v>
-      </c>
-      <c r="F81" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="G81" s="92" t="s">
-        <v>294</v>
-      </c>
-      <c r="H81" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I81" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J81" s="105">
-        <v>1243</v>
-      </c>
-      <c r="K81" s="92" t="s">
-        <v>402</v>
-      </c>
-      <c r="L81" s="92">
+      <c r="L81">
         <v>2040</v>
       </c>
-      <c r="M81" s="103">
+      <c r="M81" s="40">
         <f>1-(280/1243)</f>
         <v>0.77473853580048269</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
+        <v>400</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C82" t="s">
+        <v>402</v>
+      </c>
+      <c r="D82" t="s">
+        <v>213</v>
+      </c>
+      <c r="E82" s="28">
+        <v>2050</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="G82" t="s">
+        <v>294</v>
+      </c>
+      <c r="H82">
+        <v>2020</v>
+      </c>
+      <c r="I82" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J82" s="45">
+        <v>1243</v>
+      </c>
+      <c r="K82" t="s">
         <v>401</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C82" t="s">
-        <v>403</v>
-      </c>
-      <c r="D82" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="E82" s="100">
+      <c r="L82">
         <v>2050</v>
       </c>
-      <c r="F82" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="G82" s="92" t="s">
-        <v>294</v>
-      </c>
-      <c r="H82" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I82" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J82" s="105">
-        <v>1243</v>
-      </c>
-      <c r="K82" s="92" t="s">
-        <v>402</v>
-      </c>
-      <c r="L82" s="92">
-        <v>2050</v>
-      </c>
-      <c r="M82" s="103">
+      <c r="M82" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
+        <v>400</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C83" t="s">
+        <v>402</v>
+      </c>
+      <c r="D83" t="s">
+        <v>213</v>
+      </c>
+      <c r="E83" s="28">
+        <v>2050</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="G83" t="s">
+        <v>300</v>
+      </c>
+      <c r="H83">
+        <v>2020</v>
+      </c>
+      <c r="I83" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J83" s="45">
+        <v>15063</v>
+      </c>
+      <c r="K83" t="s">
         <v>401</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C83" t="s">
-        <v>403</v>
-      </c>
-      <c r="D83" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="E83" s="100">
-        <v>2050</v>
-      </c>
-      <c r="F83" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="G83" s="92" t="s">
-        <v>300</v>
-      </c>
-      <c r="H83" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I83" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J83" s="105">
-        <v>15063</v>
-      </c>
-      <c r="K83" s="92" t="s">
-        <v>402</v>
-      </c>
-      <c r="L83" s="92">
+      <c r="L83">
         <v>2025</v>
       </c>
-      <c r="M83" s="103">
+      <c r="M83" s="40">
         <f>1-(14998/15063)</f>
         <v>4.3152094536280661E-3</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
+        <v>400</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C84" t="s">
+        <v>402</v>
+      </c>
+      <c r="D84" t="s">
+        <v>213</v>
+      </c>
+      <c r="E84" s="28">
+        <v>2050</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="G84" t="s">
+        <v>300</v>
+      </c>
+      <c r="H84">
+        <v>2020</v>
+      </c>
+      <c r="I84" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J84" s="45">
+        <v>15063</v>
+      </c>
+      <c r="K84" t="s">
         <v>401</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C84" t="s">
-        <v>403</v>
-      </c>
-      <c r="D84" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="E84" s="100">
-        <v>2050</v>
-      </c>
-      <c r="F84" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="G84" s="92" t="s">
-        <v>300</v>
-      </c>
-      <c r="H84" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I84" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J84" s="105">
-        <v>15063</v>
-      </c>
-      <c r="K84" s="92" t="s">
-        <v>402</v>
-      </c>
-      <c r="L84" s="92">
+      <c r="L84">
         <v>2030</v>
       </c>
-      <c r="M84" s="103">
+      <c r="M84" s="40">
         <f>1-(11493/15063)</f>
         <v>0.23700458076080466</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
+        <v>400</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C85" t="s">
+        <v>402</v>
+      </c>
+      <c r="D85" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" s="28">
+        <v>2050</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="G85" t="s">
+        <v>300</v>
+      </c>
+      <c r="H85">
+        <v>2020</v>
+      </c>
+      <c r="I85" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J85" s="45">
+        <v>15063</v>
+      </c>
+      <c r="K85" t="s">
         <v>401</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C85" t="s">
-        <v>403</v>
-      </c>
-      <c r="D85" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="E85" s="100">
-        <v>2050</v>
-      </c>
-      <c r="F85" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="G85" s="92" t="s">
-        <v>300</v>
-      </c>
-      <c r="H85" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I85" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J85" s="105">
-        <v>15063</v>
-      </c>
-      <c r="K85" s="92" t="s">
-        <v>402</v>
-      </c>
-      <c r="L85" s="92">
+      <c r="L85">
         <v>2040</v>
       </c>
-      <c r="M85" s="103">
+      <c r="M85" s="40">
         <f>1-(7819/15063)</f>
         <v>0.48091349664741423</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
+        <v>400</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C86" t="s">
+        <v>402</v>
+      </c>
+      <c r="D86" t="s">
+        <v>213</v>
+      </c>
+      <c r="E86" s="28">
+        <v>2050</v>
+      </c>
+      <c r="F86" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="G86" t="s">
+        <v>300</v>
+      </c>
+      <c r="H86">
+        <v>2020</v>
+      </c>
+      <c r="I86" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J86" s="45">
+        <v>15063</v>
+      </c>
+      <c r="K86" t="s">
         <v>401</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C86" t="s">
-        <v>403</v>
-      </c>
-      <c r="D86" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="E86" s="100">
+      <c r="L86">
         <v>2050</v>
       </c>
-      <c r="F86" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="G86" s="92" t="s">
-        <v>300</v>
-      </c>
-      <c r="H86" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I86" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J86" s="105">
-        <v>15063</v>
-      </c>
-      <c r="K86" s="92" t="s">
-        <v>402</v>
-      </c>
-      <c r="L86" s="92">
-        <v>2050</v>
-      </c>
-      <c r="M86" s="103">
+      <c r="M86" s="40">
         <f>1-(4331/15063)</f>
         <v>0.71247427471287261</v>
       </c>
@@ -17524,10 +17491,10 @@
       <c r="D87" t="s">
         <v>54</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="28">
         <v>2050</v>
       </c>
-      <c r="F87" s="30" t="s">
+      <c r="F87" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G87" t="s">
@@ -17536,10 +17503,10 @@
       <c r="H87">
         <v>2020</v>
       </c>
-      <c r="I87" s="33">
+      <c r="I87" s="31">
         <v>2007</v>
       </c>
-      <c r="J87" s="48">
+      <c r="J87" s="45">
         <v>0.98420553538837796</v>
       </c>
       <c r="K87" t="s">
@@ -17548,7 +17515,7 @@
       <c r="L87">
         <v>2030</v>
       </c>
-      <c r="M87" s="43">
+      <c r="M87" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -17565,10 +17532,10 @@
       <c r="D88" t="s">
         <v>54</v>
       </c>
-      <c r="E88" s="30">
+      <c r="E88" s="28">
         <v>2050</v>
       </c>
-      <c r="F88" s="30" t="s">
+      <c r="F88" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G88" t="s">
@@ -17577,7 +17544,7 @@
       <c r="H88">
         <v>2021</v>
       </c>
-      <c r="I88" s="33">
+      <c r="I88" s="31">
         <v>2018</v>
       </c>
       <c r="J88">
@@ -17589,7 +17556,7 @@
       <c r="L88">
         <v>2025</v>
       </c>
-      <c r="M88" s="43">
+      <c r="M88" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -17606,10 +17573,10 @@
       <c r="D89" t="s">
         <v>54</v>
       </c>
-      <c r="E89" s="30">
+      <c r="E89" s="28">
         <v>2050</v>
       </c>
-      <c r="F89" s="30" t="s">
+      <c r="F89" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G89" t="s">
@@ -17618,7 +17585,7 @@
       <c r="H89">
         <v>2021</v>
       </c>
-      <c r="I89" s="33">
+      <c r="I89" s="31">
         <v>2018</v>
       </c>
       <c r="J89">
@@ -17630,7 +17597,7 @@
       <c r="L89">
         <v>2030</v>
       </c>
-      <c r="M89" s="43">
+      <c r="M89" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -17647,10 +17614,10 @@
       <c r="D90" t="s">
         <v>162</v>
       </c>
-      <c r="E90" s="30">
+      <c r="E90" s="28">
         <v>2050</v>
       </c>
-      <c r="F90" s="30" t="s">
+      <c r="F90" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G90" t="s">
@@ -17659,10 +17626,10 @@
       <c r="H90">
         <v>2020</v>
       </c>
-      <c r="I90" s="33">
+      <c r="I90" s="31">
         <v>2019</v>
       </c>
-      <c r="J90" s="48">
+      <c r="J90" s="45">
         <v>0.46760301224943002</v>
       </c>
       <c r="K90" t="s">
@@ -17671,7 +17638,7 @@
       <c r="L90">
         <v>2030</v>
       </c>
-      <c r="M90" s="43">
+      <c r="M90" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -17688,7 +17655,7 @@
       <c r="D91" t="s">
         <v>249</v>
       </c>
-      <c r="F91" s="30" t="s">
+      <c r="F91" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G91" t="s">
@@ -17697,10 +17664,10 @@
       <c r="H91">
         <v>2021</v>
       </c>
-      <c r="I91" s="33">
+      <c r="I91" s="31">
         <v>2018</v>
       </c>
-      <c r="J91" s="48">
+      <c r="J91" s="45">
         <v>2.9</v>
       </c>
       <c r="K91" t="s">
@@ -17709,27 +17676,27 @@
       <c r="L91">
         <v>2030</v>
       </c>
-      <c r="M91" s="43">
+      <c r="M91" s="40">
         <v>0.3</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
+        <v>404</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" t="s">
         <v>406</v>
-      </c>
-      <c r="C92" t="s">
-        <v>407</v>
       </c>
       <c r="D92" t="s">
         <v>193</v>
       </c>
-      <c r="E92" s="30">
+      <c r="E92" s="28">
         <v>2050</v>
       </c>
-      <c r="F92" s="30" t="s">
+      <c r="F92" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G92" t="s">
@@ -17738,19 +17705,19 @@
       <c r="H92">
         <v>2020</v>
       </c>
-      <c r="I92" s="33">
+      <c r="I92" s="31">
         <v>2013</v>
       </c>
-      <c r="J92" s="48">
+      <c r="J92" s="45">
         <v>0.75</v>
       </c>
       <c r="K92" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L92">
         <v>2030</v>
       </c>
-      <c r="M92" s="43">
+      <c r="M92" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -17767,7 +17734,7 @@
       <c r="D93" t="s">
         <v>249</v>
       </c>
-      <c r="F93" s="30" t="s">
+      <c r="F93" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G93" t="s">
@@ -17776,10 +17743,10 @@
       <c r="H93">
         <v>2021</v>
       </c>
-      <c r="I93" s="33">
+      <c r="I93" s="31">
         <v>2018</v>
       </c>
-      <c r="J93" s="48">
+      <c r="J93" s="45">
         <v>1.69</v>
       </c>
       <c r="K93" t="s">
@@ -17788,7 +17755,7 @@
       <c r="L93">
         <v>2030</v>
       </c>
-      <c r="M93" s="43">
+      <c r="M93" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -17805,10 +17772,10 @@
       <c r="D94" t="s">
         <v>54</v>
       </c>
-      <c r="E94" s="30">
+      <c r="E94" s="28">
         <v>2050</v>
       </c>
-      <c r="F94" s="30" t="s">
+      <c r="F94" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G94" t="s">
@@ -17817,10 +17784,10 @@
       <c r="H94">
         <v>2021</v>
       </c>
-      <c r="I94" s="33">
+      <c r="I94" s="31">
         <v>2017</v>
       </c>
-      <c r="J94" s="48">
+      <c r="J94" s="45">
         <f>(185000+403000)/(25200*1.6)</f>
         <v>14.583333333333334</v>
       </c>
@@ -17830,7 +17797,7 @@
       <c r="L94">
         <v>2030</v>
       </c>
-      <c r="M94" s="43">
+      <c r="M94" s="40">
         <v>0</v>
       </c>
     </row>
@@ -17847,10 +17814,10 @@
       <c r="D95" t="s">
         <v>54</v>
       </c>
-      <c r="E95" s="30">
+      <c r="E95" s="28">
         <v>2050</v>
       </c>
-      <c r="F95" s="30" t="s">
+      <c r="F95" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G95" t="s">
@@ -17859,10 +17826,10 @@
       <c r="H95">
         <v>2021</v>
       </c>
-      <c r="I95" s="33">
+      <c r="I95" s="31">
         <v>2017</v>
       </c>
-      <c r="J95" s="48">
+      <c r="J95" s="45">
         <f>(185000+403000)/(25200*1.6)</f>
         <v>14.583333333333334</v>
       </c>
@@ -17872,7 +17839,7 @@
       <c r="L95">
         <v>2030</v>
       </c>
-      <c r="M95" s="43">
+      <c r="M95" s="40">
         <v>0</v>
       </c>
     </row>
@@ -17889,7 +17856,7 @@
       <c r="D96" t="s">
         <v>54</v>
       </c>
-      <c r="F96" s="30" t="s">
+      <c r="F96" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G96" t="s">
@@ -17898,10 +17865,10 @@
       <c r="H96">
         <v>2021</v>
       </c>
-      <c r="I96" s="33">
+      <c r="I96" s="31">
         <v>2018</v>
       </c>
-      <c r="J96" s="48">
+      <c r="J96" s="45">
         <v>0.42172199999999999</v>
       </c>
       <c r="K96" t="s">
@@ -17910,7 +17877,7 @@
       <c r="L96">
         <v>2030</v>
       </c>
-      <c r="M96" s="43">
+      <c r="M96" s="40">
         <v>0.4</v>
       </c>
     </row>
@@ -17927,10 +17894,10 @@
       <c r="D97" t="s">
         <v>193</v>
       </c>
-      <c r="E97" s="30">
+      <c r="E97" s="28">
         <v>2050</v>
       </c>
-      <c r="F97" s="30" t="s">
+      <c r="F97" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G97" t="s">
@@ -17939,10 +17906,10 @@
       <c r="H97">
         <v>2020</v>
       </c>
-      <c r="I97" s="33">
+      <c r="I97" s="31">
         <v>2020</v>
       </c>
-      <c r="J97" s="49">
+      <c r="J97" s="46">
         <v>130</v>
       </c>
       <c r="K97" t="s">
@@ -17951,7 +17918,7 @@
       <c r="L97">
         <v>2030</v>
       </c>
-      <c r="M97" s="50">
+      <c r="M97" s="47">
         <v>0.2</v>
       </c>
     </row>
@@ -17968,19 +17935,19 @@
       <c r="D98" t="s">
         <v>193</v>
       </c>
-      <c r="E98" s="30">
+      <c r="E98" s="28">
         <v>2050</v>
       </c>
-      <c r="F98" s="30" t="s">
+      <c r="F98" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G98" t="s">
         <v>294</v>
       </c>
-      <c r="I98" s="33">
+      <c r="I98" s="31">
         <v>2020</v>
       </c>
-      <c r="J98" s="49">
+      <c r="J98" s="46">
         <v>4.9000000000000004</v>
       </c>
       <c r="K98" t="s">
@@ -17989,7 +17956,7 @@
       <c r="L98">
         <v>2030</v>
       </c>
-      <c r="M98" s="50">
+      <c r="M98" s="47">
         <v>0.2</v>
       </c>
     </row>
@@ -18006,7 +17973,7 @@
       <c r="D99" t="s">
         <v>54</v>
       </c>
-      <c r="F99" s="30" t="s">
+      <c r="F99" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G99" t="s">
@@ -18015,10 +17982,10 @@
       <c r="H99">
         <v>2020</v>
       </c>
-      <c r="I99" s="33">
+      <c r="I99" s="31">
         <v>2018</v>
       </c>
-      <c r="J99" s="48">
+      <c r="J99" s="45">
         <v>0.315911</v>
       </c>
       <c r="K99" t="s">
@@ -18027,7 +17994,7 @@
       <c r="L99">
         <v>2030</v>
       </c>
-      <c r="M99" s="43">
+      <c r="M99" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -18044,10 +18011,10 @@
       <c r="D100" t="s">
         <v>268</v>
       </c>
-      <c r="E100" s="30">
+      <c r="E100" s="28">
         <v>2050</v>
       </c>
-      <c r="F100" s="30" t="s">
+      <c r="F100" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G100" t="s">
@@ -18056,10 +18023,10 @@
       <c r="H100">
         <v>2021</v>
       </c>
-      <c r="I100" s="33">
+      <c r="I100" s="31">
         <v>2015</v>
       </c>
-      <c r="J100" s="48">
+      <c r="J100" s="45">
         <v>1.8</v>
       </c>
       <c r="K100" t="s">
@@ -18068,7 +18035,7 @@
       <c r="L100">
         <v>2030</v>
       </c>
-      <c r="M100" s="43">
+      <c r="M100" s="40">
         <v>0.16</v>
       </c>
     </row>
@@ -18085,10 +18052,10 @@
       <c r="D101" t="s">
         <v>268</v>
       </c>
-      <c r="E101" s="30">
+      <c r="E101" s="28">
         <v>2050</v>
       </c>
-      <c r="F101" s="30" t="s">
+      <c r="F101" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G101" t="s">
@@ -18097,10 +18064,10 @@
       <c r="H101">
         <v>2021</v>
       </c>
-      <c r="I101" s="33">
+      <c r="I101" s="31">
         <v>2015</v>
       </c>
-      <c r="J101" s="48">
+      <c r="J101" s="45">
         <v>3.7</v>
       </c>
       <c r="K101" t="s">
@@ -18109,49 +18076,49 @@
       <c r="L101">
         <v>2030</v>
       </c>
-      <c r="M101" s="43">
+      <c r="M101" s="40">
         <f>3.7/3.5-1</f>
         <v>5.7142857142857162E-2</v>
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="51" t="s">
+      <c r="A102" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="B102" s="51" t="s">
+      <c r="B102" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="C102" s="51" t="s">
+      <c r="C102" s="48" t="s">
         <v>271</v>
       </c>
       <c r="D102" t="s">
         <v>162</v>
       </c>
-      <c r="E102" s="51">
+      <c r="E102" s="48">
         <v>2050</v>
       </c>
-      <c r="F102" s="51" t="s">
+      <c r="F102" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="G102" s="51" t="s">
+      <c r="G102" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="H102" s="51">
+      <c r="H102" s="48">
         <v>2020</v>
       </c>
-      <c r="I102" s="51">
+      <c r="I102" s="48">
         <v>2005</v>
       </c>
-      <c r="J102" s="51">
+      <c r="J102" s="48">
         <v>11.6416389602593</v>
       </c>
-      <c r="K102" s="51" t="s">
+      <c r="K102" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="L102" s="51">
+      <c r="L102" s="48">
         <v>2050</v>
       </c>
-      <c r="M102" s="52">
+      <c r="M102" s="49">
         <v>1</v>
       </c>
     </row>
@@ -18168,10 +18135,10 @@
       <c r="D103" t="s">
         <v>54</v>
       </c>
-      <c r="E103" s="30">
+      <c r="E103" s="28">
         <v>2050</v>
       </c>
-      <c r="F103" s="30" t="s">
+      <c r="F103" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G103" t="s">
@@ -18180,7 +18147,7 @@
       <c r="H103">
         <v>2020</v>
       </c>
-      <c r="I103" s="33">
+      <c r="I103" s="31">
         <v>2010</v>
       </c>
       <c r="J103">
@@ -18192,7 +18159,7 @@
       <c r="L103">
         <v>2030</v>
       </c>
-      <c r="M103" s="43">
+      <c r="M103" s="40">
         <v>0.6</v>
       </c>
     </row>
@@ -18209,10 +18176,10 @@
       <c r="D104" t="s">
         <v>54</v>
       </c>
-      <c r="E104" s="30">
+      <c r="E104" s="28">
         <v>2050</v>
       </c>
-      <c r="F104" s="30" t="s">
+      <c r="F104" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G104" t="s">
@@ -18221,7 +18188,7 @@
       <c r="H104">
         <v>2020</v>
       </c>
-      <c r="I104" s="33">
+      <c r="I104" s="31">
         <v>2005</v>
       </c>
       <c r="J104">
@@ -18233,7 +18200,7 @@
       <c r="L104">
         <v>2025</v>
       </c>
-      <c r="M104" s="43">
+      <c r="M104" s="40">
         <v>0.6</v>
       </c>
     </row>
@@ -18250,10 +18217,10 @@
       <c r="D105" t="s">
         <v>54</v>
       </c>
-      <c r="E105" s="30">
+      <c r="E105" s="28">
         <v>2050</v>
       </c>
-      <c r="F105" s="30" t="s">
+      <c r="F105" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G105" t="s">
@@ -18262,7 +18229,7 @@
       <c r="H105">
         <v>2020</v>
       </c>
-      <c r="I105" s="33">
+      <c r="I105" s="31">
         <v>2005</v>
       </c>
       <c r="J105">
@@ -18274,7 +18241,7 @@
       <c r="L105">
         <v>2030</v>
       </c>
-      <c r="M105" s="43">
+      <c r="M105" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -18291,10 +18258,10 @@
       <c r="D106" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="30">
+      <c r="E106" s="28">
         <v>2050</v>
       </c>
-      <c r="F106" s="30" t="s">
+      <c r="F106" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G106" t="s">
@@ -18303,10 +18270,10 @@
       <c r="H106">
         <v>2020</v>
       </c>
-      <c r="I106" s="33">
+      <c r="I106" s="31">
         <v>2018</v>
       </c>
-      <c r="J106" s="48">
+      <c r="J106" s="45">
         <v>0.315911</v>
       </c>
       <c r="K106" t="s">
@@ -18315,7 +18282,7 @@
       <c r="L106">
         <v>2030</v>
       </c>
-      <c r="M106" s="43">
+      <c r="M106" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -18332,10 +18299,10 @@
       <c r="D107" t="s">
         <v>54</v>
       </c>
-      <c r="E107" s="30">
+      <c r="E107" s="28">
         <v>2050</v>
       </c>
-      <c r="F107" s="30" t="s">
+      <c r="F107" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G107" t="s">
@@ -18344,10 +18311,10 @@
       <c r="H107">
         <v>2020</v>
       </c>
-      <c r="I107" s="33">
+      <c r="I107" s="31">
         <v>2005</v>
       </c>
-      <c r="J107" s="48">
+      <c r="J107" s="45">
         <v>0.88086205923584704</v>
       </c>
       <c r="K107" t="s">
@@ -18356,27 +18323,27 @@
       <c r="L107">
         <v>2030</v>
       </c>
-      <c r="M107" s="43">
+      <c r="M107" s="40">
         <v>0.8</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
+        <v>418</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" t="s">
         <v>420</v>
-      </c>
-      <c r="C108" t="s">
-        <v>421</v>
       </c>
       <c r="D108" t="s">
         <v>54</v>
       </c>
-      <c r="E108" s="30">
+      <c r="E108" s="28">
         <v>2050</v>
       </c>
-      <c r="F108" s="30" t="s">
+      <c r="F108" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G108" t="s">
@@ -18385,7 +18352,7 @@
       <c r="H108">
         <v>2020</v>
       </c>
-      <c r="I108" s="33">
+      <c r="I108" s="31">
         <v>2010</v>
       </c>
       <c r="J108">
@@ -18397,27 +18364,27 @@
       <c r="L108">
         <v>2030</v>
       </c>
-      <c r="M108" s="43">
+      <c r="M108" s="40">
         <v>0.5</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
+        <v>422</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" t="s">
         <v>424</v>
-      </c>
-      <c r="C109" t="s">
-        <v>425</v>
       </c>
       <c r="D109" t="s">
         <v>54</v>
       </c>
-      <c r="E109" s="30">
+      <c r="E109" s="28">
         <v>2050</v>
       </c>
-      <c r="F109" s="30" t="s">
+      <c r="F109" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G109" t="s">
@@ -18426,7 +18393,7 @@
       <c r="H109">
         <v>2020</v>
       </c>
-      <c r="I109" s="33">
+      <c r="I109" s="31">
         <v>2019</v>
       </c>
       <c r="J109">
@@ -18438,27 +18405,27 @@
       <c r="L109">
         <v>2035</v>
       </c>
-      <c r="M109" s="43">
+      <c r="M109" s="40">
         <v>0.68</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
+        <v>422</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" t="s">
         <v>424</v>
-      </c>
-      <c r="C110" t="s">
-        <v>425</v>
       </c>
       <c r="D110" t="s">
         <v>54</v>
       </c>
-      <c r="E110" s="30">
+      <c r="E110" s="28">
         <v>2050</v>
       </c>
-      <c r="F110" s="30" t="s">
+      <c r="F110" s="28" t="s">
         <v>293</v>
       </c>
       <c r="G110" t="s">
@@ -18467,7 +18434,7 @@
       <c r="H110">
         <v>2020</v>
       </c>
-      <c r="I110" s="33">
+      <c r="I110" s="31">
         <v>2019</v>
       </c>
       <c r="J110">
@@ -18475,12 +18442,12 @@
         <v>18.649999999999999</v>
       </c>
       <c r="K110" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L110">
         <v>2035</v>
       </c>
-      <c r="M110" s="43">
+      <c r="M110" s="40">
         <v>0.79</v>
       </c>
     </row>
@@ -18504,9 +18471,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="53" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="50" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="51" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="51" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" customWidth="1"/>
@@ -18514,1202 +18481,1202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="56" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" t="s">
         <v>318</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="4" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" t="s">
         <v>318</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" t="s">
         <v>318</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="4" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" t="s">
         <v>328</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" t="s">
         <v>318</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" t="s">
         <v>331</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" t="s">
         <v>333</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" t="s">
         <v>333</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" t="s">
         <v>333</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" t="s">
         <v>333</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" t="s">
         <v>333</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="53" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A16" s="71" t="s">
+    <row r="16" spans="1:6" s="50" customFormat="1" ht="72.75" customHeight="1">
+      <c r="A16" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="65" t="s">
         <v>341</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="50" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="53" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:6" s="50" customFormat="1" ht="72.75" customHeight="1">
+      <c r="A17" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="65" t="s">
         <v>344</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="50" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="32">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" t="s">
         <v>347</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="32">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" t="s">
         <v>347</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="32">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" t="s">
         <v>347</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="32">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" t="s">
         <v>347</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="32">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" t="s">
         <v>347</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="32">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" t="s">
         <v>347</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="48">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="E24" s="77" t="s">
+      <c r="E24" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="68" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="32">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" t="s">
         <v>347</v>
       </c>
-      <c r="F25" s="64" t="s">
+      <c r="F25" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="32">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" t="s">
         <v>347</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="F26" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="32">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" t="s">
         <v>347</v>
       </c>
-      <c r="F27" s="64" t="s">
+      <c r="F27" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="32">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" t="s">
         <v>347</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="F28" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="32">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" t="s">
         <v>347</v>
       </c>
-      <c r="F29" s="64" t="s">
+      <c r="F29" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="32">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" t="s">
         <v>347</v>
       </c>
-      <c r="F30" s="64" t="s">
+      <c r="F30" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="48">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F31" s="76" t="s">
+      <c r="F31" s="68" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="32">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" t="s">
         <v>347</v>
       </c>
-      <c r="F32" s="64" t="s">
+      <c r="F32" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" t="s">
         <v>347</v>
       </c>
-      <c r="F33" s="64" t="s">
+      <c r="F33" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" t="s">
         <v>347</v>
       </c>
-      <c r="F34" s="64" t="s">
+      <c r="F34" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="32">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" t="s">
         <v>347</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="32">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" t="s">
         <v>347</v>
       </c>
-      <c r="F36" s="64" t="s">
+      <c r="F36" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="32">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" t="s">
         <v>347</v>
       </c>
-      <c r="F37" s="64" t="s">
+      <c r="F37" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="48">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="62" t="s">
+      <c r="C38" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D38" s="76" t="s">
+      <c r="D38" s="68" t="s">
         <v>356</v>
       </c>
-      <c r="E38" s="77" t="s">
+      <c r="E38" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F38" s="76" t="s">
+      <c r="F38" s="68" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="32">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E39" s="64" t="s">
+      <c r="E39" t="s">
         <v>347</v>
       </c>
-      <c r="F39" s="64" t="s">
+      <c r="F39" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="32">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" t="s">
         <v>347</v>
       </c>
-      <c r="F40" s="64" t="s">
+      <c r="F40" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="32">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E41" s="64" t="s">
+      <c r="E41" t="s">
         <v>347</v>
       </c>
-      <c r="F41" s="64" t="s">
+      <c r="F41" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="32">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D42" s="68" t="s">
+      <c r="D42" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E42" s="64" t="s">
+      <c r="E42" t="s">
         <v>347</v>
       </c>
-      <c r="F42" s="64" t="s">
+      <c r="F42" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="32">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E43" s="64" t="s">
+      <c r="E43" t="s">
         <v>347</v>
       </c>
-      <c r="F43" s="64" t="s">
+      <c r="F43" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="32">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D44" s="68" t="s">
+      <c r="D44" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="E44" s="64" t="s">
+      <c r="E44" t="s">
         <v>347</v>
       </c>
-      <c r="F44" s="64" t="s">
+      <c r="F44" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D45" s="76" t="s">
+      <c r="D45" s="68" t="s">
         <v>359</v>
       </c>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F45" s="76" t="s">
+      <c r="F45" s="68" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="32">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="71" t="s">
         <v>360</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D46" s="68" t="s">
+      <c r="D46" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E46" s="64" t="s">
+      <c r="E46" t="s">
         <v>347</v>
       </c>
-      <c r="F46" s="64" t="s">
+      <c r="F46" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="32">
-      <c r="A47" s="80" t="s">
+      <c r="A47" s="71" t="s">
         <v>360</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E47" s="64" t="s">
+      <c r="E47" t="s">
         <v>347</v>
       </c>
-      <c r="F47" s="64" t="s">
+      <c r="F47" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="32">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="71" t="s">
         <v>360</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E48" s="64" t="s">
+      <c r="E48" t="s">
         <v>347</v>
       </c>
-      <c r="F48" s="64" t="s">
+      <c r="F48" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="32">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="71" t="s">
         <v>360</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D49" s="68" t="s">
+      <c r="D49" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E49" s="64" t="s">
+      <c r="E49" t="s">
         <v>347</v>
       </c>
-      <c r="F49" s="64" t="s">
+      <c r="F49" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="32">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="71" t="s">
         <v>360</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D50" s="68" t="s">
+      <c r="D50" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E50" s="64" t="s">
+      <c r="E50" t="s">
         <v>347</v>
       </c>
-      <c r="F50" s="64" t="s">
+      <c r="F50" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="32">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="71" t="s">
         <v>360</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="D51" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E51" s="64" t="s">
+      <c r="E51" t="s">
         <v>347</v>
       </c>
-      <c r="F51" s="64" t="s">
+      <c r="F51" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="32">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="D52" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="E52" s="64" t="s">
+      <c r="E52" t="s">
         <v>365</v>
       </c>
-      <c r="F52" s="64" t="s">
+      <c r="F52" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48">
-      <c r="A53" s="81" t="s">
+      <c r="A53" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="D53" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="E53" s="64" t="s">
+      <c r="E53" t="s">
         <v>367</v>
       </c>
-      <c r="F53" s="64" t="s">
+      <c r="F53" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="C54" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D54" s="82" t="s">
+      <c r="D54" s="73" t="s">
         <v>368</v>
       </c>
-      <c r="E54" s="67" t="s">
+      <c r="E54" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="F54" s="67" t="s">
+      <c r="F54" s="4" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16">
-      <c r="A55" s="81" t="s">
+      <c r="A55" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D55" s="68" t="s">
+      <c r="D55" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="E55" s="64" t="s">
+      <c r="E55" t="s">
         <v>369</v>
       </c>
-      <c r="F55" s="64" t="s">
+      <c r="F55" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="80">
-      <c r="A56" s="81" t="s">
+      <c r="A56" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D56" s="68" t="s">
+      <c r="D56" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="E56" s="64" t="s">
+      <c r="E56" t="s">
         <v>372</v>
       </c>
-      <c r="F56" s="64" t="s">
+      <c r="F56" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="112">
-      <c r="A57" s="81" t="s">
+      <c r="A57" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D57" s="63" t="s">
+      <c r="D57" s="51" t="s">
         <v>373</v>
       </c>
-      <c r="E57" s="83" t="s">
+      <c r="E57" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="F57" s="64" t="s">
+      <c r="F57" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16">
-      <c r="A58" s="81" t="s">
+      <c r="A58" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C58" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D58" s="68" t="s">
+      <c r="D58" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="E58" s="64" t="s">
+      <c r="E58" t="s">
         <v>369</v>
       </c>
-      <c r="F58" s="64" t="s">
+      <c r="F58" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="32">
-      <c r="A59" s="81" t="s">
+      <c r="A59" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D59" s="68" t="s">
+      <c r="D59" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="E59" s="64" t="s">
+      <c r="E59" t="s">
         <v>377</v>
       </c>
-      <c r="F59" s="64" t="s">
+      <c r="F59" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="48">
-      <c r="A60" s="84" t="s">
+      <c r="A60" s="75" t="s">
         <v>378</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="58" t="s">
         <v>379</v>
       </c>
-      <c r="C60" s="62" t="s">
+      <c r="C60" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D60" s="68" t="s">
+      <c r="D60" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="E60" s="64" t="s">
+      <c r="E60" t="s">
         <v>369</v>
       </c>
-      <c r="F60" s="64" t="s">
+      <c r="F60" t="s">
         <v>319</v>
       </c>
     </row>
@@ -19726,8 +19693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -19751,7 +19718,7 @@
         <v>381</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19768,8 +19735,7 @@
         <v>53</v>
       </c>
       <c r="E2">
-        <f ca="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>60311111</v>
+        <v>128044680</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19786,8 +19752,7 @@
         <v>62</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E67" ca="1" si="0">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>149142976</v>
+        <v>222137352</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -19804,8 +19769,7 @@
         <v>68</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>177999462</v>
+        <v>202792474</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -19822,8 +19786,7 @@
         <v>71</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>146111295</v>
+        <v>173978728</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -19840,44 +19803,41 @@
         <v>74</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>109540802</v>
+        <v>41688424</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D7" t="s">
         <v>76</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>170383032</v>
+        <v>228863679</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>108589923</v>
+        <v>204298983</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -19894,8 +19854,7 @@
         <v>79</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>102312964</v>
+        <v>229691950</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -19912,8 +19871,7 @@
         <v>83</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>86269376</v>
+        <v>155462028</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -19930,8 +19888,7 @@
         <v>89</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>82735928</v>
+        <v>155250000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -19948,8 +19905,7 @@
         <v>96</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>84248391</v>
+        <v>228522993</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -19966,8 +19922,7 @@
         <v>100</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>274102374</v>
+        <v>46734541</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -19984,8 +19939,7 @@
         <v>103</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>76642360</v>
+        <v>116731240</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -20002,8 +19956,7 @@
         <v>106</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>94716144</v>
+        <v>107885876</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -20020,8 +19973,7 @@
         <v>109</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>85299705</v>
+        <v>231997640</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -20038,8 +19990,7 @@
         <v>112</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>243013288</v>
+        <v>229066412</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -20056,8 +20007,7 @@
         <v>115</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>128911797</v>
+        <v>158355068</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -20074,8 +20024,7 @@
         <v>118</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>158656944</v>
+        <v>193333000</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -20092,8 +20041,7 @@
         <v>121</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="0"/>
-        <v>108959076</v>
+        <v>80377040</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -20110,8 +20058,7 @@
         <v>124</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>66377165</v>
+        <v>79268888</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -20128,8 +20075,7 @@
         <v>127</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="0"/>
-        <v>158545194</v>
+        <v>182808370</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -20146,8 +20092,7 @@
         <v>131</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="0"/>
-        <v>56594197</v>
+        <v>148934030</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -20164,8 +20109,7 @@
         <v>134</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="0"/>
-        <v>170949534</v>
+        <v>134977098</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -20182,8 +20126,7 @@
         <v>140</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="0"/>
-        <v>111861590</v>
+        <v>98406012</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -20200,8 +20143,7 @@
         <v>143</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="0"/>
-        <v>62412768</v>
+        <v>153651834</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -20218,8 +20160,7 @@
         <v>146</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="0"/>
-        <v>103646520</v>
+        <v>206738107</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -20236,8 +20177,7 @@
         <v>149</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="0"/>
-        <v>62387512</v>
+        <v>181136802</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -20254,8 +20194,7 @@
         <v>152</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="0"/>
-        <v>125263890</v>
+        <v>156295764</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -20272,8 +20211,7 @@
         <v>155</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="0"/>
-        <v>106969476</v>
+        <v>102932280</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -20290,8 +20228,7 @@
         <v>158</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="0"/>
-        <v>77872662</v>
+        <v>64821154</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -20308,8 +20245,7 @@
         <v>161</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="0"/>
-        <v>157351700</v>
+        <v>89039384</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -20326,8 +20262,7 @@
         <v>165</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="0"/>
-        <v>60670420</v>
+        <v>213595586</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -20344,8 +20279,7 @@
         <v>168</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="0"/>
-        <v>135327830</v>
+        <v>63616422</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -20362,8 +20296,7 @@
         <v>172</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="0"/>
-        <v>199381392</v>
+        <v>109971040</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -20380,26 +20313,24 @@
         <v>175</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="0"/>
-        <v>134305857</v>
+        <v>246149358</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>383</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" t="s">
         <v>385</v>
       </c>
-      <c r="C37" t="s">
-        <v>386</v>
-      </c>
       <c r="D37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="0"/>
-        <v>154428480</v>
+        <v>93683520</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -20416,8 +20347,7 @@
         <v>180</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="0"/>
-        <v>141312738</v>
+        <v>189043305</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -20434,8 +20364,7 @@
         <v>183</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="0"/>
-        <v>227460920</v>
+        <v>105362580</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -20452,8 +20381,7 @@
         <v>186</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="0"/>
-        <v>98718116</v>
+        <v>141196368</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -20470,8 +20398,7 @@
         <v>189</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="0"/>
-        <v>212091119</v>
+        <v>96495785</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -20488,8 +20415,7 @@
         <v>192</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="0"/>
-        <v>62502125</v>
+        <v>149373232</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -20506,8 +20432,7 @@
         <v>197</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="0"/>
-        <v>239175417</v>
+        <v>133812864</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -20524,8 +20449,7 @@
         <v>200</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="0"/>
-        <v>117405450</v>
+        <v>122816925</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -20542,44 +20466,41 @@
         <v>203</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="0"/>
-        <v>179066862</v>
+        <v>169034587</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
+        <v>387</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" t="s">
         <v>389</v>
       </c>
-      <c r="C46" t="s">
-        <v>390</v>
-      </c>
       <c r="D46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="0"/>
-        <v>243488040</v>
+        <v>87518208</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
+        <v>390</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="C47" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D47" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="0"/>
-        <v>235806480</v>
+        <v>64619604</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -20596,8 +20517,7 @@
         <v>206</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="0"/>
-        <v>41687382</v>
+        <v>166671760</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -20614,8 +20534,7 @@
         <v>209</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="0"/>
-        <v>169466016</v>
+        <v>210334070</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -20632,8 +20551,7 @@
         <v>212</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="0"/>
-        <v>105117452</v>
+        <v>231284508</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -20650,8 +20568,7 @@
         <v>216</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="0"/>
-        <v>59770452</v>
+        <v>189517900</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -20668,8 +20585,7 @@
         <v>219</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="0"/>
-        <v>260477340</v>
+        <v>215246634</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -20686,8 +20602,7 @@
         <v>222</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="0"/>
-        <v>217416231</v>
+        <v>88311419</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -20704,8 +20619,7 @@
         <v>225</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="0"/>
-        <v>176255753</v>
+        <v>113451900</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -20722,8 +20636,7 @@
         <v>228</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="0"/>
-        <v>75214200</v>
+        <v>133680312</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -20740,8 +20653,7 @@
         <v>232</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="0"/>
-        <v>176599773</v>
+        <v>121032202</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -20758,44 +20670,41 @@
         <v>235</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="0"/>
-        <v>73529160</v>
+        <v>126545599</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
+        <v>395</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" t="s">
         <v>397</v>
       </c>
-      <c r="C58" t="s">
-        <v>398</v>
-      </c>
       <c r="D58" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="0"/>
-        <v>75163012</v>
+        <v>194223350</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C59" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D59" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E59">
-        <f t="shared" ca="1" si="0"/>
-        <v>73872636</v>
+        <v>77681575</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -20812,8 +20721,7 @@
         <v>239</v>
       </c>
       <c r="E60">
-        <f t="shared" ca="1" si="0"/>
-        <v>106615189</v>
+        <v>93074400</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -20830,8 +20738,7 @@
         <v>242</v>
       </c>
       <c r="E61">
-        <f t="shared" ca="1" si="0"/>
-        <v>142345500</v>
+        <v>176979685</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -20848,8 +20755,7 @@
         <v>245</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="0"/>
-        <v>93686336</v>
+        <v>160531546</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -20866,26 +20772,24 @@
         <v>248</v>
       </c>
       <c r="E63">
-        <f t="shared" ca="1" si="0"/>
-        <v>177322387</v>
+        <v>54058800</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
+        <v>404</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" t="s">
         <v>406</v>
       </c>
-      <c r="C64" t="s">
-        <v>407</v>
-      </c>
       <c r="D64" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E64">
-        <f t="shared" ca="1" si="0"/>
-        <v>158584236</v>
+        <v>118230192</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -20902,8 +20806,7 @@
         <v>252</v>
       </c>
       <c r="E65">
-        <f t="shared" ca="1" si="0"/>
-        <v>133649040</v>
+        <v>105391348</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -20920,8 +20823,7 @@
         <v>255</v>
       </c>
       <c r="E66">
-        <f t="shared" ca="1" si="0"/>
-        <v>103636994</v>
+        <v>159342768</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -20938,8 +20840,7 @@
         <v>258</v>
       </c>
       <c r="E67">
-        <f t="shared" ca="1" si="0"/>
-        <v>110347536</v>
+        <v>118368459</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -20956,8 +20857,7 @@
         <v>261</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E77" ca="1" si="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>63074720</v>
+        <v>244087200</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -20974,8 +20874,7 @@
         <v>264</v>
       </c>
       <c r="E69">
-        <f t="shared" ca="1" si="1"/>
-        <v>57436140</v>
+        <v>91277777</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -20992,8 +20891,7 @@
         <v>267</v>
       </c>
       <c r="E70">
-        <f t="shared" ca="1" si="1"/>
-        <v>260385605</v>
+        <v>149802120</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -21010,8 +20908,7 @@
         <v>271</v>
       </c>
       <c r="E71">
-        <f t="shared" ca="1" si="1"/>
-        <v>147708036</v>
+        <v>78689137</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -21028,8 +20925,7 @@
         <v>274</v>
       </c>
       <c r="E72">
-        <f t="shared" ca="1" si="1"/>
-        <v>34522810</v>
+        <v>120218130</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -21046,8 +20942,7 @@
         <v>277</v>
       </c>
       <c r="E73">
-        <f t="shared" ca="1" si="1"/>
-        <v>124145028</v>
+        <v>194900720</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -21064,8 +20959,7 @@
         <v>280</v>
       </c>
       <c r="E74">
-        <f t="shared" ca="1" si="1"/>
-        <v>92207874</v>
+        <v>250005145</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -21082,44 +20976,41 @@
         <v>283</v>
       </c>
       <c r="E75">
-        <f t="shared" ca="1" si="1"/>
-        <v>163106028</v>
+        <v>92453214</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
+        <v>418</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" t="s">
         <v>420</v>
       </c>
-      <c r="C76" t="s">
-        <v>421</v>
-      </c>
       <c r="D76" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E76">
-        <f t="shared" ca="1" si="1"/>
-        <v>178385184</v>
+        <v>139657677</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
+        <v>422</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" t="s">
         <v>424</v>
       </c>
-      <c r="C77" t="s">
-        <v>425</v>
-      </c>
       <c r="D77" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E77">
-        <f t="shared" ca="1" si="1"/>
-        <v>239430800</v>
+        <v>142575850</v>
       </c>
     </row>
   </sheetData>

--- a/examples/data/20220927 ITR Tool Sample Data.xlsx
+++ b/examples/data/20220927 ITR Tool Sample Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/MichaelTiemannOSC/ITR/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B00BD2C-BC86-8F42-B440-EB2D9A420E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFA045B-994F-3742-B784-D5EF4B91AC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11700" windowWidth="48440" windowHeight="26600" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11700" windowWidth="48440" windowHeight="26600" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me " sheetId="1" r:id="rId1"/>
@@ -14009,11 +14009,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
-      <selection pane="bottomRight" activeCell="A110" sqref="A110:C110"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -15394,7 +15394,7 @@
         <v>299</v>
       </c>
       <c r="H35">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="I35" s="31">
         <v>2000</v>
@@ -19693,7 +19693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E77"/>
     </sheetView>
   </sheetViews>
